--- a/PianificazioneProgetto.xlsx
+++ b/PianificazioneProgetto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CB99A2-E578-EF40-A462-B0A12BAFF1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{C2CB99A2-E578-EF40-A462-B0A12BAFF1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{468CAACC-9EDD-4D4F-B637-A2C4E53BB76D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PianificazioneProgetto" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Come creare la pianificazione progetto in questo foglio di lavoro.
 Immettere il titolo del progetto nella cella B1. 
@@ -47,7 +47,13 @@
 Continuare a spostarsi verso il basso nella colonna A per ascoltare altre istruzioni.</t>
   </si>
   <si>
+    <t>GRUPPO 21 - PROGETTO ASD</t>
+  </si>
+  <si>
     <t>Immettere il nome società nella cella B2.</t>
+  </si>
+  <si>
+    <t>ANTONIO ROMANO, GIUSEPPE RICCIO, GIULIANO DI GIUSEPPE, SOSSIO CIRILLO</t>
   </si>
   <si>
     <t>Immettere il nome del Responsabile del progetto nella cella B3. Immettere la data di inizio progetto nella cella E3. Inizio progetto: l’etichetta si trova nella cella C3.</t>
@@ -109,6 +115,9 @@
 Per eliminare la fase e utilizzare solo le attività, è sufficiente eliminare la riga corrente.</t>
   </si>
   <si>
+    <t>ESERCIZIO 1 - MUX</t>
+  </si>
+  <si>
     <t xml:space="preserve">La cella B9 contiene l'attività di esempio "Attività 1". 
 Immettere un nuovo nome per l’attività nella cella B9.
 Immettere il nome della persona a cui assegnare l'attività nella cella C9.
@@ -116,6 +125,18 @@
 Immettere la data di inizio dell’attività nella cella E9.
 Immettere la data di fine dell’attività nella cella F9.
 Viene visualizzata una barra di stato ombreggiata in blocchi per le date immesse, a partire dalla cella I9 fino alla BL9. </t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>RICCIO-ROMANO</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
   <si>
     <t>La cella a destra contiene il titolo di esempio della Fase 2. 
@@ -128,34 +149,103 @@
 Ripetere le istruzioni delle celle A8 e A9 se necessario.</t>
   </si>
   <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>CIRILLO-DI GIUSEPPE</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>GRUPPO 21</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
     <t>Esempio di blocco con titolo di fase</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 8</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 9</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 10</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 11</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 12</t>
+  </si>
+  <si>
+    <t>12.1</t>
   </si>
   <si>
     <t>TOTALE</t>
   </si>
   <si>
-    <t>GRUPPO 21 - PROGETTO ASD</t>
+    <t>ESERCIZIO 2 - ENCODER BCD</t>
   </si>
   <si>
-    <t>ANTONIO ROMANO, GIUSEPPE RICCIO, GIULIANO DI GIUSEPPE, SOSSIO CIRILLO</t>
+    <t>ESERCIZIO 3 - RICONOSCITORE 2 MODI</t>
   </si>
   <si>
-    <t>ESERCIZIO 1</t>
+    <t>ESERCIZIO 4 - SHIFT REGISTER</t>
   </si>
   <si>
-    <t>ESERCIZIO 2</t>
+    <t>ESERCIZIO 5 - CRONOMETRO</t>
   </si>
   <si>
-    <t>ESERCIZIO 3</t>
+    <t>ESERCIZIO 6 - TESTING AUTOMATICO</t>
   </si>
   <si>
-    <t>ESERCIZIO 4</t>
-  </si>
-  <si>
-    <t>ESERCIZIO 5</t>
-  </si>
-  <si>
-    <t>ESERCIZIO 6</t>
+    <t>ESERCIZIO 7 - HANDSHAKING</t>
   </si>
 </sst>
 </file>
@@ -172,7 +262,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
     <numFmt numFmtId="169" formatCode="d\ mmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +463,13 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -625,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -851,6 +948,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -923,7 +1072,7 @@
     <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -957,27 +1106,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,21 +1139,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,24 +1157,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,20 +1175,104 @@
     <xf numFmtId="166" fontId="7" fillId="8" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="42" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="42" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="43" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="43" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1100,28 +1297,6 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="43" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="43" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1180,7 +1355,277 @@
     <cellStyle name="Valuta [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="zTestoNascosto" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1505,15 +1950,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="totalRow" dxfId="28"/>
-      <tableStyleElement type="firstColumn" dxfId="27"/>
-      <tableStyleElement type="lastColumn" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="totalRow" dxfId="55"/>
+      <tableStyleElement type="firstColumn" dxfId="54"/>
+      <tableStyleElement type="lastColumn" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="secondRowStripe" dxfId="51"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="50"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="49"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1872,16 +2317,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS21"/>
+  <dimension ref="A1:BS41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="53" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="41" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
@@ -1893,440 +2338,440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>21</v>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="23"/>
+      <c r="F1" s="20"/>
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="24"/>
+      <c r="A2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="60">
+      <c r="A3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="78">
         <v>44489</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="61">
+      <c r="B4" s="23"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="79">
         <v>44546</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="58"/>
+      <c r="A5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="76"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="72">
         <f>I6</f>
         <v>44487</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="54">
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72">
         <f>P6</f>
         <v>44494</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="54">
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="72">
         <f>W6</f>
         <v>44501</v>
       </c>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="54">
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="72">
         <f>AD6</f>
         <v>44508</v>
       </c>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="54">
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="72">
         <f>AK6</f>
         <v>44515</v>
       </c>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="54">
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AP5" s="73"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="72">
         <f>AR6</f>
         <v>44522</v>
       </c>
-      <c r="AS5" s="55"/>
-      <c r="AT5" s="55"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="54">
+      <c r="AS5" s="73"/>
+      <c r="AT5" s="73"/>
+      <c r="AU5" s="73"/>
+      <c r="AV5" s="73"/>
+      <c r="AW5" s="73"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="72">
         <f>AY6</f>
         <v>44529</v>
       </c>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="55"/>
-      <c r="BB5" s="55"/>
-      <c r="BC5" s="55"/>
-      <c r="BD5" s="55"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="54">
+      <c r="AZ5" s="73"/>
+      <c r="BA5" s="73"/>
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="73"/>
+      <c r="BD5" s="73"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="72">
         <f>BF6</f>
         <v>44536</v>
       </c>
-      <c r="BG5" s="55"/>
-      <c r="BH5" s="55"/>
-      <c r="BI5" s="55"/>
-      <c r="BJ5" s="55"/>
-      <c r="BK5" s="55"/>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="54">
+      <c r="BG5" s="73"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="73"/>
+      <c r="BJ5" s="73"/>
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="72">
         <f>BM6</f>
         <v>44543</v>
       </c>
-      <c r="BN5" s="55"/>
-      <c r="BO5" s="55"/>
-      <c r="BP5" s="55"/>
-      <c r="BQ5" s="55"/>
-      <c r="BR5" s="55"/>
-      <c r="BS5" s="56"/>
+      <c r="BN5" s="73"/>
+      <c r="BO5" s="73"/>
+      <c r="BP5" s="73"/>
+      <c r="BQ5" s="73"/>
+      <c r="BR5" s="73"/>
+      <c r="BS5" s="74"/>
     </row>
     <row r="6" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="I6" s="42">
+      <c r="A6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="I6" s="30">
         <f>_xlfn.SINGLE(Inizio_progetto)-WEEKDAY(_xlfn.SINGLE(Inizio_progetto),1)+2+7*(_xlfn.SINGLE(Visualizza_settimana)-1)</f>
         <v>44487</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="31">
         <f>I6+1</f>
         <v>44488</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="31">
         <f t="shared" ref="K6:AY6" si="0">J6+1</f>
         <v>44489</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="31">
         <f t="shared" si="0"/>
         <v>44490</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="31">
         <f t="shared" si="0"/>
         <v>44491</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="31">
         <f t="shared" si="0"/>
         <v>44492</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="32">
         <f t="shared" si="0"/>
         <v>44493</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="30">
         <f>O6+1</f>
         <v>44494</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="31">
         <f>P6+1</f>
         <v>44495</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="31">
         <f t="shared" si="0"/>
         <v>44496</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>44497</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="31">
         <f t="shared" si="0"/>
         <v>44498</v>
       </c>
-      <c r="U6" s="43">
+      <c r="U6" s="31">
         <f t="shared" si="0"/>
         <v>44499</v>
       </c>
-      <c r="V6" s="44">
+      <c r="V6" s="32">
         <f t="shared" si="0"/>
         <v>44500</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="30">
         <f>V6+1</f>
         <v>44501</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="31">
         <f>W6+1</f>
         <v>44502</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="31">
         <f t="shared" si="0"/>
         <v>44503</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Z6" s="31">
         <f t="shared" si="0"/>
         <v>44504</v>
       </c>
-      <c r="AA6" s="43">
+      <c r="AA6" s="31">
         <f t="shared" si="0"/>
         <v>44505</v>
       </c>
-      <c r="AB6" s="43">
+      <c r="AB6" s="31">
         <f t="shared" si="0"/>
         <v>44506</v>
       </c>
-      <c r="AC6" s="44">
+      <c r="AC6" s="32">
         <f t="shared" si="0"/>
         <v>44507</v>
       </c>
-      <c r="AD6" s="42">
+      <c r="AD6" s="30">
         <f>AC6+1</f>
         <v>44508</v>
       </c>
-      <c r="AE6" s="43">
+      <c r="AE6" s="31">
         <f>AD6+1</f>
         <v>44509</v>
       </c>
-      <c r="AF6" s="43">
+      <c r="AF6" s="31">
         <f t="shared" si="0"/>
         <v>44510</v>
       </c>
-      <c r="AG6" s="43">
+      <c r="AG6" s="31">
         <f t="shared" si="0"/>
         <v>44511</v>
       </c>
-      <c r="AH6" s="43">
+      <c r="AH6" s="31">
         <f t="shared" si="0"/>
         <v>44512</v>
       </c>
-      <c r="AI6" s="43">
+      <c r="AI6" s="31">
         <f t="shared" si="0"/>
         <v>44513</v>
       </c>
-      <c r="AJ6" s="44">
+      <c r="AJ6" s="32">
         <f t="shared" si="0"/>
         <v>44514</v>
       </c>
-      <c r="AK6" s="42">
+      <c r="AK6" s="30">
         <f>AJ6+1</f>
         <v>44515</v>
       </c>
-      <c r="AL6" s="43">
+      <c r="AL6" s="31">
         <f>AK6+1</f>
         <v>44516</v>
       </c>
-      <c r="AM6" s="43">
+      <c r="AM6" s="31">
         <f t="shared" si="0"/>
         <v>44517</v>
       </c>
-      <c r="AN6" s="43">
+      <c r="AN6" s="31">
         <f t="shared" si="0"/>
         <v>44518</v>
       </c>
-      <c r="AO6" s="43">
+      <c r="AO6" s="31">
         <f t="shared" si="0"/>
         <v>44519</v>
       </c>
-      <c r="AP6" s="43">
+      <c r="AP6" s="31">
         <f t="shared" si="0"/>
         <v>44520</v>
       </c>
-      <c r="AQ6" s="44">
+      <c r="AQ6" s="32">
         <f t="shared" si="0"/>
         <v>44521</v>
       </c>
-      <c r="AR6" s="42">
+      <c r="AR6" s="30">
         <f>AQ6+1</f>
         <v>44522</v>
       </c>
-      <c r="AS6" s="43">
+      <c r="AS6" s="31">
         <f>AR6+1</f>
         <v>44523</v>
       </c>
-      <c r="AT6" s="43">
+      <c r="AT6" s="31">
         <f t="shared" si="0"/>
         <v>44524</v>
       </c>
-      <c r="AU6" s="43">
+      <c r="AU6" s="31">
         <f t="shared" si="0"/>
         <v>44525</v>
       </c>
-      <c r="AV6" s="43">
+      <c r="AV6" s="31">
         <f t="shared" si="0"/>
         <v>44526</v>
       </c>
-      <c r="AW6" s="43">
+      <c r="AW6" s="31">
         <f t="shared" si="0"/>
         <v>44527</v>
       </c>
-      <c r="AX6" s="44">
+      <c r="AX6" s="32">
         <f t="shared" si="0"/>
         <v>44528</v>
       </c>
-      <c r="AY6" s="44">
+      <c r="AY6" s="32">
         <f t="shared" si="0"/>
         <v>44529</v>
       </c>
-      <c r="AZ6" s="43">
+      <c r="AZ6" s="31">
         <f>AY6+1</f>
         <v>44530</v>
       </c>
-      <c r="BA6" s="43">
+      <c r="BA6" s="31">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
         <v>44531</v>
       </c>
-      <c r="BB6" s="43">
+      <c r="BB6" s="31">
         <f t="shared" si="1"/>
         <v>44532</v>
       </c>
-      <c r="BC6" s="43">
+      <c r="BC6" s="31">
         <f t="shared" si="1"/>
         <v>44533</v>
       </c>
-      <c r="BD6" s="43">
+      <c r="BD6" s="31">
         <f t="shared" si="1"/>
         <v>44534</v>
       </c>
-      <c r="BE6" s="44">
+      <c r="BE6" s="32">
         <f t="shared" si="1"/>
         <v>44535</v>
       </c>
-      <c r="BF6" s="44">
+      <c r="BF6" s="32">
         <f t="shared" ref="BF6" si="2">BE6+1</f>
         <v>44536</v>
       </c>
-      <c r="BG6" s="43">
+      <c r="BG6" s="31">
         <f>BF6+1</f>
         <v>44537</v>
       </c>
-      <c r="BH6" s="43">
+      <c r="BH6" s="31">
         <f t="shared" ref="BH6" si="3">BG6+1</f>
         <v>44538</v>
       </c>
-      <c r="BI6" s="43">
+      <c r="BI6" s="31">
         <f t="shared" ref="BI6" si="4">BH6+1</f>
         <v>44539</v>
       </c>
-      <c r="BJ6" s="43">
+      <c r="BJ6" s="31">
         <f t="shared" ref="BJ6" si="5">BI6+1</f>
         <v>44540</v>
       </c>
-      <c r="BK6" s="43">
+      <c r="BK6" s="31">
         <f t="shared" ref="BK6" si="6">BJ6+1</f>
         <v>44541</v>
       </c>
-      <c r="BL6" s="44">
+      <c r="BL6" s="32">
         <f t="shared" ref="BL6" si="7">BK6+1</f>
         <v>44542</v>
       </c>
-      <c r="BM6" s="44">
+      <c r="BM6" s="32">
         <f t="shared" ref="BM6" si="8">BL6+1</f>
         <v>44543</v>
       </c>
-      <c r="BN6" s="43">
+      <c r="BN6" s="31">
         <f>BM6+1</f>
         <v>44544</v>
       </c>
-      <c r="BO6" s="43">
+      <c r="BO6" s="31">
         <f t="shared" ref="BO6" si="9">BN6+1</f>
         <v>44545</v>
       </c>
-      <c r="BP6" s="43">
+      <c r="BP6" s="31">
         <f t="shared" ref="BP6" si="10">BO6+1</f>
         <v>44546</v>
       </c>
-      <c r="BQ6" s="43">
+      <c r="BQ6" s="31">
         <f t="shared" ref="BQ6" si="11">BP6+1</f>
         <v>44547</v>
       </c>
-      <c r="BR6" s="43">
+      <c r="BR6" s="31">
         <f t="shared" ref="BR6" si="12">BQ6+1</f>
         <v>44548</v>
       </c>
-      <c r="BS6" s="44">
+      <c r="BS6" s="32">
         <f t="shared" ref="BS6" si="13">BR6+1</f>
         <v>44549</v>
       </c>
     </row>
     <row r="7" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>8</v>
+      <c r="A7" s="40" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="shared" ref="I7:AN7" si="14">LEFT(TEXT(I6,"ggg"),1)</f>
@@ -2582,1114 +3027,2742 @@
       </c>
     </row>
     <row r="8" spans="1:71" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="25"/>
+      <c r="A8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="22"/>
       <c r="E8"/>
       <c r="H8" t="str">
-        <f t="shared" ref="H8:H19" si="18">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
+        <f t="shared" ref="H8:H26" si="18">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
         <v/>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
     </row>
-    <row r="9" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="str">
+    <row r="9" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21"/>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21"/>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21"/>
-      <c r="BS9" s="21"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="49"/>
+      <c r="BG9" s="49"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
+      <c r="BJ9" s="49"/>
+      <c r="BK9" s="49"/>
+      <c r="BL9" s="49"/>
+      <c r="BM9" s="49"/>
+      <c r="BN9" s="49"/>
+      <c r="BO9" s="49"/>
+      <c r="BP9" s="49"/>
+      <c r="BQ9" s="49"/>
+      <c r="BR9" s="49"/>
+      <c r="BS9" s="49"/>
     </row>
     <row r="10" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="47">
-        <v>44295</v>
-      </c>
-      <c r="F10" s="47">
-        <v>44322</v>
+      <c r="A10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="35">
+        <v>44503</v>
+      </c>
+      <c r="F10" s="35">
+        <v>44510</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
         <f t="shared" si="18"/>
-        <v>28</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="21"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
-      <c r="BM10" s="21"/>
-      <c r="BN10" s="21"/>
-      <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="18"/>
+      <c r="BL10" s="18"/>
+      <c r="BM10" s="18"/>
+      <c r="BN10" s="18"/>
+      <c r="BO10" s="18"/>
+      <c r="BP10" s="18"/>
+      <c r="BQ10" s="18"/>
+      <c r="BR10" s="18"/>
+      <c r="BS10" s="18"/>
     </row>
-    <row r="11" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="35">
+        <v>44503</v>
+      </c>
+      <c r="F11" s="35">
+        <v>44510</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
+      <c r="BK11" s="18"/>
+      <c r="BL11" s="18"/>
+      <c r="BM11" s="18"/>
+      <c r="BN11" s="18"/>
+      <c r="BO11" s="18"/>
+      <c r="BP11" s="18"/>
+      <c r="BQ11" s="18"/>
+      <c r="BR11" s="18"/>
+      <c r="BS11" s="18"/>
+    </row>
+    <row r="12" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="str">
+      <c r="C12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="35">
+        <v>44503</v>
+      </c>
+      <c r="F12" s="35">
+        <v>44515</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="18"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="18"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="18"/>
+      <c r="BJ12" s="18"/>
+      <c r="BK12" s="18"/>
+      <c r="BL12" s="18"/>
+      <c r="BM12" s="18"/>
+      <c r="BN12" s="18"/>
+      <c r="BO12" s="18"/>
+      <c r="BP12" s="18"/>
+      <c r="BQ12" s="18"/>
+      <c r="BR12" s="18"/>
+      <c r="BS12" s="18"/>
+    </row>
+    <row r="13" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="21"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="21"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="21"/>
-      <c r="BM11" s="21"/>
-      <c r="BN11" s="21"/>
-      <c r="BO11" s="21"/>
-      <c r="BP11" s="21"/>
-      <c r="BQ11" s="21"/>
-      <c r="BR11" s="21"/>
-      <c r="BS11" s="21"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="49"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="49"/>
+      <c r="AZ13" s="49"/>
+      <c r="BA13" s="49"/>
+      <c r="BB13" s="49"/>
+      <c r="BC13" s="49"/>
+      <c r="BD13" s="49"/>
+      <c r="BE13" s="49"/>
+      <c r="BF13" s="49"/>
+      <c r="BG13" s="49"/>
+      <c r="BH13" s="49"/>
+      <c r="BI13" s="49"/>
+      <c r="BJ13" s="49"/>
+      <c r="BK13" s="49"/>
+      <c r="BL13" s="49"/>
+      <c r="BM13" s="49"/>
+      <c r="BN13" s="49"/>
+      <c r="BO13" s="49"/>
+      <c r="BP13" s="49"/>
+      <c r="BQ13" s="49"/>
+      <c r="BR13" s="49"/>
+      <c r="BS13" s="49"/>
     </row>
-    <row r="12" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="45">
-        <v>44322</v>
-      </c>
-      <c r="F12" s="45">
-        <f>E12+2</f>
-        <v>44324</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="21"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="21"/>
-      <c r="BG12" s="21"/>
-      <c r="BH12" s="21"/>
-      <c r="BI12" s="21"/>
-      <c r="BJ12" s="21"/>
-      <c r="BK12" s="21"/>
-      <c r="BL12" s="21"/>
-      <c r="BM12" s="21"/>
-      <c r="BN12" s="21"/>
-      <c r="BO12" s="21"/>
-      <c r="BP12" s="21"/>
-      <c r="BQ12" s="21"/>
-      <c r="BR12" s="21"/>
-      <c r="BS12" s="21"/>
-    </row>
-    <row r="13" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="15" t="s">
+    <row r="14" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="21"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="21"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
-      <c r="BN13" s="21"/>
-      <c r="BO13" s="21"/>
-      <c r="BP13" s="21"/>
-      <c r="BQ13" s="21"/>
-      <c r="BR13" s="21"/>
-      <c r="BS13" s="21"/>
-    </row>
-    <row r="14" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="46">
-        <v>44344</v>
-      </c>
-      <c r="F14" s="46">
-        <v>44347</v>
+      <c r="B14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="33">
+        <v>44503</v>
+      </c>
+      <c r="F14" s="33">
+        <v>44510</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="21"/>
-      <c r="BN14" s="21"/>
-      <c r="BO14" s="21"/>
-      <c r="BP14" s="21"/>
-      <c r="BQ14" s="21"/>
-      <c r="BR14" s="21"/>
-      <c r="BS14" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18"/>
+      <c r="BG14" s="18"/>
+      <c r="BH14" s="18"/>
+      <c r="BI14" s="18"/>
+      <c r="BJ14" s="18"/>
+      <c r="BK14" s="18"/>
+      <c r="BL14" s="18"/>
+      <c r="BM14" s="18"/>
+      <c r="BN14" s="18"/>
+      <c r="BO14" s="18"/>
+      <c r="BP14" s="18"/>
+      <c r="BQ14" s="18"/>
+      <c r="BR14" s="18"/>
+      <c r="BS14" s="18"/>
     </row>
-    <row r="15" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+    <row r="15" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="33">
+        <v>44503</v>
+      </c>
+      <c r="F15" s="33">
+        <v>44510</v>
+      </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="11" t="str">
+      <c r="H15" s="11"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="68"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="18"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="18"/>
+      <c r="BG15" s="18"/>
+      <c r="BH15" s="18"/>
+      <c r="BI15" s="18"/>
+      <c r="BJ15" s="18"/>
+      <c r="BK15" s="18"/>
+      <c r="BL15" s="18"/>
+      <c r="BM15" s="18"/>
+      <c r="BN15" s="18"/>
+      <c r="BO15" s="18"/>
+      <c r="BP15" s="18"/>
+      <c r="BQ15" s="18"/>
+      <c r="BR15" s="18"/>
+      <c r="BS15" s="18"/>
+    </row>
+    <row r="16" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <v>44503</v>
+      </c>
+      <c r="F16" s="33">
+        <v>44510</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="18"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="18"/>
+      <c r="BG16" s="18"/>
+      <c r="BH16" s="18"/>
+      <c r="BI16" s="18"/>
+      <c r="BJ16" s="18"/>
+      <c r="BK16" s="18"/>
+      <c r="BL16" s="18"/>
+      <c r="BM16" s="18"/>
+      <c r="BN16" s="18"/>
+      <c r="BO16" s="18"/>
+      <c r="BP16" s="18"/>
+      <c r="BQ16" s="18"/>
+      <c r="BR16" s="18"/>
+      <c r="BS16" s="18"/>
+    </row>
+    <row r="17" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
+      <c r="B17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
-      <c r="BM15" s="21"/>
-      <c r="BN15" s="21"/>
-      <c r="BO15" s="21"/>
-      <c r="BP15" s="21"/>
-      <c r="BQ15" s="21"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="49"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="49"/>
+      <c r="AZ17" s="49"/>
+      <c r="BA17" s="49"/>
+      <c r="BB17" s="49"/>
+      <c r="BC17" s="49"/>
+      <c r="BD17" s="49"/>
+      <c r="BE17" s="49"/>
+      <c r="BF17" s="49"/>
+      <c r="BG17" s="49"/>
+      <c r="BH17" s="49"/>
+      <c r="BI17" s="49"/>
+      <c r="BJ17" s="49"/>
+      <c r="BK17" s="49"/>
+      <c r="BL17" s="49"/>
+      <c r="BM17" s="49"/>
+      <c r="BN17" s="49"/>
+      <c r="BO17" s="49"/>
+      <c r="BP17" s="49"/>
+      <c r="BQ17" s="49"/>
+      <c r="BR17" s="49"/>
+      <c r="BS17" s="49"/>
     </row>
-    <row r="16" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="47">
-        <v>44295</v>
-      </c>
-      <c r="F16" s="47">
-        <v>44322</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
-        <f t="shared" si="18"/>
-        <v>28</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
-      <c r="BK16" s="21"/>
-      <c r="BL16" s="21"/>
-      <c r="BM16" s="21"/>
-      <c r="BN16" s="21"/>
-      <c r="BO16" s="21"/>
-      <c r="BP16" s="21"/>
-      <c r="BQ16" s="21"/>
-      <c r="BR16" s="21"/>
-      <c r="BS16" s="21"/>
-    </row>
-    <row r="17" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
-      <c r="BK17" s="21"/>
-      <c r="BL17" s="21"/>
-      <c r="BM17" s="21"/>
-      <c r="BN17" s="21"/>
-      <c r="BO17" s="21"/>
-      <c r="BP17" s="21"/>
-      <c r="BQ17" s="21"/>
-      <c r="BR17" s="21"/>
-      <c r="BS17" s="21"/>
-    </row>
-    <row r="18" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="14">
-        <v>0</v>
-      </c>
-      <c r="E18" s="45">
-        <v>44322</v>
-      </c>
-      <c r="F18" s="45">
-        <f>E18+2</f>
-        <v>44324</v>
+    <row r="18" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41"/>
+      <c r="B18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="34">
+        <v>44489</v>
+      </c>
+      <c r="F18" s="34">
+        <v>44496</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11">
         <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="21"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="21"/>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="21"/>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="21"/>
-      <c r="BF18" s="21"/>
-      <c r="BG18" s="21"/>
-      <c r="BH18" s="21"/>
-      <c r="BI18" s="21"/>
-      <c r="BJ18" s="21"/>
-      <c r="BK18" s="21"/>
-      <c r="BL18" s="21"/>
-      <c r="BM18" s="21"/>
-      <c r="BN18" s="21"/>
-      <c r="BO18" s="21"/>
-      <c r="BP18" s="21"/>
-      <c r="BQ18" s="21"/>
-      <c r="BR18" s="21"/>
-      <c r="BS18" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
+      <c r="BK18" s="18"/>
+      <c r="BL18" s="18"/>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="18"/>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="18"/>
+      <c r="BQ18" s="18"/>
+      <c r="BR18" s="18"/>
+      <c r="BS18" s="18"/>
     </row>
-    <row r="19" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+    <row r="19" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="B19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="E19" s="34">
+        <v>44512</v>
+      </c>
+      <c r="F19" s="34">
+        <v>44519</v>
+      </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="11" t="str">
+      <c r="H19" s="11"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="18"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="18"/>
+      <c r="BJ19" s="18"/>
+      <c r="BK19" s="18"/>
+      <c r="BL19" s="18"/>
+      <c r="BM19" s="18"/>
+      <c r="BN19" s="18"/>
+      <c r="BO19" s="18"/>
+      <c r="BP19" s="18"/>
+      <c r="BQ19" s="18"/>
+      <c r="BR19" s="18"/>
+      <c r="BS19" s="18"/>
+    </row>
+    <row r="20" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="21"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="21"/>
-      <c r="BM19" s="21"/>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="21"/>
-      <c r="BQ19" s="21"/>
-      <c r="BR19" s="21"/>
-      <c r="BS19" s="21"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="49"/>
+      <c r="AZ20" s="49"/>
+      <c r="BA20" s="49"/>
+      <c r="BB20" s="49"/>
+      <c r="BC20" s="49"/>
+      <c r="BD20" s="49"/>
+      <c r="BE20" s="49"/>
+      <c r="BF20" s="49"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="49"/>
+      <c r="BI20" s="49"/>
+      <c r="BJ20" s="49"/>
+      <c r="BK20" s="49"/>
+      <c r="BL20" s="49"/>
+      <c r="BM20" s="49"/>
+      <c r="BN20" s="49"/>
+      <c r="BO20" s="49"/>
+      <c r="BP20" s="49"/>
+      <c r="BQ20" s="49"/>
+      <c r="BR20" s="49"/>
+      <c r="BS20" s="49"/>
     </row>
-    <row r="20" spans="1:71" s="64" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="17">
+    <row r="21" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="E20" s="46">
-        <v>44344</v>
-      </c>
-      <c r="F20" s="46">
-        <v>44347</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
-        <f t="shared" ref="H20:H21" si="19">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
-        <v>4</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="21"/>
-      <c r="AN20" s="21"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="21"/>
-      <c r="AQ20" s="21"/>
-      <c r="AR20" s="21"/>
-      <c r="AS20" s="21"/>
-      <c r="AT20" s="21"/>
-      <c r="AU20" s="21"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="21"/>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="21"/>
-      <c r="BA20" s="21"/>
-      <c r="BB20" s="21"/>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="21"/>
-      <c r="BE20" s="21"/>
-      <c r="BF20" s="21"/>
-      <c r="BG20" s="21"/>
-      <c r="BH20" s="21"/>
-      <c r="BI20" s="21"/>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="21"/>
-      <c r="BL20" s="21"/>
-      <c r="BM20" s="21"/>
-      <c r="BN20" s="21"/>
-      <c r="BO20" s="21"/>
-      <c r="BP20" s="21"/>
-      <c r="BQ20" s="21"/>
-      <c r="BR20" s="21"/>
-      <c r="BS20" s="21"/>
+      <c r="E21" s="35">
+        <v>44512</v>
+      </c>
+      <c r="F21" s="35">
+        <v>44519</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="18"/>
+      <c r="BK21" s="18"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="18"/>
+      <c r="BR21" s="18"/>
+      <c r="BS21" s="18"/>
     </row>
-    <row r="21" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67">
-        <f>AVERAGE(D10,D12,D14,D16:D16:D18:D18:D20:D20)</f>
+    <row r="22" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+      <c r="B22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="49"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="49"/>
+      <c r="BA22" s="49"/>
+      <c r="BB22" s="49"/>
+      <c r="BC22" s="49"/>
+      <c r="BD22" s="49"/>
+      <c r="BE22" s="49"/>
+      <c r="BF22" s="49"/>
+      <c r="BG22" s="49"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="49"/>
+      <c r="BJ22" s="49"/>
+      <c r="BK22" s="49"/>
+      <c r="BL22" s="49"/>
+      <c r="BM22" s="49"/>
+      <c r="BN22" s="49"/>
+      <c r="BO22" s="49"/>
+      <c r="BP22" s="49"/>
+      <c r="BQ22" s="49"/>
+      <c r="BR22" s="49"/>
+      <c r="BS22" s="49"/>
+    </row>
+    <row r="23" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
+      <c r="B23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13">
         <v>0</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69" t="str">
+      <c r="E23" s="33">
+        <v>44512</v>
+      </c>
+      <c r="F23" s="33">
+        <v>44519</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="18"/>
+      <c r="AX23" s="18"/>
+      <c r="AY23" s="18"/>
+      <c r="AZ23" s="18"/>
+      <c r="BA23" s="18"/>
+      <c r="BB23" s="18"/>
+      <c r="BC23" s="18"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="18"/>
+      <c r="BI23" s="18"/>
+      <c r="BJ23" s="18"/>
+      <c r="BK23" s="18"/>
+      <c r="BL23" s="18"/>
+      <c r="BM23" s="18"/>
+      <c r="BN23" s="18"/>
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="18"/>
+      <c r="BQ23" s="18"/>
+      <c r="BR23" s="18"/>
+      <c r="BS23" s="18"/>
+    </row>
+    <row r="24" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="41"/>
+      <c r="B24" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="33">
+        <v>44512</v>
+      </c>
+      <c r="F24" s="33">
+        <v>44519</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="18"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="18"/>
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="18"/>
+      <c r="AZ24" s="18"/>
+      <c r="BA24" s="18"/>
+      <c r="BB24" s="18"/>
+      <c r="BC24" s="18"/>
+      <c r="BD24" s="18"/>
+      <c r="BE24" s="18"/>
+      <c r="BF24" s="18"/>
+      <c r="BG24" s="18"/>
+      <c r="BH24" s="18"/>
+      <c r="BI24" s="18"/>
+      <c r="BJ24" s="18"/>
+      <c r="BK24" s="18"/>
+      <c r="BL24" s="18"/>
+      <c r="BM24" s="18"/>
+      <c r="BN24" s="18"/>
+      <c r="BO24" s="18"/>
+      <c r="BP24" s="18"/>
+      <c r="BQ24" s="18"/>
+      <c r="BR24" s="18"/>
+      <c r="BS24" s="18"/>
+    </row>
+    <row r="25" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="41"/>
+      <c r="B25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="33">
+        <v>44512</v>
+      </c>
+      <c r="F25" s="33">
+        <v>44519</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
+      <c r="AY25" s="18"/>
+      <c r="AZ25" s="18"/>
+      <c r="BA25" s="18"/>
+      <c r="BB25" s="18"/>
+      <c r="BC25" s="18"/>
+      <c r="BD25" s="18"/>
+      <c r="BE25" s="18"/>
+      <c r="BF25" s="18"/>
+      <c r="BG25" s="18"/>
+      <c r="BH25" s="18"/>
+      <c r="BI25" s="18"/>
+      <c r="BJ25" s="18"/>
+      <c r="BK25" s="18"/>
+      <c r="BL25" s="18"/>
+      <c r="BM25" s="18"/>
+      <c r="BN25" s="18"/>
+      <c r="BO25" s="18"/>
+      <c r="BP25" s="18"/>
+      <c r="BQ25" s="18"/>
+      <c r="BR25" s="18"/>
+      <c r="BS25" s="18"/>
+    </row>
+    <row r="26" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+      <c r="B26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="49"/>
+      <c r="BP26" s="49"/>
+      <c r="BQ26" s="49"/>
+      <c r="BR26" s="49"/>
+      <c r="BS26" s="49"/>
+    </row>
+    <row r="27" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="str">
+        <f t="shared" ref="H27:H41" si="19">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
+        <v/>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="18"/>
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="18"/>
+      <c r="AV27" s="18"/>
+      <c r="AW27" s="18"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="18"/>
+      <c r="BA27" s="18"/>
+      <c r="BB27" s="18"/>
+      <c r="BC27" s="18"/>
+      <c r="BD27" s="18"/>
+      <c r="BE27" s="18"/>
+      <c r="BF27" s="18"/>
+      <c r="BG27" s="18"/>
+      <c r="BH27" s="18"/>
+      <c r="BI27" s="18"/>
+      <c r="BJ27" s="18"/>
+      <c r="BK27" s="18"/>
+      <c r="BL27" s="18"/>
+      <c r="BM27" s="18"/>
+      <c r="BN27" s="18"/>
+      <c r="BO27" s="18"/>
+      <c r="BP27" s="18"/>
+      <c r="BQ27" s="18"/>
+      <c r="BR27" s="18"/>
+      <c r="BS27" s="18"/>
+    </row>
+    <row r="28" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="18"/>
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="18"/>
+      <c r="AV28" s="18"/>
+      <c r="AW28" s="18"/>
+      <c r="AX28" s="18"/>
+      <c r="AY28" s="18"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="18"/>
+      <c r="BB28" s="18"/>
+      <c r="BC28" s="18"/>
+      <c r="BD28" s="18"/>
+      <c r="BE28" s="18"/>
+      <c r="BF28" s="18"/>
+      <c r="BG28" s="18"/>
+      <c r="BH28" s="18"/>
+      <c r="BI28" s="18"/>
+      <c r="BJ28" s="18"/>
+      <c r="BK28" s="18"/>
+      <c r="BL28" s="18"/>
+      <c r="BM28" s="18"/>
+      <c r="BN28" s="18"/>
+      <c r="BO28" s="18"/>
+      <c r="BP28" s="18"/>
+      <c r="BQ28" s="18"/>
+      <c r="BR28" s="18"/>
+      <c r="BS28" s="18"/>
+    </row>
+    <row r="29" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="49"/>
+      <c r="AV29" s="49"/>
+      <c r="AW29" s="49"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="49"/>
+      <c r="AZ29" s="49"/>
+      <c r="BA29" s="49"/>
+      <c r="BB29" s="49"/>
+      <c r="BC29" s="49"/>
+      <c r="BD29" s="49"/>
+      <c r="BE29" s="49"/>
+      <c r="BF29" s="49"/>
+      <c r="BG29" s="49"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="49"/>
+      <c r="BJ29" s="49"/>
+      <c r="BK29" s="49"/>
+      <c r="BL29" s="49"/>
+      <c r="BM29" s="49"/>
+      <c r="BN29" s="49"/>
+      <c r="BO29" s="49"/>
+      <c r="BP29" s="49"/>
+      <c r="BQ29" s="49"/>
+      <c r="BR29" s="49"/>
+      <c r="BS29" s="49"/>
+    </row>
+    <row r="30" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="41"/>
+      <c r="B30" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11">
+        <v>8</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="18"/>
+      <c r="AU30" s="18"/>
+      <c r="AV30" s="18"/>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18"/>
+      <c r="BB30" s="18"/>
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
+      <c r="BE30" s="18"/>
+      <c r="BF30" s="18"/>
+      <c r="BG30" s="18"/>
+      <c r="BH30" s="18"/>
+      <c r="BI30" s="18"/>
+      <c r="BJ30" s="18"/>
+      <c r="BK30" s="18"/>
+      <c r="BL30" s="18"/>
+      <c r="BM30" s="18"/>
+      <c r="BN30" s="18"/>
+      <c r="BO30" s="18"/>
+      <c r="BP30" s="18"/>
+      <c r="BQ30" s="18"/>
+      <c r="BR30" s="18"/>
+      <c r="BS30" s="18"/>
+    </row>
+    <row r="31" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51"/>
+      <c r="B31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48" t="str">
+        <f t="shared" ref="H31:H34" si="20">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
+        <v/>
+      </c>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="BK31" s="49"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="49"/>
+      <c r="BN31" s="49"/>
+      <c r="BO31" s="49"/>
+      <c r="BP31" s="49"/>
+      <c r="BQ31" s="49"/>
+      <c r="BR31" s="49"/>
+      <c r="BS31" s="49"/>
+    </row>
+    <row r="32" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="18"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="18"/>
+      <c r="AO32" s="18"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="18"/>
+      <c r="AT32" s="18"/>
+      <c r="AU32" s="18"/>
+      <c r="AV32" s="18"/>
+      <c r="AW32" s="18"/>
+      <c r="AX32" s="18"/>
+      <c r="AY32" s="18"/>
+      <c r="AZ32" s="18"/>
+      <c r="BA32" s="18"/>
+      <c r="BB32" s="18"/>
+      <c r="BC32" s="18"/>
+      <c r="BD32" s="18"/>
+      <c r="BE32" s="18"/>
+      <c r="BF32" s="18"/>
+      <c r="BG32" s="18"/>
+      <c r="BH32" s="18"/>
+      <c r="BI32" s="18"/>
+      <c r="BJ32" s="18"/>
+      <c r="BK32" s="18"/>
+      <c r="BL32" s="18"/>
+      <c r="BM32" s="18"/>
+      <c r="BN32" s="18"/>
+      <c r="BO32" s="18"/>
+      <c r="BP32" s="18"/>
+      <c r="BQ32" s="18"/>
+      <c r="BR32" s="18"/>
+      <c r="BS32" s="18"/>
+    </row>
+    <row r="33" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
+      <c r="B33" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
+      <c r="BP33" s="49"/>
+      <c r="BQ33" s="49"/>
+      <c r="BR33" s="49"/>
+      <c r="BS33" s="49"/>
+    </row>
+    <row r="34" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="41"/>
+      <c r="B34" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="15">
+        <v>0</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="18"/>
+      <c r="AM34" s="18"/>
+      <c r="AN34" s="18"/>
+      <c r="AO34" s="18"/>
+      <c r="AP34" s="18"/>
+      <c r="AQ34" s="18"/>
+      <c r="AR34" s="18"/>
+      <c r="AS34" s="18"/>
+      <c r="AT34" s="18"/>
+      <c r="AU34" s="18"/>
+      <c r="AV34" s="18"/>
+      <c r="AW34" s="18"/>
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="18"/>
+      <c r="AZ34" s="18"/>
+      <c r="BA34" s="18"/>
+      <c r="BB34" s="18"/>
+      <c r="BC34" s="18"/>
+      <c r="BD34" s="18"/>
+      <c r="BE34" s="18"/>
+      <c r="BF34" s="18"/>
+      <c r="BG34" s="18"/>
+      <c r="BH34" s="18"/>
+      <c r="BI34" s="18"/>
+      <c r="BJ34" s="18"/>
+      <c r="BK34" s="18"/>
+      <c r="BL34" s="18"/>
+      <c r="BM34" s="18"/>
+      <c r="BN34" s="18"/>
+      <c r="BO34" s="18"/>
+      <c r="BP34" s="18"/>
+      <c r="BQ34" s="18"/>
+      <c r="BR34" s="18"/>
+      <c r="BS34" s="18"/>
+    </row>
+    <row r="35" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="49"/>
+      <c r="BA35" s="49"/>
+      <c r="BB35" s="49"/>
+      <c r="BC35" s="49"/>
+      <c r="BD35" s="49"/>
+      <c r="BE35" s="49"/>
+      <c r="BF35" s="49"/>
+      <c r="BG35" s="49"/>
+      <c r="BH35" s="49"/>
+      <c r="BI35" s="49"/>
+      <c r="BJ35" s="49"/>
+      <c r="BK35" s="49"/>
+      <c r="BL35" s="49"/>
+      <c r="BM35" s="49"/>
+      <c r="BN35" s="49"/>
+      <c r="BO35" s="49"/>
+      <c r="BP35" s="49"/>
+      <c r="BQ35" s="49"/>
+      <c r="BR35" s="49"/>
+      <c r="BS35" s="49"/>
+    </row>
+    <row r="36" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="41"/>
+      <c r="B36" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="17">
+        <v>0</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11">
+        <v>8</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="18"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="18"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="18"/>
+      <c r="AZ36" s="18"/>
+      <c r="BA36" s="18"/>
+      <c r="BB36" s="18"/>
+      <c r="BC36" s="18"/>
+      <c r="BD36" s="18"/>
+      <c r="BE36" s="18"/>
+      <c r="BF36" s="18"/>
+      <c r="BG36" s="18"/>
+      <c r="BH36" s="18"/>
+      <c r="BI36" s="18"/>
+      <c r="BJ36" s="18"/>
+      <c r="BK36" s="18"/>
+      <c r="BL36" s="18"/>
+      <c r="BM36" s="18"/>
+      <c r="BN36" s="18"/>
+      <c r="BO36" s="18"/>
+      <c r="BP36" s="18"/>
+      <c r="BQ36" s="18"/>
+      <c r="BR36" s="18"/>
+      <c r="BS36" s="18"/>
+    </row>
+    <row r="37" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="51"/>
+      <c r="B37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48" t="str">
+        <f t="shared" ref="H37:H40" si="21">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
+        <v/>
+      </c>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="49"/>
+      <c r="AN37" s="49"/>
+      <c r="AO37" s="49"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="49"/>
+      <c r="AS37" s="49"/>
+      <c r="AT37" s="49"/>
+      <c r="AU37" s="49"/>
+      <c r="AV37" s="49"/>
+      <c r="AW37" s="49"/>
+      <c r="AX37" s="49"/>
+      <c r="AY37" s="49"/>
+      <c r="AZ37" s="49"/>
+      <c r="BA37" s="49"/>
+      <c r="BB37" s="49"/>
+      <c r="BC37" s="49"/>
+      <c r="BD37" s="49"/>
+      <c r="BE37" s="49"/>
+      <c r="BF37" s="49"/>
+      <c r="BG37" s="49"/>
+      <c r="BH37" s="49"/>
+      <c r="BI37" s="49"/>
+      <c r="BJ37" s="49"/>
+      <c r="BK37" s="49"/>
+      <c r="BL37" s="49"/>
+      <c r="BM37" s="49"/>
+      <c r="BN37" s="49"/>
+      <c r="BO37" s="49"/>
+      <c r="BP37" s="49"/>
+      <c r="BQ37" s="49"/>
+      <c r="BR37" s="49"/>
+      <c r="BS37" s="49"/>
+    </row>
+    <row r="38" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="18"/>
+      <c r="AO38" s="18"/>
+      <c r="AP38" s="18"/>
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="18"/>
+      <c r="AS38" s="18"/>
+      <c r="AT38" s="18"/>
+      <c r="AU38" s="18"/>
+      <c r="AV38" s="18"/>
+      <c r="AW38" s="18"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
+      <c r="AZ38" s="18"/>
+      <c r="BA38" s="18"/>
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="18"/>
+      <c r="BD38" s="18"/>
+      <c r="BE38" s="18"/>
+      <c r="BF38" s="18"/>
+      <c r="BG38" s="18"/>
+      <c r="BH38" s="18"/>
+      <c r="BI38" s="18"/>
+      <c r="BJ38" s="18"/>
+      <c r="BK38" s="18"/>
+      <c r="BL38" s="18"/>
+      <c r="BM38" s="18"/>
+      <c r="BN38" s="18"/>
+      <c r="BO38" s="18"/>
+      <c r="BP38" s="18"/>
+      <c r="BQ38" s="18"/>
+      <c r="BR38" s="18"/>
+      <c r="BS38" s="18"/>
+    </row>
+    <row r="39" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="49"/>
+      <c r="AL39" s="49"/>
+      <c r="AM39" s="49"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="49"/>
+      <c r="AS39" s="49"/>
+      <c r="AT39" s="49"/>
+      <c r="AU39" s="49"/>
+      <c r="AV39" s="49"/>
+      <c r="AW39" s="49"/>
+      <c r="AX39" s="49"/>
+      <c r="AY39" s="49"/>
+      <c r="AZ39" s="49"/>
+      <c r="BA39" s="49"/>
+      <c r="BB39" s="49"/>
+      <c r="BC39" s="49"/>
+      <c r="BD39" s="49"/>
+      <c r="BE39" s="49"/>
+      <c r="BF39" s="49"/>
+      <c r="BG39" s="49"/>
+      <c r="BH39" s="49"/>
+      <c r="BI39" s="49"/>
+      <c r="BJ39" s="49"/>
+      <c r="BK39" s="49"/>
+      <c r="BL39" s="49"/>
+      <c r="BM39" s="49"/>
+      <c r="BN39" s="49"/>
+      <c r="BO39" s="49"/>
+      <c r="BP39" s="49"/>
+      <c r="BQ39" s="49"/>
+      <c r="BR39" s="49"/>
+      <c r="BS39" s="49"/>
+    </row>
+    <row r="40" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="41"/>
+      <c r="B40" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="15">
+        <v>0</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="18"/>
+      <c r="AN40" s="18"/>
+      <c r="AO40" s="18"/>
+      <c r="AP40" s="18"/>
+      <c r="AQ40" s="18"/>
+      <c r="AR40" s="18"/>
+      <c r="AS40" s="18"/>
+      <c r="AT40" s="18"/>
+      <c r="AU40" s="18"/>
+      <c r="AV40" s="18"/>
+      <c r="AW40" s="18"/>
+      <c r="AX40" s="18"/>
+      <c r="AY40" s="18"/>
+      <c r="AZ40" s="18"/>
+      <c r="BA40" s="18"/>
+      <c r="BB40" s="18"/>
+      <c r="BC40" s="18"/>
+      <c r="BD40" s="18"/>
+      <c r="BE40" s="18"/>
+      <c r="BF40" s="18"/>
+      <c r="BG40" s="18"/>
+      <c r="BH40" s="18"/>
+      <c r="BI40" s="18"/>
+      <c r="BJ40" s="18"/>
+      <c r="BK40" s="18"/>
+      <c r="BL40" s="18"/>
+      <c r="BM40" s="18"/>
+      <c r="BN40" s="18"/>
+      <c r="BO40" s="18"/>
+      <c r="BP40" s="18"/>
+      <c r="BQ40" s="18"/>
+      <c r="BR40" s="18"/>
+      <c r="BS40" s="18"/>
+    </row>
+    <row r="41" spans="1:71" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="51"/>
+      <c r="B41" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63">
+        <f>AVERAGE(D10:D12:D14:D16:D18:D19:D21:D21:D23:D25:D27:D28:D30:D30:D32:D32:D34:D34:D36:D36:D38:D38:D40:D40)</f>
+        <v>0.37</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="70"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="70"/>
-      <c r="AM21" s="70"/>
-      <c r="AN21" s="70"/>
-      <c r="AO21" s="70"/>
-      <c r="AP21" s="70"/>
-      <c r="AQ21" s="70"/>
-      <c r="AR21" s="70"/>
-      <c r="AS21" s="70"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="70"/>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="70"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="70"/>
-      <c r="BD21" s="70"/>
-      <c r="BE21" s="70"/>
-      <c r="BF21" s="70"/>
-      <c r="BG21" s="70"/>
-      <c r="BH21" s="70"/>
-      <c r="BI21" s="70"/>
-      <c r="BJ21" s="70"/>
-      <c r="BK21" s="70"/>
-      <c r="BL21" s="70"/>
-      <c r="BM21" s="70"/>
-      <c r="BN21" s="70"/>
-      <c r="BO21" s="70"/>
-      <c r="BP21" s="70"/>
-      <c r="BQ21" s="70"/>
-      <c r="BR21" s="70"/>
-      <c r="BS21" s="70"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="66"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="66"/>
+      <c r="AP41" s="66"/>
+      <c r="AQ41" s="66"/>
+      <c r="AR41" s="66"/>
+      <c r="AS41" s="66"/>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="66"/>
+      <c r="AV41" s="66"/>
+      <c r="AW41" s="66"/>
+      <c r="AX41" s="66"/>
+      <c r="AY41" s="66"/>
+      <c r="AZ41" s="66"/>
+      <c r="BA41" s="66"/>
+      <c r="BB41" s="66"/>
+      <c r="BC41" s="66"/>
+      <c r="BD41" s="66"/>
+      <c r="BE41" s="66"/>
+      <c r="BF41" s="66"/>
+      <c r="BG41" s="66"/>
+      <c r="BH41" s="66"/>
+      <c r="BI41" s="66"/>
+      <c r="BJ41" s="66"/>
+      <c r="BK41" s="66"/>
+      <c r="BL41" s="66"/>
+      <c r="BM41" s="66"/>
+      <c r="BN41" s="66"/>
+      <c r="BO41" s="66"/>
+      <c r="BP41" s="66"/>
+      <c r="BQ41" s="66"/>
+      <c r="BR41" s="66"/>
+      <c r="BS41" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3708,8 +5781,8 @@
     <mergeCell ref="AD5:AJ5"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D21">
-    <cfRule type="dataBar" priority="48">
+  <conditionalFormatting sqref="D8:D28 D31:D34 D41">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -3722,102 +5795,261 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BD21">
-    <cfRule type="expression" dxfId="21" priority="67">
+  <conditionalFormatting sqref="I6:BD14 I16:BD28 AG15:BD15 I15:AE15 I33:BD34 I41:BD41">
+    <cfRule type="expression" dxfId="48" priority="104">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BD21">
-    <cfRule type="expression" dxfId="20" priority="61">
+  <conditionalFormatting sqref="I8:BD14 I16:BD28 AG15:BD15 I15:AE15 I33:BD34 I41:BD41">
+    <cfRule type="expression" dxfId="47" priority="98">
       <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="99" stopIfTrue="1">
       <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN18:BS19 BF18:BI19 BF20:BS21 BF9:BS17 BE6:BE21">
-    <cfRule type="expression" dxfId="18" priority="69">
+  <conditionalFormatting sqref="BN23:BS26 BF23:BI26 BF27:BS28 BF9:BS22 BE6:BE28 BE31:BS34 BE41:BS41">
+    <cfRule type="expression" dxfId="45" priority="106">
       <formula>AND(TODAY()&gt;=BE$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN18:BS19 BF18:BI19 BF20:BS21 BF9:BS17 BE8:BE21">
-    <cfRule type="expression" dxfId="17" priority="72">
+  <conditionalFormatting sqref="BN23:BS26 BF23:BI26 BF27:BS28 BF9:BS22 BE8:BE28 BE31:BS34 BE41:BS41">
+    <cfRule type="expression" dxfId="44" priority="109">
       <formula>AND(inizio_attività&lt;=BE$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BE$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="110" stopIfTrue="1">
       <formula>AND(fine_attività&gt;=BE$6,inizio_attività&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM19">
-    <cfRule type="expression" dxfId="15" priority="22">
+  <conditionalFormatting sqref="BM26">
+    <cfRule type="expression" dxfId="42" priority="59">
       <formula>AND(TODAY()&gt;=BM$6,TODAY()&lt;BN$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM6:BR7">
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>AND(TODAY()&gt;=BM$6,TODAY()&lt;BN$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS6:BS7">
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="40" priority="66">
       <formula>AND(TODAY()&gt;=BS$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF6:BK7">
-    <cfRule type="expression" dxfId="12" priority="26">
+    <cfRule type="expression" dxfId="39" priority="63">
       <formula>AND(TODAY()&gt;=BF$6,TODAY()&lt;BG$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL6:BL7">
-    <cfRule type="expression" dxfId="11" priority="27">
+    <cfRule type="expression" dxfId="38" priority="64">
       <formula>AND(TODAY()&gt;=BL$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM18">
-    <cfRule type="expression" dxfId="10" priority="25">
+  <conditionalFormatting sqref="BM23:BM25">
+    <cfRule type="expression" dxfId="37" priority="62">
       <formula>AND(TODAY()&gt;=BM$6,TODAY()&lt;BN$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM18">
-    <cfRule type="expression" dxfId="9" priority="23">
+  <conditionalFormatting sqref="BM23:BM25">
+    <cfRule type="expression" dxfId="36" priority="60">
       <formula>AND(inizio_attività&lt;=BM$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BM$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="61" stopIfTrue="1">
       <formula>AND(fine_attività&gt;=BM$6,inizio_attività&lt;BN$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM19">
-    <cfRule type="expression" dxfId="7" priority="20">
+  <conditionalFormatting sqref="BM26">
+    <cfRule type="expression" dxfId="34" priority="57">
       <formula>AND(inizio_attività&lt;=BM$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BM$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="58" stopIfTrue="1">
       <formula>AND(fine_attività&gt;=BM$6,inizio_attività&lt;BN$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ18:BL18">
-    <cfRule type="expression" dxfId="5" priority="19">
+  <conditionalFormatting sqref="BJ23:BL25">
+    <cfRule type="expression" dxfId="32" priority="56">
       <formula>AND(TODAY()&gt;=BJ$6,TODAY()&lt;BK$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ18:BL18">
-    <cfRule type="expression" dxfId="4" priority="17">
+  <conditionalFormatting sqref="BJ23:BL25">
+    <cfRule type="expression" dxfId="31" priority="54">
       <formula>AND(inizio_attività&lt;=BJ$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BJ$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="55" stopIfTrue="1">
       <formula>AND(fine_attività&gt;=BJ$6,inizio_attività&lt;BK$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ19:BL19">
-    <cfRule type="expression" dxfId="2" priority="16">
+  <conditionalFormatting sqref="BJ26:BL26">
+    <cfRule type="expression" dxfId="29" priority="53">
       <formula>AND(TODAY()&gt;=BJ$6,TODAY()&lt;BK$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ19:BL19">
-    <cfRule type="expression" dxfId="1" priority="14">
+  <conditionalFormatting sqref="BJ26:BL26">
+    <cfRule type="expression" dxfId="28" priority="51">
       <formula>AND(inizio_attività&lt;=BJ$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BJ$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="52" stopIfTrue="1">
       <formula>AND(fine_attività&gt;=BJ$6,inizio_attività&lt;BK$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="expression" dxfId="26" priority="37">
+      <formula>AND(TODAY()&gt;=AF$6,TODAY()&lt;AG$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="expression" dxfId="25" priority="35">
+      <formula>AND(inizio_attività&lt;=AF$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=AF$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=AF$6,inizio_attività&lt;AG$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D30">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42DBB978-EE8A-4D77-B4EE-9817368D2E46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:BD30">
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:BD30">
+    <cfRule type="expression" dxfId="22" priority="29">
+      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE29:BS30">
+    <cfRule type="expression" dxfId="20" priority="32">
+      <formula>AND(TODAY()&gt;=BE$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE29:BS30">
+    <cfRule type="expression" dxfId="19" priority="33">
+      <formula>AND(inizio_attività&lt;=BE$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BE$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="34" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=BE$6,inizio_attività&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:BD32">
+    <cfRule type="expression" dxfId="17" priority="24">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:BD32">
+    <cfRule type="expression" dxfId="16" priority="22">
+      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D40">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{33BB2941-E092-412E-A9BE-3CDDF9E800E8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BD40">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BD40">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE37:BS40">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>AND(TODAY()&gt;=BE$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE37:BS40">
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>AND(inizio_attività&lt;=BE$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BE$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=BE$6,inizio_attività&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D36">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{57D0C178-3BC5-46CA-A235-05E2317A4572}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BD36">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BD36">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE35:BS36">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=BE$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE35:BS36">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>AND(inizio_attività&lt;=BE$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BE$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=BE$6,inizio_attività&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BD38">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BD38">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3847,7 +6079,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D8:D21</xm:sqref>
+          <xm:sqref>D8:D28 D31:D34 D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42DBB978-EE8A-4D77-B4EE-9817368D2E46}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D29:D30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{33BB2941-E092-412E-A9BE-3CDDF9E800E8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D37:D40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{57D0C178-3BC5-46CA-A235-05E2317A4572}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D35:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3871,9 +6148,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002C91452D29EEDE438B93D2896B8C1840" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="6d42cecf7f714af2dab29194092bb38c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="54bd2e00-0fa8-455c-8059-ccb210ca5e3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dcc309e7735c350e18ddbdd6e19b922" ns2:_="">
-    <xsd:import namespace="54bd2e00-0fa8-455c-8059-ccb210ca5e3e"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003FB44DC2FB1CDB499C1AF3EAAE58F67C" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="23c5e102ca2fcba840b1b50264c2bf0e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b77f104-8052-46ee-b811-a01298bf7f96" xmlns:ns3="16fcf086-3792-4be6-a86c-4767d62f3a00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e927014a0787dc6ddad099404782267c" ns2:_="" ns3:_="">
+    <xsd:import namespace="5b77f104-8052-46ee-b811-a01298bf7f96"/>
+    <xsd:import namespace="16fcf086-3792-4be6-a86c-4767d62f3a00"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3882,8 +6160,9 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
@@ -3893,7 +6172,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="54bd2e00-0fa8-455c-8059-ccb210ca5e3e" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5b77f104-8052-46ee-b811-a01298bf7f96" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -3906,26 +6185,49 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="16fcf086-3792-4be6-a86c-4767d62f3a00" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3938,8 +6240,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -4031,15 +6333,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05BB06E1-BF34-43B8-B703-2E01126BC2DD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="54bd2e00-0fa8-455c-8059-ccb210ca5e3e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="16fcf086-3792-4be6-a86c-4767d62f3a00"/>
+    <ds:schemaRef ds:uri="5b77f104-8052-46ee-b811-a01298bf7f96"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4053,13 +6356,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66505930-CF3C-41F6-8412-55DC66D3B375}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD9C3FDC-818A-4CE4-A5BA-B96247D9D76F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="54bd2e00-0fa8-455c-8059-ccb210ca5e3e"/>
+    <ds:schemaRef ds:uri="5b77f104-8052-46ee-b811-a01298bf7f96"/>
+    <ds:schemaRef ds:uri="16fcf086-3792-4be6-a86c-4767d62f3a00"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>

--- a/PianificazioneProgetto.xlsx
+++ b/PianificazioneProgetto.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{C2CB99A2-E578-EF40-A462-B0A12BAFF1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{468CAACC-9EDD-4D4F-B637-A2C4E53BB76D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0494C467-0FEF-45BE-94AB-0E056ACEEB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PianificazioneProgetto" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Come creare la pianificazione progetto in questo foglio di lavoro.
 Immettere il titolo del progetto nella cella B1. 
@@ -127,16 +127,10 @@
 Viene visualizzata una barra di stato ombreggiata in blocchi per le date immesse, a partire dalla cella I9 fino alla BL9. </t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>RICCIO-ROMANO</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
+    <t>ESERCIZIO 2 - ENCODER BCD</t>
   </si>
   <si>
     <t>La cella a destra contiene il titolo di esempio della Fase 2. 
@@ -149,91 +143,19 @@
 Ripetere le istruzioni delle celle A8 e A9 se necessario.</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
     <t>CIRILLO-DI GIUSEPPE</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>3.1</t>
+    <t>ESERCIZIO 3 - RICONOSCITORE 2 MODI</t>
   </si>
   <si>
     <t>GRUPPO 21</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
     <t>Esempio di blocco con titolo di fase</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>ESERCIZIO 8</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>ESERCIZIO 9</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>ESERCIZIO 10</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>ESERCIZIO 11</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>ESERCIZIO 12</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>TOTALE</t>
-  </si>
-  <si>
-    <t>ESERCIZIO 2 - ENCODER BCD</t>
-  </si>
-  <si>
-    <t>ESERCIZIO 3 - RICONOSCITORE 2 MODI</t>
   </si>
   <si>
     <t>ESERCIZIO 4 - SHIFT REGISTER</t>
@@ -246,6 +168,102 @@
   </si>
   <si>
     <t>ESERCIZIO 7 - HANDSHAKING</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TOTALE</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 8 - PROCESSORE</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 9 - INTERFACCIA SERIALE</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 12 - ESERCIZIO LIBERO</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 10 - SWITCH MULTISTADIO</t>
+  </si>
+  <si>
+    <t>ESERCIZIO 11 - MACCHINE ARITMETICHE</t>
+  </si>
+  <si>
+    <t>12.1 - DIVISORE NON RESTORING</t>
+  </si>
+  <si>
+    <t>12.2 - CALCOLATRICE</t>
+  </si>
+  <si>
+    <t>11.1 - MOLTIPLICATORE DI ROBERTSON</t>
+  </si>
+  <si>
+    <t>1.1 - MUX16:1</t>
+  </si>
+  <si>
+    <t>1.2 - RETE 16:4</t>
+  </si>
+  <si>
+    <t>1.3 - RETE 16:4 ON BOARD</t>
+  </si>
+  <si>
+    <t>2.1 - ENCODER BCD</t>
+  </si>
+  <si>
+    <t>2.2 - ENCODER BCD CON LED</t>
+  </si>
+  <si>
+    <t>2.3 - ENCODER BCD CON DISPLAY</t>
+  </si>
+  <si>
+    <t>3.1 - RICONOSCITORE 2 MODI</t>
+  </si>
+  <si>
+    <t>3.2 - RICONOSCITORE 2 MODI ON BOARD</t>
+  </si>
+  <si>
+    <t>4.1 - SHIFT REGISTER COMPORTAMENTALE</t>
+  </si>
+  <si>
+    <t>4.1 - SHIFT REGISTER STRUTTURALE</t>
+  </si>
+  <si>
+    <t>5.1 - CRONOMETRO</t>
+  </si>
+  <si>
+    <t>5.2 - CRONOMETRO ON BOARD</t>
+  </si>
+  <si>
+    <t>5.3 - CRONOMETRO CON INTERTEMPI ON BOARD</t>
+  </si>
+  <si>
+    <t>6.1 - TESTING AUTOMATICO</t>
+  </si>
+  <si>
+    <t>6.2 - TESTING AUTOMATICO ON BOARD</t>
+  </si>
+  <si>
+    <t>7.1 - HANDSHAKING</t>
+  </si>
+  <si>
+    <t>8.1 - ANALISI DI DUE ISTRUZIONI (BIPUSH, ISUB)</t>
+  </si>
+  <si>
+    <t>8.2 - MODIFICA DI IOR IN IAND</t>
+  </si>
+  <si>
+    <t>9.1 - INTERFACCIA SERIALE ON BOARD</t>
+  </si>
+  <si>
+    <t>9.2 - INTERFACCIA SERIALE CON HANDSHAKING</t>
+  </si>
+  <si>
+    <t>10.1 - SWITCH MULTISTADIO</t>
+  </si>
+  <si>
+    <t>10.2 - SWITCH CON HANDSHAKING</t>
   </si>
 </sst>
 </file>
@@ -262,7 +280,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
     <numFmt numFmtId="169" formatCode="d\ mmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,16 +478,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -722,7 +745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -948,58 +971,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1072,7 +1043,7 @@
     <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1123,9 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,7 +1146,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1196,16 +1163,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,28 +1185,25 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="2" xfId="12" applyFont="1" applyFill="1">
@@ -1248,31 +1212,19 @@
     <xf numFmtId="0" fontId="5" fillId="43" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="43" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="43" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="43" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1298,6 +1250,7 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Colore 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1355,7 +1308,31 @@
     <cellStyle name="Valuta [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="zTestoNascosto" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="55">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1373,6 +1350,277 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1433,306 +1681,6 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1950,15 +1898,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="totalRow" dxfId="55"/>
-      <tableStyleElement type="firstColumn" dxfId="54"/>
-      <tableStyleElement type="lastColumn" dxfId="53"/>
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="secondRowStripe" dxfId="51"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="50"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="totalRow" dxfId="52"/>
+      <tableStyleElement type="firstColumn" dxfId="51"/>
+      <tableStyleElement type="lastColumn" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="47"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="46"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2317,441 +2265,707 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS41"/>
+  <dimension ref="A1:DP46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.5" hidden="1" customWidth="1"/>
-    <col min="9" max="71" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.6328125" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="120" width="2.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="20"/>
+      <c r="F1" s="19"/>
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="78">
+      <c r="D3" s="69"/>
+      <c r="E3" s="71">
         <v>44489</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="71"/>
     </row>
-    <row r="4" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
+    <row r="4" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="22"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="79">
-        <v>44546</v>
-      </c>
-      <c r="F4" s="80"/>
+      <c r="E4" s="72">
+        <v>44592</v>
+      </c>
+      <c r="F4" s="73"/>
     </row>
-    <row r="5" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="76"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="65">
         <f>I6</f>
         <v>44487</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72">
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="65">
         <f>P6</f>
         <v>44494</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="72">
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="65">
         <f>W6</f>
         <v>44501</v>
       </c>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="72">
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="65">
         <f>AD6</f>
         <v>44508</v>
       </c>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="72">
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="65">
         <f>AK6</f>
         <v>44515</v>
       </c>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="73"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="73"/>
-      <c r="AP5" s="73"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="72">
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="65">
         <f>AR6</f>
         <v>44522</v>
       </c>
-      <c r="AS5" s="73"/>
-      <c r="AT5" s="73"/>
-      <c r="AU5" s="73"/>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="73"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="72">
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="67"/>
+      <c r="AY5" s="65">
         <f>AY6</f>
         <v>44529</v>
       </c>
-      <c r="AZ5" s="73"/>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="73"/>
-      <c r="BD5" s="73"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="72">
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="66"/>
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="65">
         <f>BF6</f>
         <v>44536</v>
       </c>
-      <c r="BG5" s="73"/>
-      <c r="BH5" s="73"/>
-      <c r="BI5" s="73"/>
-      <c r="BJ5" s="73"/>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="72">
+      <c r="BG5" s="66"/>
+      <c r="BH5" s="66"/>
+      <c r="BI5" s="66"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="65">
         <f>BM6</f>
         <v>44543</v>
       </c>
-      <c r="BN5" s="73"/>
-      <c r="BO5" s="73"/>
-      <c r="BP5" s="73"/>
-      <c r="BQ5" s="73"/>
-      <c r="BR5" s="73"/>
-      <c r="BS5" s="74"/>
+      <c r="BN5" s="66"/>
+      <c r="BO5" s="66"/>
+      <c r="BP5" s="66"/>
+      <c r="BQ5" s="66"/>
+      <c r="BR5" s="66"/>
+      <c r="BS5" s="67"/>
+      <c r="BT5" s="65">
+        <f>BT6</f>
+        <v>44550</v>
+      </c>
+      <c r="BU5" s="66"/>
+      <c r="BV5" s="66"/>
+      <c r="BW5" s="66"/>
+      <c r="BX5" s="66"/>
+      <c r="BY5" s="66"/>
+      <c r="BZ5" s="67"/>
+      <c r="CA5" s="65">
+        <f>CA6</f>
+        <v>44557</v>
+      </c>
+      <c r="CB5" s="66"/>
+      <c r="CC5" s="66"/>
+      <c r="CD5" s="66"/>
+      <c r="CE5" s="66"/>
+      <c r="CF5" s="66"/>
+      <c r="CG5" s="67"/>
+      <c r="CH5" s="65">
+        <f>CH6</f>
+        <v>44564</v>
+      </c>
+      <c r="CI5" s="66"/>
+      <c r="CJ5" s="66"/>
+      <c r="CK5" s="66"/>
+      <c r="CL5" s="66"/>
+      <c r="CM5" s="66"/>
+      <c r="CN5" s="67"/>
+      <c r="CO5" s="65">
+        <f>CO6</f>
+        <v>44571</v>
+      </c>
+      <c r="CP5" s="66"/>
+      <c r="CQ5" s="66"/>
+      <c r="CR5" s="66"/>
+      <c r="CS5" s="66"/>
+      <c r="CT5" s="66"/>
+      <c r="CU5" s="67"/>
+      <c r="CV5" s="65">
+        <f>CV6</f>
+        <v>44578</v>
+      </c>
+      <c r="CW5" s="66"/>
+      <c r="CX5" s="66"/>
+      <c r="CY5" s="66"/>
+      <c r="CZ5" s="66"/>
+      <c r="DA5" s="66"/>
+      <c r="DB5" s="67"/>
+      <c r="DC5" s="65">
+        <f>DC6</f>
+        <v>44585</v>
+      </c>
+      <c r="DD5" s="66"/>
+      <c r="DE5" s="66"/>
+      <c r="DF5" s="66"/>
+      <c r="DG5" s="66"/>
+      <c r="DH5" s="66"/>
+      <c r="DI5" s="67"/>
+      <c r="DJ5" s="65">
+        <f>DJ6</f>
+        <v>44592</v>
+      </c>
+      <c r="DK5" s="66"/>
+      <c r="DL5" s="66"/>
+      <c r="DM5" s="66"/>
+      <c r="DN5" s="66"/>
+      <c r="DO5" s="66"/>
+      <c r="DP5" s="67"/>
     </row>
-    <row r="6" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="I6" s="30">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="I6" s="29">
         <f>_xlfn.SINGLE(Inizio_progetto)-WEEKDAY(_xlfn.SINGLE(Inizio_progetto),1)+2+7*(_xlfn.SINGLE(Visualizza_settimana)-1)</f>
         <v>44487</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="30">
         <f>I6+1</f>
         <v>44488</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="30">
         <f t="shared" ref="K6:AY6" si="0">J6+1</f>
         <v>44489</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <f t="shared" si="0"/>
         <v>44490</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <f t="shared" si="0"/>
         <v>44491</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="30">
         <f t="shared" si="0"/>
         <v>44492</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="31">
         <f t="shared" si="0"/>
         <v>44493</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="29">
         <f>O6+1</f>
         <v>44494</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="30">
         <f>P6+1</f>
         <v>44495</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="30">
         <f t="shared" si="0"/>
         <v>44496</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="30">
         <f t="shared" si="0"/>
         <v>44497</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="30">
         <f t="shared" si="0"/>
         <v>44498</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="30">
         <f t="shared" si="0"/>
         <v>44499</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="31">
         <f t="shared" si="0"/>
         <v>44500</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="29">
         <f>V6+1</f>
         <v>44501</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="30">
         <f>W6+1</f>
         <v>44502</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Y6" s="30">
         <f t="shared" si="0"/>
         <v>44503</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="Z6" s="30">
         <f t="shared" si="0"/>
         <v>44504</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AA6" s="30">
         <f t="shared" si="0"/>
         <v>44505</v>
       </c>
-      <c r="AB6" s="31">
+      <c r="AB6" s="30">
         <f t="shared" si="0"/>
         <v>44506</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AC6" s="31">
         <f t="shared" si="0"/>
         <v>44507</v>
       </c>
-      <c r="AD6" s="30">
+      <c r="AD6" s="29">
         <f>AC6+1</f>
         <v>44508</v>
       </c>
-      <c r="AE6" s="31">
+      <c r="AE6" s="30">
         <f>AD6+1</f>
         <v>44509</v>
       </c>
-      <c r="AF6" s="31">
+      <c r="AF6" s="30">
         <f t="shared" si="0"/>
         <v>44510</v>
       </c>
-      <c r="AG6" s="31">
+      <c r="AG6" s="30">
         <f t="shared" si="0"/>
         <v>44511</v>
       </c>
-      <c r="AH6" s="31">
+      <c r="AH6" s="30">
         <f t="shared" si="0"/>
         <v>44512</v>
       </c>
-      <c r="AI6" s="31">
+      <c r="AI6" s="30">
         <f t="shared" si="0"/>
         <v>44513</v>
       </c>
-      <c r="AJ6" s="32">
+      <c r="AJ6" s="31">
         <f t="shared" si="0"/>
         <v>44514</v>
       </c>
-      <c r="AK6" s="30">
+      <c r="AK6" s="29">
         <f>AJ6+1</f>
         <v>44515</v>
       </c>
-      <c r="AL6" s="31">
+      <c r="AL6" s="30">
         <f>AK6+1</f>
         <v>44516</v>
       </c>
-      <c r="AM6" s="31">
+      <c r="AM6" s="30">
         <f t="shared" si="0"/>
         <v>44517</v>
       </c>
-      <c r="AN6" s="31">
+      <c r="AN6" s="30">
         <f t="shared" si="0"/>
         <v>44518</v>
       </c>
-      <c r="AO6" s="31">
+      <c r="AO6" s="30">
         <f t="shared" si="0"/>
         <v>44519</v>
       </c>
-      <c r="AP6" s="31">
+      <c r="AP6" s="30">
         <f t="shared" si="0"/>
         <v>44520</v>
       </c>
-      <c r="AQ6" s="32">
+      <c r="AQ6" s="31">
         <f t="shared" si="0"/>
         <v>44521</v>
       </c>
-      <c r="AR6" s="30">
+      <c r="AR6" s="29">
         <f>AQ6+1</f>
         <v>44522</v>
       </c>
-      <c r="AS6" s="31">
+      <c r="AS6" s="30">
         <f>AR6+1</f>
         <v>44523</v>
       </c>
-      <c r="AT6" s="31">
+      <c r="AT6" s="30">
         <f t="shared" si="0"/>
         <v>44524</v>
       </c>
-      <c r="AU6" s="31">
+      <c r="AU6" s="30">
         <f t="shared" si="0"/>
         <v>44525</v>
       </c>
-      <c r="AV6" s="31">
+      <c r="AV6" s="30">
         <f t="shared" si="0"/>
         <v>44526</v>
       </c>
-      <c r="AW6" s="31">
+      <c r="AW6" s="30">
         <f t="shared" si="0"/>
         <v>44527</v>
       </c>
-      <c r="AX6" s="32">
+      <c r="AX6" s="31">
         <f t="shared" si="0"/>
         <v>44528</v>
       </c>
-      <c r="AY6" s="32">
+      <c r="AY6" s="31">
         <f t="shared" si="0"/>
         <v>44529</v>
       </c>
-      <c r="AZ6" s="31">
+      <c r="AZ6" s="30">
         <f>AY6+1</f>
         <v>44530</v>
       </c>
-      <c r="BA6" s="31">
+      <c r="BA6" s="30">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
         <v>44531</v>
       </c>
-      <c r="BB6" s="31">
+      <c r="BB6" s="30">
         <f t="shared" si="1"/>
         <v>44532</v>
       </c>
-      <c r="BC6" s="31">
+      <c r="BC6" s="30">
         <f t="shared" si="1"/>
         <v>44533</v>
       </c>
-      <c r="BD6" s="31">
+      <c r="BD6" s="30">
         <f t="shared" si="1"/>
         <v>44534</v>
       </c>
-      <c r="BE6" s="32">
+      <c r="BE6" s="31">
         <f t="shared" si="1"/>
         <v>44535</v>
       </c>
-      <c r="BF6" s="32">
+      <c r="BF6" s="31">
         <f t="shared" ref="BF6" si="2">BE6+1</f>
         <v>44536</v>
       </c>
-      <c r="BG6" s="31">
+      <c r="BG6" s="30">
         <f>BF6+1</f>
         <v>44537</v>
       </c>
-      <c r="BH6" s="31">
+      <c r="BH6" s="30">
         <f t="shared" ref="BH6" si="3">BG6+1</f>
         <v>44538</v>
       </c>
-      <c r="BI6" s="31">
+      <c r="BI6" s="30">
         <f t="shared" ref="BI6" si="4">BH6+1</f>
         <v>44539</v>
       </c>
-      <c r="BJ6" s="31">
+      <c r="BJ6" s="30">
         <f t="shared" ref="BJ6" si="5">BI6+1</f>
         <v>44540</v>
       </c>
-      <c r="BK6" s="31">
+      <c r="BK6" s="30">
         <f t="shared" ref="BK6" si="6">BJ6+1</f>
         <v>44541</v>
       </c>
-      <c r="BL6" s="32">
+      <c r="BL6" s="31">
         <f t="shared" ref="BL6" si="7">BK6+1</f>
         <v>44542</v>
       </c>
-      <c r="BM6" s="32">
+      <c r="BM6" s="31">
         <f t="shared" ref="BM6" si="8">BL6+1</f>
         <v>44543</v>
       </c>
-      <c r="BN6" s="31">
+      <c r="BN6" s="30">
         <f>BM6+1</f>
         <v>44544</v>
       </c>
-      <c r="BO6" s="31">
+      <c r="BO6" s="30">
         <f t="shared" ref="BO6" si="9">BN6+1</f>
         <v>44545</v>
       </c>
-      <c r="BP6" s="31">
+      <c r="BP6" s="30">
         <f t="shared" ref="BP6" si="10">BO6+1</f>
         <v>44546</v>
       </c>
-      <c r="BQ6" s="31">
+      <c r="BQ6" s="30">
         <f t="shared" ref="BQ6" si="11">BP6+1</f>
         <v>44547</v>
       </c>
-      <c r="BR6" s="31">
+      <c r="BR6" s="30">
         <f t="shared" ref="BR6" si="12">BQ6+1</f>
         <v>44548</v>
       </c>
-      <c r="BS6" s="32">
+      <c r="BS6" s="31">
         <f t="shared" ref="BS6" si="13">BR6+1</f>
         <v>44549</v>
       </c>
+      <c r="BT6" s="31">
+        <f t="shared" ref="BT6" si="14">BS6+1</f>
+        <v>44550</v>
+      </c>
+      <c r="BU6" s="30">
+        <f>BT6+1</f>
+        <v>44551</v>
+      </c>
+      <c r="BV6" s="30">
+        <f t="shared" ref="BV6" si="15">BU6+1</f>
+        <v>44552</v>
+      </c>
+      <c r="BW6" s="30">
+        <f t="shared" ref="BW6" si="16">BV6+1</f>
+        <v>44553</v>
+      </c>
+      <c r="BX6" s="30">
+        <f t="shared" ref="BX6" si="17">BW6+1</f>
+        <v>44554</v>
+      </c>
+      <c r="BY6" s="30">
+        <f t="shared" ref="BY6" si="18">BX6+1</f>
+        <v>44555</v>
+      </c>
+      <c r="BZ6" s="31">
+        <f t="shared" ref="BZ6" si="19">BY6+1</f>
+        <v>44556</v>
+      </c>
+      <c r="CA6" s="31">
+        <f t="shared" ref="CA6" si="20">BZ6+1</f>
+        <v>44557</v>
+      </c>
+      <c r="CB6" s="30">
+        <f>CA6+1</f>
+        <v>44558</v>
+      </c>
+      <c r="CC6" s="30">
+        <f t="shared" ref="CC6" si="21">CB6+1</f>
+        <v>44559</v>
+      </c>
+      <c r="CD6" s="30">
+        <f t="shared" ref="CD6" si="22">CC6+1</f>
+        <v>44560</v>
+      </c>
+      <c r="CE6" s="30">
+        <f t="shared" ref="CE6" si="23">CD6+1</f>
+        <v>44561</v>
+      </c>
+      <c r="CF6" s="30">
+        <f t="shared" ref="CF6" si="24">CE6+1</f>
+        <v>44562</v>
+      </c>
+      <c r="CG6" s="31">
+        <f t="shared" ref="CG6" si="25">CF6+1</f>
+        <v>44563</v>
+      </c>
+      <c r="CH6" s="31">
+        <f t="shared" ref="CH6" si="26">CG6+1</f>
+        <v>44564</v>
+      </c>
+      <c r="CI6" s="30">
+        <f>CH6+1</f>
+        <v>44565</v>
+      </c>
+      <c r="CJ6" s="30">
+        <f t="shared" ref="CJ6" si="27">CI6+1</f>
+        <v>44566</v>
+      </c>
+      <c r="CK6" s="30">
+        <f t="shared" ref="CK6" si="28">CJ6+1</f>
+        <v>44567</v>
+      </c>
+      <c r="CL6" s="30">
+        <f t="shared" ref="CL6" si="29">CK6+1</f>
+        <v>44568</v>
+      </c>
+      <c r="CM6" s="30">
+        <f t="shared" ref="CM6" si="30">CL6+1</f>
+        <v>44569</v>
+      </c>
+      <c r="CN6" s="31">
+        <f t="shared" ref="CN6" si="31">CM6+1</f>
+        <v>44570</v>
+      </c>
+      <c r="CO6" s="31">
+        <f t="shared" ref="CO6" si="32">CN6+1</f>
+        <v>44571</v>
+      </c>
+      <c r="CP6" s="30">
+        <f>CO6+1</f>
+        <v>44572</v>
+      </c>
+      <c r="CQ6" s="30">
+        <f t="shared" ref="CQ6" si="33">CP6+1</f>
+        <v>44573</v>
+      </c>
+      <c r="CR6" s="30">
+        <f t="shared" ref="CR6" si="34">CQ6+1</f>
+        <v>44574</v>
+      </c>
+      <c r="CS6" s="30">
+        <f t="shared" ref="CS6" si="35">CR6+1</f>
+        <v>44575</v>
+      </c>
+      <c r="CT6" s="30">
+        <f t="shared" ref="CT6" si="36">CS6+1</f>
+        <v>44576</v>
+      </c>
+      <c r="CU6" s="31">
+        <f t="shared" ref="CU6" si="37">CT6+1</f>
+        <v>44577</v>
+      </c>
+      <c r="CV6" s="31">
+        <f t="shared" ref="CV6" si="38">CU6+1</f>
+        <v>44578</v>
+      </c>
+      <c r="CW6" s="30">
+        <f>CV6+1</f>
+        <v>44579</v>
+      </c>
+      <c r="CX6" s="30">
+        <f t="shared" ref="CX6" si="39">CW6+1</f>
+        <v>44580</v>
+      </c>
+      <c r="CY6" s="30">
+        <f t="shared" ref="CY6" si="40">CX6+1</f>
+        <v>44581</v>
+      </c>
+      <c r="CZ6" s="30">
+        <f t="shared" ref="CZ6" si="41">CY6+1</f>
+        <v>44582</v>
+      </c>
+      <c r="DA6" s="30">
+        <f t="shared" ref="DA6" si="42">CZ6+1</f>
+        <v>44583</v>
+      </c>
+      <c r="DB6" s="31">
+        <f t="shared" ref="DB6" si="43">DA6+1</f>
+        <v>44584</v>
+      </c>
+      <c r="DC6" s="31">
+        <f t="shared" ref="DC6" si="44">DB6+1</f>
+        <v>44585</v>
+      </c>
+      <c r="DD6" s="30">
+        <f>DC6+1</f>
+        <v>44586</v>
+      </c>
+      <c r="DE6" s="30">
+        <f t="shared" ref="DE6" si="45">DD6+1</f>
+        <v>44587</v>
+      </c>
+      <c r="DF6" s="30">
+        <f t="shared" ref="DF6" si="46">DE6+1</f>
+        <v>44588</v>
+      </c>
+      <c r="DG6" s="30">
+        <f t="shared" ref="DG6" si="47">DF6+1</f>
+        <v>44589</v>
+      </c>
+      <c r="DH6" s="30">
+        <f t="shared" ref="DH6" si="48">DG6+1</f>
+        <v>44590</v>
+      </c>
+      <c r="DI6" s="31">
+        <f t="shared" ref="DI6" si="49">DH6+1</f>
+        <v>44591</v>
+      </c>
+      <c r="DJ6" s="31">
+        <f t="shared" ref="DJ6" si="50">DI6+1</f>
+        <v>44592</v>
+      </c>
+      <c r="DK6" s="30">
+        <f>DJ6+1</f>
+        <v>44593</v>
+      </c>
+      <c r="DL6" s="30">
+        <f t="shared" ref="DL6" si="51">DK6+1</f>
+        <v>44594</v>
+      </c>
+      <c r="DM6" s="30">
+        <f t="shared" ref="DM6" si="52">DL6+1</f>
+        <v>44595</v>
+      </c>
+      <c r="DN6" s="30">
+        <f t="shared" ref="DN6" si="53">DM6+1</f>
+        <v>44596</v>
+      </c>
+      <c r="DO6" s="30">
+        <f t="shared" ref="DO6" si="54">DN6+1</f>
+        <v>44597</v>
+      </c>
+      <c r="DP6" s="31">
+        <f t="shared" ref="DP6" si="55">DO6+1</f>
+        <v>44598</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:120" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2774,207 +2988,207 @@
         <v>16</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f t="shared" ref="I7:AN7" si="14">LEFT(TEXT(I6,"ggg"),1)</f>
+        <f t="shared" ref="I7:AN7" si="56">LEFT(TEXT(I6,"ggg"),1)</f>
         <v>l</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="K7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="L7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>g</v>
       </c>
       <c r="M7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>v</v>
       </c>
       <c r="N7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>s</v>
       </c>
       <c r="O7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>d</v>
       </c>
       <c r="P7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>l</v>
       </c>
       <c r="Q7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="R7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>g</v>
       </c>
       <c r="T7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>v</v>
       </c>
       <c r="U7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>s</v>
       </c>
       <c r="V7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>d</v>
       </c>
       <c r="W7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>l</v>
       </c>
       <c r="X7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="Y7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="Z7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>g</v>
       </c>
       <c r="AA7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>v</v>
       </c>
       <c r="AB7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>s</v>
       </c>
       <c r="AC7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>d</v>
       </c>
       <c r="AD7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>l</v>
       </c>
       <c r="AE7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="AF7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="AG7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>g</v>
       </c>
       <c r="AH7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>v</v>
       </c>
       <c r="AI7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>s</v>
       </c>
       <c r="AJ7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>d</v>
       </c>
       <c r="AK7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>l</v>
       </c>
       <c r="AL7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="AM7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>m</v>
       </c>
       <c r="AN7" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="56"/>
         <v>g</v>
       </c>
       <c r="AO7" s="9" t="str">
-        <f t="shared" ref="AO7:BE7" si="15">LEFT(TEXT(AO6,"ggg"),1)</f>
+        <f t="shared" ref="AO7:BE7" si="57">LEFT(TEXT(AO6,"ggg"),1)</f>
         <v>v</v>
       </c>
       <c r="AP7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>s</v>
       </c>
       <c r="AQ7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>d</v>
       </c>
       <c r="AR7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>l</v>
       </c>
       <c r="AS7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>m</v>
       </c>
       <c r="AT7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>m</v>
       </c>
       <c r="AU7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>g</v>
       </c>
       <c r="AV7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>v</v>
       </c>
       <c r="AW7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>s</v>
       </c>
       <c r="AX7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>d</v>
       </c>
       <c r="AY7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>l</v>
       </c>
       <c r="AZ7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>m</v>
       </c>
       <c r="BA7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>m</v>
       </c>
       <c r="BB7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>g</v>
       </c>
       <c r="BC7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>v</v>
       </c>
       <c r="BD7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>s</v>
       </c>
       <c r="BE7" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="57"/>
         <v>d</v>
       </c>
       <c r="BF7" s="9" t="str">
-        <f t="shared" ref="BF7:BL7" si="16">LEFT(TEXT(BF6,"ggg"),1)</f>
+        <f t="shared" ref="BF7:BL7" si="58">LEFT(TEXT(BF6,"ggg"),1)</f>
         <v>l</v>
       </c>
       <c r="BG7" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="58"/>
         <v>m</v>
       </c>
       <c r="BH7" s="9" t="str">
@@ -2982,39 +3196,39 @@
         <v>m</v>
       </c>
       <c r="BI7" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="58"/>
         <v>g</v>
       </c>
       <c r="BJ7" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="58"/>
         <v>v</v>
       </c>
       <c r="BK7" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="58"/>
         <v>s</v>
       </c>
       <c r="BL7" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="58"/>
         <v>d</v>
       </c>
       <c r="BM7" s="9" t="str">
-        <f t="shared" ref="BM7:BS7" si="17">LEFT(TEXT(BM6,"ggg"),1)</f>
+        <f t="shared" ref="BM7:BS7" si="59">LEFT(TEXT(BM6,"ggg"),1)</f>
         <v>l</v>
       </c>
       <c r="BN7" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="BO7" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="59"/>
         <v>m</v>
       </c>
       <c r="BP7" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="59"/>
         <v>g</v>
       </c>
       <c r="BQ7" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="59"/>
         <v>v</v>
       </c>
       <c r="BR7" s="9" t="str">
@@ -3022,18 +3236,214 @@
         <v>s</v>
       </c>
       <c r="BS7" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="59"/>
         <v>d</v>
       </c>
+      <c r="BT7" s="9" t="str">
+        <f t="shared" ref="BT7:BX7" si="60">LEFT(TEXT(BT6,"ggg"),1)</f>
+        <v>l</v>
+      </c>
+      <c r="BU7" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="BV7" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>m</v>
+      </c>
+      <c r="BW7" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>g</v>
+      </c>
+      <c r="BX7" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>v</v>
+      </c>
+      <c r="BY7" s="9" t="str">
+        <f>LEFT(TEXT(BY6,"ggg"),1)</f>
+        <v>s</v>
+      </c>
+      <c r="BZ7" s="9" t="str">
+        <f t="shared" ref="BZ7:CE7" si="61">LEFT(TEXT(BZ6,"ggg"),1)</f>
+        <v>d</v>
+      </c>
+      <c r="CA7" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>l</v>
+      </c>
+      <c r="CB7" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>m</v>
+      </c>
+      <c r="CC7" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>m</v>
+      </c>
+      <c r="CD7" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>g</v>
+      </c>
+      <c r="CE7" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>v</v>
+      </c>
+      <c r="CF7" s="9" t="str">
+        <f>LEFT(TEXT(CF6,"ggg"),1)</f>
+        <v>s</v>
+      </c>
+      <c r="CG7" s="9" t="str">
+        <f t="shared" ref="CG7:CL7" si="62">LEFT(TEXT(CG6,"ggg"),1)</f>
+        <v>d</v>
+      </c>
+      <c r="CH7" s="9" t="str">
+        <f t="shared" si="62"/>
+        <v>l</v>
+      </c>
+      <c r="CI7" s="9" t="str">
+        <f t="shared" si="62"/>
+        <v>m</v>
+      </c>
+      <c r="CJ7" s="9" t="str">
+        <f t="shared" si="62"/>
+        <v>m</v>
+      </c>
+      <c r="CK7" s="9" t="str">
+        <f t="shared" si="62"/>
+        <v>g</v>
+      </c>
+      <c r="CL7" s="9" t="str">
+        <f t="shared" si="62"/>
+        <v>v</v>
+      </c>
+      <c r="CM7" s="9" t="str">
+        <f>LEFT(TEXT(CM6,"ggg"),1)</f>
+        <v>s</v>
+      </c>
+      <c r="CN7" s="9" t="str">
+        <f t="shared" ref="CN7:CS7" si="63">LEFT(TEXT(CN6,"ggg"),1)</f>
+        <v>d</v>
+      </c>
+      <c r="CO7" s="9" t="str">
+        <f t="shared" si="63"/>
+        <v>l</v>
+      </c>
+      <c r="CP7" s="9" t="str">
+        <f t="shared" si="63"/>
+        <v>m</v>
+      </c>
+      <c r="CQ7" s="9" t="str">
+        <f t="shared" si="63"/>
+        <v>m</v>
+      </c>
+      <c r="CR7" s="9" t="str">
+        <f t="shared" si="63"/>
+        <v>g</v>
+      </c>
+      <c r="CS7" s="9" t="str">
+        <f t="shared" si="63"/>
+        <v>v</v>
+      </c>
+      <c r="CT7" s="9" t="str">
+        <f>LEFT(TEXT(CT6,"ggg"),1)</f>
+        <v>s</v>
+      </c>
+      <c r="CU7" s="9" t="str">
+        <f t="shared" ref="CU7:CZ7" si="64">LEFT(TEXT(CU6,"ggg"),1)</f>
+        <v>d</v>
+      </c>
+      <c r="CV7" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>l</v>
+      </c>
+      <c r="CW7" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>m</v>
+      </c>
+      <c r="CX7" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>m</v>
+      </c>
+      <c r="CY7" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>g</v>
+      </c>
+      <c r="CZ7" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>v</v>
+      </c>
+      <c r="DA7" s="9" t="str">
+        <f>LEFT(TEXT(DA6,"ggg"),1)</f>
+        <v>s</v>
+      </c>
+      <c r="DB7" s="9" t="str">
+        <f t="shared" ref="DB7:DG7" si="65">LEFT(TEXT(DB6,"ggg"),1)</f>
+        <v>d</v>
+      </c>
+      <c r="DC7" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>l</v>
+      </c>
+      <c r="DD7" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>m</v>
+      </c>
+      <c r="DE7" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>m</v>
+      </c>
+      <c r="DF7" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>g</v>
+      </c>
+      <c r="DG7" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>v</v>
+      </c>
+      <c r="DH7" s="9" t="str">
+        <f>LEFT(TEXT(DH6,"ggg"),1)</f>
+        <v>s</v>
+      </c>
+      <c r="DI7" s="9" t="str">
+        <f t="shared" ref="DI7:DN7" si="66">LEFT(TEXT(DI6,"ggg"),1)</f>
+        <v>d</v>
+      </c>
+      <c r="DJ7" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v>l</v>
+      </c>
+      <c r="DK7" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v>m</v>
+      </c>
+      <c r="DL7" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v>m</v>
+      </c>
+      <c r="DM7" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v>g</v>
+      </c>
+      <c r="DN7" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v>v</v>
+      </c>
+      <c r="DO7" s="9" t="str">
+        <f>LEFT(TEXT(DO6,"ggg"),1)</f>
+        <v>s</v>
+      </c>
+      <c r="DP7" s="9" t="str">
+        <f t="shared" ref="DP7" si="67">LEFT(TEXT(DP6,"ggg"),1)</f>
+        <v>d</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:120" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="21"/>
       <c r="E8"/>
       <c r="H8" t="str">
-        <f t="shared" ref="H8:H26" si="18">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
+        <f t="shared" ref="H8:H27" si="68">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
         <v/>
       </c>
       <c r="I8" s="18"/>
@@ -3086,108 +3496,157 @@
       <c r="BD8" s="18"/>
       <c r="BE8" s="18"/>
     </row>
-    <row r="9" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48" t="str">
-        <f t="shared" si="18"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46" t="str">
+        <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="49"/>
-      <c r="AN9" s="49"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="49"/>
-      <c r="AQ9" s="49"/>
-      <c r="AR9" s="49"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="49"/>
-      <c r="AU9" s="49"/>
-      <c r="AV9" s="49"/>
-      <c r="AW9" s="49"/>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="49"/>
-      <c r="AZ9" s="49"/>
-      <c r="BA9" s="49"/>
-      <c r="BB9" s="49"/>
-      <c r="BC9" s="49"/>
-      <c r="BD9" s="49"/>
-      <c r="BE9" s="49"/>
-      <c r="BF9" s="49"/>
-      <c r="BG9" s="49"/>
-      <c r="BH9" s="49"/>
-      <c r="BI9" s="49"/>
-      <c r="BJ9" s="49"/>
-      <c r="BK9" s="49"/>
-      <c r="BL9" s="49"/>
-      <c r="BM9" s="49"/>
-      <c r="BN9" s="49"/>
-      <c r="BO9" s="49"/>
-      <c r="BP9" s="49"/>
-      <c r="BQ9" s="49"/>
-      <c r="BR9" s="49"/>
-      <c r="BS9" s="49"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="47"/>
+      <c r="AX9" s="47"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="47"/>
+      <c r="BA9" s="47"/>
+      <c r="BB9" s="47"/>
+      <c r="BC9" s="47"/>
+      <c r="BD9" s="47"/>
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="47"/>
+      <c r="BG9" s="47"/>
+      <c r="BH9" s="47"/>
+      <c r="BI9" s="47"/>
+      <c r="BJ9" s="47"/>
+      <c r="BK9" s="47"/>
+      <c r="BL9" s="47"/>
+      <c r="BM9" s="47"/>
+      <c r="BN9" s="47"/>
+      <c r="BO9" s="47"/>
+      <c r="BP9" s="47"/>
+      <c r="BQ9" s="47"/>
+      <c r="BR9" s="47"/>
+      <c r="BS9" s="47"/>
+      <c r="BT9" s="47"/>
+      <c r="BU9" s="47"/>
+      <c r="BV9" s="47"/>
+      <c r="BW9" s="47"/>
+      <c r="BX9" s="47"/>
+      <c r="BY9" s="47"/>
+      <c r="BZ9" s="47"/>
+      <c r="CA9" s="47"/>
+      <c r="CB9" s="47"/>
+      <c r="CC9" s="47"/>
+      <c r="CD9" s="47"/>
+      <c r="CE9" s="47"/>
+      <c r="CF9" s="47"/>
+      <c r="CG9" s="47"/>
+      <c r="CH9" s="47"/>
+      <c r="CI9" s="47"/>
+      <c r="CJ9" s="47"/>
+      <c r="CK9" s="47"/>
+      <c r="CL9" s="47"/>
+      <c r="CM9" s="47"/>
+      <c r="CN9" s="47"/>
+      <c r="CO9" s="47"/>
+      <c r="CP9" s="47"/>
+      <c r="CQ9" s="47"/>
+      <c r="CR9" s="47"/>
+      <c r="CS9" s="47"/>
+      <c r="CT9" s="47"/>
+      <c r="CU9" s="47"/>
+      <c r="CV9" s="47"/>
+      <c r="CW9" s="47"/>
+      <c r="CX9" s="47"/>
+      <c r="CY9" s="47"/>
+      <c r="CZ9" s="47"/>
+      <c r="DA9" s="47"/>
+      <c r="DB9" s="47"/>
+      <c r="DC9" s="47"/>
+      <c r="DD9" s="47"/>
+      <c r="DE9" s="47"/>
+      <c r="DF9" s="47"/>
+      <c r="DG9" s="47"/>
+      <c r="DH9" s="47"/>
+      <c r="DI9" s="47"/>
+      <c r="DJ9" s="47"/>
+      <c r="DK9" s="47"/>
+      <c r="DL9" s="47"/>
+      <c r="DM9" s="47"/>
+      <c r="DN9" s="47"/>
+      <c r="DO9" s="47"/>
+      <c r="DP9" s="47"/>
     </row>
-    <row r="10" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>44503</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <v>44510</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="68"/>
         <v>8</v>
       </c>
       <c r="I10" s="18"/>
@@ -3253,22 +3712,71 @@
       <c r="BQ10" s="18"/>
       <c r="BR10" s="18"/>
       <c r="BS10" s="18"/>
+      <c r="BT10" s="18"/>
+      <c r="BU10" s="18"/>
+      <c r="BV10" s="18"/>
+      <c r="BW10" s="18"/>
+      <c r="BX10" s="18"/>
+      <c r="BY10" s="18"/>
+      <c r="BZ10" s="18"/>
+      <c r="CA10" s="18"/>
+      <c r="CB10" s="18"/>
+      <c r="CC10" s="18"/>
+      <c r="CD10" s="18"/>
+      <c r="CE10" s="18"/>
+      <c r="CF10" s="18"/>
+      <c r="CG10" s="18"/>
+      <c r="CH10" s="18"/>
+      <c r="CI10" s="18"/>
+      <c r="CJ10" s="18"/>
+      <c r="CK10" s="18"/>
+      <c r="CL10" s="18"/>
+      <c r="CM10" s="18"/>
+      <c r="CN10" s="18"/>
+      <c r="CO10" s="18"/>
+      <c r="CP10" s="18"/>
+      <c r="CQ10" s="18"/>
+      <c r="CR10" s="18"/>
+      <c r="CS10" s="18"/>
+      <c r="CT10" s="18"/>
+      <c r="CU10" s="18"/>
+      <c r="CV10" s="18"/>
+      <c r="CW10" s="18"/>
+      <c r="CX10" s="18"/>
+      <c r="CY10" s="18"/>
+      <c r="CZ10" s="18"/>
+      <c r="DA10" s="18"/>
+      <c r="DB10" s="18"/>
+      <c r="DC10" s="18"/>
+      <c r="DD10" s="18"/>
+      <c r="DE10" s="18"/>
+      <c r="DF10" s="18"/>
+      <c r="DG10" s="18"/>
+      <c r="DH10" s="18"/>
+      <c r="DI10" s="18"/>
+      <c r="DJ10" s="18"/>
+      <c r="DK10" s="18"/>
+      <c r="DL10" s="18"/>
+      <c r="DM10" s="18"/>
+      <c r="DN10" s="18"/>
+      <c r="DO10" s="18"/>
+      <c r="DP10" s="18"/>
     </row>
-    <row r="11" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>22</v>
+    <row r="11" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="38"/>
+      <c r="B11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>44503</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>44510</v>
       </c>
       <c r="G11" s="11"/>
@@ -3336,22 +3844,71 @@
       <c r="BQ11" s="18"/>
       <c r="BR11" s="18"/>
       <c r="BS11" s="18"/>
+      <c r="BT11" s="18"/>
+      <c r="BU11" s="18"/>
+      <c r="BV11" s="18"/>
+      <c r="BW11" s="18"/>
+      <c r="BX11" s="18"/>
+      <c r="BY11" s="18"/>
+      <c r="BZ11" s="18"/>
+      <c r="CA11" s="18"/>
+      <c r="CB11" s="18"/>
+      <c r="CC11" s="18"/>
+      <c r="CD11" s="18"/>
+      <c r="CE11" s="18"/>
+      <c r="CF11" s="18"/>
+      <c r="CG11" s="18"/>
+      <c r="CH11" s="18"/>
+      <c r="CI11" s="18"/>
+      <c r="CJ11" s="18"/>
+      <c r="CK11" s="18"/>
+      <c r="CL11" s="18"/>
+      <c r="CM11" s="18"/>
+      <c r="CN11" s="18"/>
+      <c r="CO11" s="18"/>
+      <c r="CP11" s="18"/>
+      <c r="CQ11" s="18"/>
+      <c r="CR11" s="18"/>
+      <c r="CS11" s="18"/>
+      <c r="CT11" s="18"/>
+      <c r="CU11" s="18"/>
+      <c r="CV11" s="18"/>
+      <c r="CW11" s="18"/>
+      <c r="CX11" s="18"/>
+      <c r="CY11" s="18"/>
+      <c r="CZ11" s="18"/>
+      <c r="DA11" s="18"/>
+      <c r="DB11" s="18"/>
+      <c r="DC11" s="18"/>
+      <c r="DD11" s="18"/>
+      <c r="DE11" s="18"/>
+      <c r="DF11" s="18"/>
+      <c r="DG11" s="18"/>
+      <c r="DH11" s="18"/>
+      <c r="DI11" s="18"/>
+      <c r="DJ11" s="18"/>
+      <c r="DK11" s="18"/>
+      <c r="DL11" s="18"/>
+      <c r="DM11" s="18"/>
+      <c r="DN11" s="18"/>
+      <c r="DO11" s="18"/>
+      <c r="DP11" s="18"/>
     </row>
-    <row r="12" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>22</v>
+    <row r="12" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="38"/>
+      <c r="B12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="E12" s="34">
         <v>44503</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>44515</v>
       </c>
       <c r="G12" s="11"/>
@@ -3419,107 +3976,205 @@
       <c r="BQ12" s="18"/>
       <c r="BR12" s="18"/>
       <c r="BS12" s="18"/>
+      <c r="BT12" s="18"/>
+      <c r="BU12" s="18"/>
+      <c r="BV12" s="18"/>
+      <c r="BW12" s="18"/>
+      <c r="BX12" s="18"/>
+      <c r="BY12" s="18"/>
+      <c r="BZ12" s="18"/>
+      <c r="CA12" s="18"/>
+      <c r="CB12" s="18"/>
+      <c r="CC12" s="18"/>
+      <c r="CD12" s="18"/>
+      <c r="CE12" s="18"/>
+      <c r="CF12" s="18"/>
+      <c r="CG12" s="18"/>
+      <c r="CH12" s="18"/>
+      <c r="CI12" s="18"/>
+      <c r="CJ12" s="18"/>
+      <c r="CK12" s="18"/>
+      <c r="CL12" s="18"/>
+      <c r="CM12" s="18"/>
+      <c r="CN12" s="18"/>
+      <c r="CO12" s="18"/>
+      <c r="CP12" s="18"/>
+      <c r="CQ12" s="18"/>
+      <c r="CR12" s="18"/>
+      <c r="CS12" s="18"/>
+      <c r="CT12" s="18"/>
+      <c r="CU12" s="18"/>
+      <c r="CV12" s="18"/>
+      <c r="CW12" s="18"/>
+      <c r="CX12" s="18"/>
+      <c r="CY12" s="18"/>
+      <c r="CZ12" s="18"/>
+      <c r="DA12" s="18"/>
+      <c r="DB12" s="18"/>
+      <c r="DC12" s="18"/>
+      <c r="DD12" s="18"/>
+      <c r="DE12" s="18"/>
+      <c r="DF12" s="18"/>
+      <c r="DG12" s="18"/>
+      <c r="DH12" s="18"/>
+      <c r="DI12" s="18"/>
+      <c r="DJ12" s="18"/>
+      <c r="DK12" s="18"/>
+      <c r="DL12" s="18"/>
+      <c r="DM12" s="18"/>
+      <c r="DN12" s="18"/>
+      <c r="DO12" s="18"/>
+      <c r="DP12" s="18"/>
     </row>
-    <row r="13" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="49"/>
       <c r="B13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48" t="str">
-        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46" t="str">
+        <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="49"/>
-      <c r="BC13" s="49"/>
-      <c r="BD13" s="49"/>
-      <c r="BE13" s="49"/>
-      <c r="BF13" s="49"/>
-      <c r="BG13" s="49"/>
-      <c r="BH13" s="49"/>
-      <c r="BI13" s="49"/>
-      <c r="BJ13" s="49"/>
-      <c r="BK13" s="49"/>
-      <c r="BL13" s="49"/>
-      <c r="BM13" s="49"/>
-      <c r="BN13" s="49"/>
-      <c r="BO13" s="49"/>
-      <c r="BP13" s="49"/>
-      <c r="BQ13" s="49"/>
-      <c r="BR13" s="49"/>
-      <c r="BS13" s="49"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
+      <c r="BK13" s="18"/>
+      <c r="BL13" s="18"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BP13" s="18"/>
+      <c r="BQ13" s="18"/>
+      <c r="BR13" s="18"/>
+      <c r="BS13" s="18"/>
+      <c r="BT13" s="18"/>
+      <c r="BU13" s="18"/>
+      <c r="BV13" s="18"/>
+      <c r="BW13" s="18"/>
+      <c r="BX13" s="18"/>
+      <c r="BY13" s="18"/>
+      <c r="BZ13" s="18"/>
+      <c r="CA13" s="18"/>
+      <c r="CB13" s="18"/>
+      <c r="CC13" s="18"/>
+      <c r="CD13" s="18"/>
+      <c r="CE13" s="18"/>
+      <c r="CF13" s="18"/>
+      <c r="CG13" s="18"/>
+      <c r="CH13" s="18"/>
+      <c r="CI13" s="18"/>
+      <c r="CJ13" s="18"/>
+      <c r="CK13" s="18"/>
+      <c r="CL13" s="18"/>
+      <c r="CM13" s="18"/>
+      <c r="CN13" s="18"/>
+      <c r="CO13" s="18"/>
+      <c r="CP13" s="18"/>
+      <c r="CQ13" s="18"/>
+      <c r="CR13" s="18"/>
+      <c r="CS13" s="18"/>
+      <c r="CT13" s="18"/>
+      <c r="CU13" s="18"/>
+      <c r="CV13" s="18"/>
+      <c r="CW13" s="18"/>
+      <c r="CX13" s="18"/>
+      <c r="CY13" s="18"/>
+      <c r="CZ13" s="18"/>
+      <c r="DA13" s="18"/>
+      <c r="DB13" s="18"/>
+      <c r="DC13" s="18"/>
+      <c r="DD13" s="18"/>
+      <c r="DE13" s="18"/>
+      <c r="DF13" s="18"/>
+      <c r="DG13" s="18"/>
+      <c r="DH13" s="18"/>
+      <c r="DI13" s="18"/>
+      <c r="DJ13" s="18"/>
+      <c r="DK13" s="18"/>
+      <c r="DL13" s="18"/>
+      <c r="DM13" s="18"/>
+      <c r="DN13" s="18"/>
+      <c r="DO13" s="18"/>
+      <c r="DP13" s="18"/>
     </row>
-    <row r="14" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>27</v>
+    <row r="14" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>44503</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>44510</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="68"/>
         <v>8</v>
       </c>
       <c r="I14" s="18"/>
@@ -3538,7 +4193,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="70"/>
+      <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
@@ -3585,24 +4240,73 @@
       <c r="BQ14" s="18"/>
       <c r="BR14" s="18"/>
       <c r="BS14" s="18"/>
+      <c r="BT14" s="18"/>
+      <c r="BU14" s="18"/>
+      <c r="BV14" s="18"/>
+      <c r="BW14" s="18"/>
+      <c r="BX14" s="18"/>
+      <c r="BY14" s="18"/>
+      <c r="BZ14" s="18"/>
+      <c r="CA14" s="18"/>
+      <c r="CB14" s="18"/>
+      <c r="CC14" s="18"/>
+      <c r="CD14" s="18"/>
+      <c r="CE14" s="18"/>
+      <c r="CF14" s="18"/>
+      <c r="CG14" s="18"/>
+      <c r="CH14" s="18"/>
+      <c r="CI14" s="18"/>
+      <c r="CJ14" s="18"/>
+      <c r="CK14" s="18"/>
+      <c r="CL14" s="18"/>
+      <c r="CM14" s="18"/>
+      <c r="CN14" s="18"/>
+      <c r="CO14" s="18"/>
+      <c r="CP14" s="18"/>
+      <c r="CQ14" s="18"/>
+      <c r="CR14" s="18"/>
+      <c r="CS14" s="18"/>
+      <c r="CT14" s="18"/>
+      <c r="CU14" s="18"/>
+      <c r="CV14" s="18"/>
+      <c r="CW14" s="18"/>
+      <c r="CX14" s="18"/>
+      <c r="CY14" s="18"/>
+      <c r="CZ14" s="18"/>
+      <c r="DA14" s="18"/>
+      <c r="DB14" s="18"/>
+      <c r="DC14" s="18"/>
+      <c r="DD14" s="18"/>
+      <c r="DE14" s="18"/>
+      <c r="DF14" s="18"/>
+      <c r="DG14" s="18"/>
+      <c r="DH14" s="18"/>
+      <c r="DI14" s="18"/>
+      <c r="DJ14" s="18"/>
+      <c r="DK14" s="18"/>
+      <c r="DL14" s="18"/>
+      <c r="DM14" s="18"/>
+      <c r="DN14" s="18"/>
+      <c r="DO14" s="18"/>
+      <c r="DP14" s="18"/>
     </row>
-    <row r="15" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>27</v>
+    <row r="15" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>44503</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>44510</v>
       </c>
       <c r="G15" s="11"/>
@@ -3622,8 +4326,9 @@
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
-      <c r="X15" s="68"/>
-      <c r="Z15" s="69"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
@@ -3669,22 +4374,71 @@
       <c r="BQ15" s="18"/>
       <c r="BR15" s="18"/>
       <c r="BS15" s="18"/>
+      <c r="BT15" s="18"/>
+      <c r="BU15" s="18"/>
+      <c r="BV15" s="18"/>
+      <c r="BW15" s="18"/>
+      <c r="BX15" s="18"/>
+      <c r="BY15" s="18"/>
+      <c r="BZ15" s="18"/>
+      <c r="CA15" s="18"/>
+      <c r="CB15" s="18"/>
+      <c r="CC15" s="18"/>
+      <c r="CD15" s="18"/>
+      <c r="CE15" s="18"/>
+      <c r="CF15" s="18"/>
+      <c r="CG15" s="18"/>
+      <c r="CH15" s="18"/>
+      <c r="CI15" s="18"/>
+      <c r="CJ15" s="18"/>
+      <c r="CK15" s="18"/>
+      <c r="CL15" s="18"/>
+      <c r="CM15" s="18"/>
+      <c r="CN15" s="18"/>
+      <c r="CO15" s="18"/>
+      <c r="CP15" s="18"/>
+      <c r="CQ15" s="18"/>
+      <c r="CR15" s="18"/>
+      <c r="CS15" s="18"/>
+      <c r="CT15" s="18"/>
+      <c r="CU15" s="18"/>
+      <c r="CV15" s="18"/>
+      <c r="CW15" s="18"/>
+      <c r="CX15" s="18"/>
+      <c r="CY15" s="18"/>
+      <c r="CZ15" s="18"/>
+      <c r="DA15" s="18"/>
+      <c r="DB15" s="18"/>
+      <c r="DC15" s="18"/>
+      <c r="DD15" s="18"/>
+      <c r="DE15" s="18"/>
+      <c r="DF15" s="18"/>
+      <c r="DG15" s="18"/>
+      <c r="DH15" s="18"/>
+      <c r="DI15" s="18"/>
+      <c r="DJ15" s="18"/>
+      <c r="DK15" s="18"/>
+      <c r="DL15" s="18"/>
+      <c r="DM15" s="18"/>
+      <c r="DN15" s="18"/>
+      <c r="DO15" s="18"/>
+      <c r="DP15" s="18"/>
     </row>
-    <row r="16" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>27</v>
+    <row r="16" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="38"/>
+      <c r="B16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>44503</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>44510</v>
       </c>
       <c r="G16" s="11"/>
@@ -3705,7 +4459,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
-      <c r="Y16" s="71"/>
+      <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
@@ -3752,105 +4506,203 @@
       <c r="BQ16" s="18"/>
       <c r="BR16" s="18"/>
       <c r="BS16" s="18"/>
+      <c r="BT16" s="18"/>
+      <c r="BU16" s="18"/>
+      <c r="BV16" s="18"/>
+      <c r="BW16" s="18"/>
+      <c r="BX16" s="18"/>
+      <c r="BY16" s="18"/>
+      <c r="BZ16" s="18"/>
+      <c r="CA16" s="18"/>
+      <c r="CB16" s="18"/>
+      <c r="CC16" s="18"/>
+      <c r="CD16" s="18"/>
+      <c r="CE16" s="18"/>
+      <c r="CF16" s="18"/>
+      <c r="CG16" s="18"/>
+      <c r="CH16" s="18"/>
+      <c r="CI16" s="18"/>
+      <c r="CJ16" s="18"/>
+      <c r="CK16" s="18"/>
+      <c r="CL16" s="18"/>
+      <c r="CM16" s="18"/>
+      <c r="CN16" s="18"/>
+      <c r="CO16" s="18"/>
+      <c r="CP16" s="18"/>
+      <c r="CQ16" s="18"/>
+      <c r="CR16" s="18"/>
+      <c r="CS16" s="18"/>
+      <c r="CT16" s="18"/>
+      <c r="CU16" s="18"/>
+      <c r="CV16" s="18"/>
+      <c r="CW16" s="18"/>
+      <c r="CX16" s="18"/>
+      <c r="CY16" s="18"/>
+      <c r="CZ16" s="18"/>
+      <c r="DA16" s="18"/>
+      <c r="DB16" s="18"/>
+      <c r="DC16" s="18"/>
+      <c r="DD16" s="18"/>
+      <c r="DE16" s="18"/>
+      <c r="DF16" s="18"/>
+      <c r="DG16" s="18"/>
+      <c r="DH16" s="18"/>
+      <c r="DI16" s="18"/>
+      <c r="DJ16" s="18"/>
+      <c r="DK16" s="18"/>
+      <c r="DL16" s="18"/>
+      <c r="DM16" s="18"/>
+      <c r="DN16" s="18"/>
+      <c r="DO16" s="18"/>
+      <c r="DP16" s="18"/>
     </row>
-    <row r="17" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+    <row r="17" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="41"/>
       <c r="B17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48" t="str">
-        <f t="shared" si="18"/>
+        <v>26</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46" t="str">
+        <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="49"/>
-      <c r="AP17" s="49"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="49"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="49"/>
-      <c r="AU17" s="49"/>
-      <c r="AV17" s="49"/>
-      <c r="AW17" s="49"/>
-      <c r="AX17" s="49"/>
-      <c r="AY17" s="49"/>
-      <c r="AZ17" s="49"/>
-      <c r="BA17" s="49"/>
-      <c r="BB17" s="49"/>
-      <c r="BC17" s="49"/>
-      <c r="BD17" s="49"/>
-      <c r="BE17" s="49"/>
-      <c r="BF17" s="49"/>
-      <c r="BG17" s="49"/>
-      <c r="BH17" s="49"/>
-      <c r="BI17" s="49"/>
-      <c r="BJ17" s="49"/>
-      <c r="BK17" s="49"/>
-      <c r="BL17" s="49"/>
-      <c r="BM17" s="49"/>
-      <c r="BN17" s="49"/>
-      <c r="BO17" s="49"/>
-      <c r="BP17" s="49"/>
-      <c r="BQ17" s="49"/>
-      <c r="BR17" s="49"/>
-      <c r="BS17" s="49"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="18"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="18"/>
+      <c r="BB17" s="18"/>
+      <c r="BC17" s="18"/>
+      <c r="BD17" s="18"/>
+      <c r="BE17" s="18"/>
+      <c r="BF17" s="18"/>
+      <c r="BG17" s="18"/>
+      <c r="BH17" s="18"/>
+      <c r="BI17" s="18"/>
+      <c r="BJ17" s="18"/>
+      <c r="BK17" s="18"/>
+      <c r="BL17" s="18"/>
+      <c r="BM17" s="18"/>
+      <c r="BN17" s="18"/>
+      <c r="BO17" s="18"/>
+      <c r="BP17" s="18"/>
+      <c r="BQ17" s="18"/>
+      <c r="BR17" s="18"/>
+      <c r="BS17" s="18"/>
+      <c r="BT17" s="18"/>
+      <c r="BU17" s="18"/>
+      <c r="BV17" s="18"/>
+      <c r="BW17" s="18"/>
+      <c r="BX17" s="18"/>
+      <c r="BY17" s="18"/>
+      <c r="BZ17" s="18"/>
+      <c r="CA17" s="18"/>
+      <c r="CB17" s="18"/>
+      <c r="CC17" s="18"/>
+      <c r="CD17" s="18"/>
+      <c r="CE17" s="18"/>
+      <c r="CF17" s="18"/>
+      <c r="CG17" s="18"/>
+      <c r="CH17" s="18"/>
+      <c r="CI17" s="18"/>
+      <c r="CJ17" s="18"/>
+      <c r="CK17" s="18"/>
+      <c r="CL17" s="18"/>
+      <c r="CM17" s="18"/>
+      <c r="CN17" s="18"/>
+      <c r="CO17" s="18"/>
+      <c r="CP17" s="18"/>
+      <c r="CQ17" s="18"/>
+      <c r="CR17" s="18"/>
+      <c r="CS17" s="18"/>
+      <c r="CT17" s="18"/>
+      <c r="CU17" s="18"/>
+      <c r="CV17" s="18"/>
+      <c r="CW17" s="18"/>
+      <c r="CX17" s="18"/>
+      <c r="CY17" s="18"/>
+      <c r="CZ17" s="18"/>
+      <c r="DA17" s="18"/>
+      <c r="DB17" s="18"/>
+      <c r="DC17" s="18"/>
+      <c r="DD17" s="18"/>
+      <c r="DE17" s="18"/>
+      <c r="DF17" s="18"/>
+      <c r="DG17" s="18"/>
+      <c r="DH17" s="18"/>
+      <c r="DI17" s="18"/>
+      <c r="DJ17" s="18"/>
+      <c r="DK17" s="18"/>
+      <c r="DL17" s="18"/>
+      <c r="DM17" s="18"/>
+      <c r="DN17" s="18"/>
+      <c r="DO17" s="18"/>
+      <c r="DP17" s="18"/>
     </row>
-    <row r="18" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>31</v>
+    <row r="18" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="39"/>
+      <c r="B18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="D18" s="15">
         <v>1</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>44489</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <v>44496</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="68"/>
         <v>8</v>
       </c>
       <c r="I18" s="18"/>
@@ -3865,8 +4717,8 @@
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
@@ -3916,22 +4768,71 @@
       <c r="BQ18" s="18"/>
       <c r="BR18" s="18"/>
       <c r="BS18" s="18"/>
+      <c r="BT18" s="18"/>
+      <c r="BU18" s="18"/>
+      <c r="BV18" s="18"/>
+      <c r="BW18" s="18"/>
+      <c r="BX18" s="18"/>
+      <c r="BY18" s="18"/>
+      <c r="BZ18" s="18"/>
+      <c r="CA18" s="18"/>
+      <c r="CB18" s="18"/>
+      <c r="CC18" s="18"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="18"/>
+      <c r="CF18" s="18"/>
+      <c r="CG18" s="18"/>
+      <c r="CH18" s="18"/>
+      <c r="CI18" s="18"/>
+      <c r="CJ18" s="18"/>
+      <c r="CK18" s="18"/>
+      <c r="CL18" s="18"/>
+      <c r="CM18" s="18"/>
+      <c r="CN18" s="18"/>
+      <c r="CO18" s="18"/>
+      <c r="CP18" s="18"/>
+      <c r="CQ18" s="18"/>
+      <c r="CR18" s="18"/>
+      <c r="CS18" s="18"/>
+      <c r="CT18" s="18"/>
+      <c r="CU18" s="18"/>
+      <c r="CV18" s="18"/>
+      <c r="CW18" s="18"/>
+      <c r="CX18" s="18"/>
+      <c r="CY18" s="18"/>
+      <c r="CZ18" s="18"/>
+      <c r="DA18" s="18"/>
+      <c r="DB18" s="18"/>
+      <c r="DC18" s="18"/>
+      <c r="DD18" s="18"/>
+      <c r="DE18" s="18"/>
+      <c r="DF18" s="18"/>
+      <c r="DG18" s="18"/>
+      <c r="DH18" s="18"/>
+      <c r="DI18" s="18"/>
+      <c r="DJ18" s="18"/>
+      <c r="DK18" s="18"/>
+      <c r="DL18" s="18"/>
+      <c r="DM18" s="18"/>
+      <c r="DN18" s="18"/>
+      <c r="DO18" s="18"/>
+      <c r="DP18" s="18"/>
     </row>
-    <row r="19" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>31</v>
+    <row r="19" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="39"/>
+      <c r="B19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="E19" s="34">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33">
         <v>44512</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="33">
         <v>44519</v>
       </c>
       <c r="G19" s="11"/>
@@ -3948,8 +4849,8 @@
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
@@ -3999,108 +4900,206 @@
       <c r="BQ19" s="18"/>
       <c r="BR19" s="18"/>
       <c r="BS19" s="18"/>
+      <c r="BT19" s="18"/>
+      <c r="BU19" s="18"/>
+      <c r="BV19" s="18"/>
+      <c r="BW19" s="18"/>
+      <c r="BX19" s="18"/>
+      <c r="BY19" s="18"/>
+      <c r="BZ19" s="18"/>
+      <c r="CA19" s="18"/>
+      <c r="CB19" s="18"/>
+      <c r="CC19" s="18"/>
+      <c r="CD19" s="18"/>
+      <c r="CE19" s="18"/>
+      <c r="CF19" s="18"/>
+      <c r="CG19" s="18"/>
+      <c r="CH19" s="18"/>
+      <c r="CI19" s="18"/>
+      <c r="CJ19" s="18"/>
+      <c r="CK19" s="18"/>
+      <c r="CL19" s="18"/>
+      <c r="CM19" s="18"/>
+      <c r="CN19" s="18"/>
+      <c r="CO19" s="18"/>
+      <c r="CP19" s="18"/>
+      <c r="CQ19" s="18"/>
+      <c r="CR19" s="18"/>
+      <c r="CS19" s="18"/>
+      <c r="CT19" s="18"/>
+      <c r="CU19" s="18"/>
+      <c r="CV19" s="18"/>
+      <c r="CW19" s="18"/>
+      <c r="CX19" s="18"/>
+      <c r="CY19" s="18"/>
+      <c r="CZ19" s="18"/>
+      <c r="DA19" s="18"/>
+      <c r="DB19" s="18"/>
+      <c r="DC19" s="18"/>
+      <c r="DD19" s="18"/>
+      <c r="DE19" s="18"/>
+      <c r="DF19" s="18"/>
+      <c r="DG19" s="18"/>
+      <c r="DH19" s="18"/>
+      <c r="DI19" s="18"/>
+      <c r="DJ19" s="18"/>
+      <c r="DK19" s="18"/>
+      <c r="DL19" s="18"/>
+      <c r="DM19" s="18"/>
+      <c r="DN19" s="18"/>
+      <c r="DO19" s="18"/>
+      <c r="DP19" s="18"/>
     </row>
-    <row r="20" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
-        <v>33</v>
+    <row r="20" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48" t="str">
-        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46" t="str">
+        <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="49"/>
-      <c r="AP20" s="49"/>
-      <c r="AQ20" s="49"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="49"/>
-      <c r="AW20" s="49"/>
-      <c r="AX20" s="49"/>
-      <c r="AY20" s="49"/>
-      <c r="AZ20" s="49"/>
-      <c r="BA20" s="49"/>
-      <c r="BB20" s="49"/>
-      <c r="BC20" s="49"/>
-      <c r="BD20" s="49"/>
-      <c r="BE20" s="49"/>
-      <c r="BF20" s="49"/>
-      <c r="BG20" s="49"/>
-      <c r="BH20" s="49"/>
-      <c r="BI20" s="49"/>
-      <c r="BJ20" s="49"/>
-      <c r="BK20" s="49"/>
-      <c r="BL20" s="49"/>
-      <c r="BM20" s="49"/>
-      <c r="BN20" s="49"/>
-      <c r="BO20" s="49"/>
-      <c r="BP20" s="49"/>
-      <c r="BQ20" s="49"/>
-      <c r="BR20" s="49"/>
-      <c r="BS20" s="49"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
+      <c r="BK20" s="18"/>
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+      <c r="BN20" s="18"/>
+      <c r="BO20" s="18"/>
+      <c r="BP20" s="18"/>
+      <c r="BQ20" s="18"/>
+      <c r="BR20" s="18"/>
+      <c r="BS20" s="18"/>
+      <c r="BT20" s="18"/>
+      <c r="BU20" s="18"/>
+      <c r="BV20" s="18"/>
+      <c r="BW20" s="18"/>
+      <c r="BX20" s="18"/>
+      <c r="BY20" s="18"/>
+      <c r="BZ20" s="18"/>
+      <c r="CA20" s="18"/>
+      <c r="CB20" s="18"/>
+      <c r="CC20" s="18"/>
+      <c r="CD20" s="18"/>
+      <c r="CE20" s="18"/>
+      <c r="CF20" s="18"/>
+      <c r="CG20" s="18"/>
+      <c r="CH20" s="18"/>
+      <c r="CI20" s="18"/>
+      <c r="CJ20" s="18"/>
+      <c r="CK20" s="18"/>
+      <c r="CL20" s="18"/>
+      <c r="CM20" s="18"/>
+      <c r="CN20" s="18"/>
+      <c r="CO20" s="18"/>
+      <c r="CP20" s="18"/>
+      <c r="CQ20" s="18"/>
+      <c r="CR20" s="18"/>
+      <c r="CS20" s="18"/>
+      <c r="CT20" s="18"/>
+      <c r="CU20" s="18"/>
+      <c r="CV20" s="18"/>
+      <c r="CW20" s="18"/>
+      <c r="CX20" s="18"/>
+      <c r="CY20" s="18"/>
+      <c r="CZ20" s="18"/>
+      <c r="DA20" s="18"/>
+      <c r="DB20" s="18"/>
+      <c r="DC20" s="18"/>
+      <c r="DD20" s="18"/>
+      <c r="DE20" s="18"/>
+      <c r="DF20" s="18"/>
+      <c r="DG20" s="18"/>
+      <c r="DH20" s="18"/>
+      <c r="DI20" s="18"/>
+      <c r="DJ20" s="18"/>
+      <c r="DK20" s="18"/>
+      <c r="DL20" s="18"/>
+      <c r="DM20" s="18"/>
+      <c r="DN20" s="18"/>
+      <c r="DO20" s="18"/>
+      <c r="DP20" s="18"/>
     </row>
-    <row r="21" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>27</v>
+    <row r="21" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="39"/>
+      <c r="B21" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="35">
+        <v>1</v>
+      </c>
+      <c r="E21" s="34">
         <v>44512</v>
       </c>
-      <c r="F21" s="35">
-        <v>44519</v>
+      <c r="F21" s="34">
+        <v>44517</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11">
-        <f t="shared" si="18"/>
-        <v>8</v>
+        <f t="shared" si="68"/>
+        <v>6</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -4165,106 +5164,201 @@
       <c r="BQ21" s="18"/>
       <c r="BR21" s="18"/>
       <c r="BS21" s="18"/>
+      <c r="BT21" s="18"/>
+      <c r="BU21" s="18"/>
+      <c r="BV21" s="18"/>
+      <c r="BW21" s="18"/>
+      <c r="BX21" s="18"/>
+      <c r="BY21" s="18"/>
+      <c r="BZ21" s="18"/>
+      <c r="CA21" s="18"/>
+      <c r="CB21" s="18"/>
+      <c r="CC21" s="18"/>
+      <c r="CD21" s="18"/>
+      <c r="CE21" s="18"/>
+      <c r="CF21" s="18"/>
+      <c r="CG21" s="18"/>
+      <c r="CH21" s="18"/>
+      <c r="CI21" s="18"/>
+      <c r="CJ21" s="18"/>
+      <c r="CK21" s="18"/>
+      <c r="CL21" s="18"/>
+      <c r="CM21" s="18"/>
+      <c r="CN21" s="18"/>
+      <c r="CO21" s="18"/>
+      <c r="CP21" s="18"/>
+      <c r="CQ21" s="18"/>
+      <c r="CR21" s="18"/>
+      <c r="CS21" s="18"/>
+      <c r="CT21" s="18"/>
+      <c r="CU21" s="18"/>
+      <c r="CV21" s="18"/>
+      <c r="CW21" s="18"/>
+      <c r="CX21" s="18"/>
+      <c r="CY21" s="18"/>
+      <c r="CZ21" s="18"/>
+      <c r="DA21" s="18"/>
+      <c r="DB21" s="18"/>
+      <c r="DC21" s="18"/>
+      <c r="DD21" s="18"/>
+      <c r="DE21" s="18"/>
+      <c r="DF21" s="18"/>
+      <c r="DG21" s="18"/>
+      <c r="DH21" s="18"/>
+      <c r="DI21" s="18"/>
+      <c r="DJ21" s="18"/>
+      <c r="DK21" s="18"/>
+      <c r="DL21" s="18"/>
+      <c r="DM21" s="18"/>
+      <c r="DN21" s="18"/>
+      <c r="DO21" s="18"/>
+      <c r="DP21" s="18"/>
     </row>
-    <row r="22" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48" t="str">
-        <f t="shared" si="18"/>
+    <row r="22" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="39"/>
+      <c r="B22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34">
+        <v>44517</v>
+      </c>
+      <c r="F22" s="34">
+        <v>44519</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="18"/>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="18"/>
+      <c r="BH22" s="18"/>
+      <c r="BI22" s="18"/>
+      <c r="BJ22" s="18"/>
+      <c r="BK22" s="18"/>
+      <c r="BL22" s="18"/>
+      <c r="BM22" s="18"/>
+      <c r="BN22" s="18"/>
+      <c r="BO22" s="18"/>
+      <c r="BP22" s="18"/>
+      <c r="BQ22" s="18"/>
+      <c r="BR22" s="18"/>
+      <c r="BS22" s="18"/>
+      <c r="BT22" s="18"/>
+      <c r="BU22" s="18"/>
+      <c r="BV22" s="18"/>
+      <c r="BW22" s="18"/>
+      <c r="BX22" s="18"/>
+      <c r="BY22" s="18"/>
+      <c r="BZ22" s="18"/>
+      <c r="CA22" s="18"/>
+      <c r="CB22" s="18"/>
+      <c r="CC22" s="18"/>
+      <c r="CD22" s="18"/>
+      <c r="CE22" s="18"/>
+      <c r="CF22" s="18"/>
+      <c r="CG22" s="18"/>
+      <c r="CH22" s="18"/>
+      <c r="CI22" s="18"/>
+      <c r="CJ22" s="18"/>
+      <c r="CK22" s="18"/>
+      <c r="CL22" s="18"/>
+      <c r="CM22" s="18"/>
+      <c r="CN22" s="18"/>
+      <c r="CO22" s="18"/>
+      <c r="CP22" s="18"/>
+      <c r="CQ22" s="18"/>
+      <c r="CR22" s="18"/>
+      <c r="CS22" s="18"/>
+      <c r="CT22" s="18"/>
+      <c r="CU22" s="18"/>
+      <c r="CV22" s="18"/>
+      <c r="CW22" s="18"/>
+      <c r="CX22" s="18"/>
+      <c r="CY22" s="18"/>
+      <c r="CZ22" s="18"/>
+      <c r="DA22" s="18"/>
+      <c r="DB22" s="18"/>
+      <c r="DC22" s="18"/>
+      <c r="DD22" s="18"/>
+      <c r="DE22" s="18"/>
+      <c r="DF22" s="18"/>
+      <c r="DG22" s="18"/>
+      <c r="DH22" s="18"/>
+      <c r="DI22" s="18"/>
+      <c r="DJ22" s="18"/>
+      <c r="DK22" s="18"/>
+      <c r="DL22" s="18"/>
+      <c r="DM22" s="18"/>
+      <c r="DN22" s="18"/>
+      <c r="DO22" s="18"/>
+      <c r="DP22" s="18"/>
+    </row>
+    <row r="23" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="49"/>
+      <c r="B23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46" t="str">
+        <f t="shared" si="68"/>
         <v/>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="49"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="49"/>
-      <c r="AO22" s="49"/>
-      <c r="AP22" s="49"/>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="49"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="49"/>
-      <c r="AW22" s="49"/>
-      <c r="AX22" s="49"/>
-      <c r="AY22" s="49"/>
-      <c r="AZ22" s="49"/>
-      <c r="BA22" s="49"/>
-      <c r="BB22" s="49"/>
-      <c r="BC22" s="49"/>
-      <c r="BD22" s="49"/>
-      <c r="BE22" s="49"/>
-      <c r="BF22" s="49"/>
-      <c r="BG22" s="49"/>
-      <c r="BH22" s="49"/>
-      <c r="BI22" s="49"/>
-      <c r="BJ22" s="49"/>
-      <c r="BK22" s="49"/>
-      <c r="BL22" s="49"/>
-      <c r="BM22" s="49"/>
-      <c r="BN22" s="49"/>
-      <c r="BO22" s="49"/>
-      <c r="BP22" s="49"/>
-      <c r="BQ22" s="49"/>
-      <c r="BR22" s="49"/>
-      <c r="BS22" s="49"/>
-    </row>
-    <row r="23" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="33">
-        <v>44512</v>
-      </c>
-      <c r="F23" s="33">
-        <v>44519</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
-        <f t="shared" si="18"/>
-        <v>8</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -4329,26 +5423,78 @@
       <c r="BQ23" s="18"/>
       <c r="BR23" s="18"/>
       <c r="BS23" s="18"/>
+      <c r="BT23" s="18"/>
+      <c r="BU23" s="18"/>
+      <c r="BV23" s="18"/>
+      <c r="BW23" s="18"/>
+      <c r="BX23" s="18"/>
+      <c r="BY23" s="18"/>
+      <c r="BZ23" s="18"/>
+      <c r="CA23" s="18"/>
+      <c r="CB23" s="18"/>
+      <c r="CC23" s="18"/>
+      <c r="CD23" s="18"/>
+      <c r="CE23" s="18"/>
+      <c r="CF23" s="18"/>
+      <c r="CG23" s="18"/>
+      <c r="CH23" s="18"/>
+      <c r="CI23" s="18"/>
+      <c r="CJ23" s="18"/>
+      <c r="CK23" s="18"/>
+      <c r="CL23" s="18"/>
+      <c r="CM23" s="18"/>
+      <c r="CN23" s="18"/>
+      <c r="CO23" s="18"/>
+      <c r="CP23" s="18"/>
+      <c r="CQ23" s="18"/>
+      <c r="CR23" s="18"/>
+      <c r="CS23" s="18"/>
+      <c r="CT23" s="18"/>
+      <c r="CU23" s="18"/>
+      <c r="CV23" s="18"/>
+      <c r="CW23" s="18"/>
+      <c r="CX23" s="18"/>
+      <c r="CY23" s="18"/>
+      <c r="CZ23" s="18"/>
+      <c r="DA23" s="18"/>
+      <c r="DB23" s="18"/>
+      <c r="DC23" s="18"/>
+      <c r="DD23" s="18"/>
+      <c r="DE23" s="18"/>
+      <c r="DF23" s="18"/>
+      <c r="DG23" s="18"/>
+      <c r="DH23" s="18"/>
+      <c r="DI23" s="18"/>
+      <c r="DJ23" s="18"/>
+      <c r="DK23" s="18"/>
+      <c r="DL23" s="18"/>
+      <c r="DM23" s="18"/>
+      <c r="DN23" s="18"/>
+      <c r="DO23" s="18"/>
+      <c r="DP23" s="18"/>
     </row>
-    <row r="24" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="24" t="s">
+    <row r="24" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="39"/>
+      <c r="B24" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32">
+        <v>44517</v>
+      </c>
+      <c r="F24" s="32">
+        <v>44538</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
+        <f t="shared" si="68"/>
         <v>22</v>
       </c>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="33">
-        <v>44512</v>
-      </c>
-      <c r="F24" s="33">
-        <v>44519</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -4412,23 +5558,72 @@
       <c r="BQ24" s="18"/>
       <c r="BR24" s="18"/>
       <c r="BS24" s="18"/>
+      <c r="BT24" s="18"/>
+      <c r="BU24" s="18"/>
+      <c r="BV24" s="18"/>
+      <c r="BW24" s="18"/>
+      <c r="BX24" s="18"/>
+      <c r="BY24" s="18"/>
+      <c r="BZ24" s="18"/>
+      <c r="CA24" s="18"/>
+      <c r="CB24" s="18"/>
+      <c r="CC24" s="18"/>
+      <c r="CD24" s="18"/>
+      <c r="CE24" s="18"/>
+      <c r="CF24" s="18"/>
+      <c r="CG24" s="18"/>
+      <c r="CH24" s="18"/>
+      <c r="CI24" s="18"/>
+      <c r="CJ24" s="18"/>
+      <c r="CK24" s="18"/>
+      <c r="CL24" s="18"/>
+      <c r="CM24" s="18"/>
+      <c r="CN24" s="18"/>
+      <c r="CO24" s="18"/>
+      <c r="CP24" s="18"/>
+      <c r="CQ24" s="18"/>
+      <c r="CR24" s="18"/>
+      <c r="CS24" s="18"/>
+      <c r="CT24" s="18"/>
+      <c r="CU24" s="18"/>
+      <c r="CV24" s="18"/>
+      <c r="CW24" s="18"/>
+      <c r="CX24" s="18"/>
+      <c r="CY24" s="18"/>
+      <c r="CZ24" s="18"/>
+      <c r="DA24" s="18"/>
+      <c r="DB24" s="18"/>
+      <c r="DC24" s="18"/>
+      <c r="DD24" s="18"/>
+      <c r="DE24" s="18"/>
+      <c r="DF24" s="18"/>
+      <c r="DG24" s="18"/>
+      <c r="DH24" s="18"/>
+      <c r="DI24" s="18"/>
+      <c r="DJ24" s="18"/>
+      <c r="DK24" s="18"/>
+      <c r="DL24" s="18"/>
+      <c r="DM24" s="18"/>
+      <c r="DN24" s="18"/>
+      <c r="DO24" s="18"/>
+      <c r="DP24" s="18"/>
     </row>
-    <row r="25" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>22</v>
+    <row r="25" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="39"/>
+      <c r="B25" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="33">
-        <v>44512</v>
-      </c>
-      <c r="F25" s="33">
-        <v>44519</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="32">
+        <v>44517</v>
+      </c>
+      <c r="F25" s="32">
+        <v>44538</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -4495,99 +5690,200 @@
       <c r="BQ25" s="18"/>
       <c r="BR25" s="18"/>
       <c r="BS25" s="18"/>
+      <c r="BT25" s="18"/>
+      <c r="BU25" s="18"/>
+      <c r="BV25" s="18"/>
+      <c r="BW25" s="18"/>
+      <c r="BX25" s="18"/>
+      <c r="BY25" s="18"/>
+      <c r="BZ25" s="18"/>
+      <c r="CA25" s="18"/>
+      <c r="CB25" s="18"/>
+      <c r="CC25" s="18"/>
+      <c r="CD25" s="18"/>
+      <c r="CE25" s="18"/>
+      <c r="CF25" s="18"/>
+      <c r="CG25" s="18"/>
+      <c r="CH25" s="18"/>
+      <c r="CI25" s="18"/>
+      <c r="CJ25" s="18"/>
+      <c r="CK25" s="18"/>
+      <c r="CL25" s="18"/>
+      <c r="CM25" s="18"/>
+      <c r="CN25" s="18"/>
+      <c r="CO25" s="18"/>
+      <c r="CP25" s="18"/>
+      <c r="CQ25" s="18"/>
+      <c r="CR25" s="18"/>
+      <c r="CS25" s="18"/>
+      <c r="CT25" s="18"/>
+      <c r="CU25" s="18"/>
+      <c r="CV25" s="18"/>
+      <c r="CW25" s="18"/>
+      <c r="CX25" s="18"/>
+      <c r="CY25" s="18"/>
+      <c r="CZ25" s="18"/>
+      <c r="DA25" s="18"/>
+      <c r="DB25" s="18"/>
+      <c r="DC25" s="18"/>
+      <c r="DD25" s="18"/>
+      <c r="DE25" s="18"/>
+      <c r="DF25" s="18"/>
+      <c r="DG25" s="18"/>
+      <c r="DH25" s="18"/>
+      <c r="DI25" s="18"/>
+      <c r="DJ25" s="18"/>
+      <c r="DK25" s="18"/>
+      <c r="DL25" s="18"/>
+      <c r="DM25" s="18"/>
+      <c r="DN25" s="18"/>
+      <c r="DO25" s="18"/>
+      <c r="DP25" s="18"/>
     </row>
-    <row r="26" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="49"/>
-      <c r="BA26" s="49"/>
-      <c r="BB26" s="49"/>
-      <c r="BC26" s="49"/>
-      <c r="BD26" s="49"/>
-      <c r="BE26" s="49"/>
-      <c r="BF26" s="49"/>
-      <c r="BG26" s="49"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="49"/>
-      <c r="BJ26" s="49"/>
-      <c r="BK26" s="49"/>
-      <c r="BL26" s="49"/>
-      <c r="BM26" s="49"/>
-      <c r="BN26" s="49"/>
-      <c r="BO26" s="49"/>
-      <c r="BP26" s="49"/>
-      <c r="BQ26" s="49"/>
-      <c r="BR26" s="49"/>
-      <c r="BS26" s="49"/>
+    <row r="26" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="39"/>
+      <c r="B26" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="32">
+        <v>44517</v>
+      </c>
+      <c r="F26" s="32">
+        <v>44538</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="18"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="18"/>
+      <c r="BB26" s="18"/>
+      <c r="BC26" s="18"/>
+      <c r="BD26" s="18"/>
+      <c r="BE26" s="18"/>
+      <c r="BF26" s="18"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="18"/>
+      <c r="BI26" s="18"/>
+      <c r="BJ26" s="18"/>
+      <c r="BK26" s="18"/>
+      <c r="BL26" s="18"/>
+      <c r="BM26" s="18"/>
+      <c r="BN26" s="18"/>
+      <c r="BO26" s="18"/>
+      <c r="BP26" s="18"/>
+      <c r="BQ26" s="18"/>
+      <c r="BR26" s="18"/>
+      <c r="BS26" s="18"/>
+      <c r="BT26" s="18"/>
+      <c r="BU26" s="18"/>
+      <c r="BV26" s="18"/>
+      <c r="BW26" s="18"/>
+      <c r="BX26" s="18"/>
+      <c r="BY26" s="18"/>
+      <c r="BZ26" s="18"/>
+      <c r="CA26" s="18"/>
+      <c r="CB26" s="18"/>
+      <c r="CC26" s="18"/>
+      <c r="CD26" s="18"/>
+      <c r="CE26" s="18"/>
+      <c r="CF26" s="18"/>
+      <c r="CG26" s="18"/>
+      <c r="CH26" s="18"/>
+      <c r="CI26" s="18"/>
+      <c r="CJ26" s="18"/>
+      <c r="CK26" s="18"/>
+      <c r="CL26" s="18"/>
+      <c r="CM26" s="18"/>
+      <c r="CN26" s="18"/>
+      <c r="CO26" s="18"/>
+      <c r="CP26" s="18"/>
+      <c r="CQ26" s="18"/>
+      <c r="CR26" s="18"/>
+      <c r="CS26" s="18"/>
+      <c r="CT26" s="18"/>
+      <c r="CU26" s="18"/>
+      <c r="CV26" s="18"/>
+      <c r="CW26" s="18"/>
+      <c r="CX26" s="18"/>
+      <c r="CY26" s="18"/>
+      <c r="CZ26" s="18"/>
+      <c r="DA26" s="18"/>
+      <c r="DB26" s="18"/>
+      <c r="DC26" s="18"/>
+      <c r="DD26" s="18"/>
+      <c r="DE26" s="18"/>
+      <c r="DF26" s="18"/>
+      <c r="DG26" s="18"/>
+      <c r="DH26" s="18"/>
+      <c r="DI26" s="18"/>
+      <c r="DJ26" s="18"/>
+      <c r="DK26" s="18"/>
+      <c r="DL26" s="18"/>
+      <c r="DM26" s="18"/>
+      <c r="DN26" s="18"/>
+      <c r="DO26" s="18"/>
+      <c r="DP26" s="18"/>
     </row>
-    <row r="27" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="15">
-        <v>0</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="str">
-        <f t="shared" ref="H27:H41" si="19">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
+    <row r="27" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="49"/>
+      <c r="B27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46" t="str">
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="I27" s="18"/>
@@ -4653,20 +5949,78 @@
       <c r="BQ27" s="18"/>
       <c r="BR27" s="18"/>
       <c r="BS27" s="18"/>
+      <c r="BT27" s="18"/>
+      <c r="BU27" s="18"/>
+      <c r="BV27" s="18"/>
+      <c r="BW27" s="18"/>
+      <c r="BX27" s="18"/>
+      <c r="BY27" s="18"/>
+      <c r="BZ27" s="18"/>
+      <c r="CA27" s="18"/>
+      <c r="CB27" s="18"/>
+      <c r="CC27" s="18"/>
+      <c r="CD27" s="18"/>
+      <c r="CE27" s="18"/>
+      <c r="CF27" s="18"/>
+      <c r="CG27" s="18"/>
+      <c r="CH27" s="18"/>
+      <c r="CI27" s="18"/>
+      <c r="CJ27" s="18"/>
+      <c r="CK27" s="18"/>
+      <c r="CL27" s="18"/>
+      <c r="CM27" s="18"/>
+      <c r="CN27" s="18"/>
+      <c r="CO27" s="18"/>
+      <c r="CP27" s="18"/>
+      <c r="CQ27" s="18"/>
+      <c r="CR27" s="18"/>
+      <c r="CS27" s="18"/>
+      <c r="CT27" s="18"/>
+      <c r="CU27" s="18"/>
+      <c r="CV27" s="18"/>
+      <c r="CW27" s="18"/>
+      <c r="CX27" s="18"/>
+      <c r="CY27" s="18"/>
+      <c r="CZ27" s="18"/>
+      <c r="DA27" s="18"/>
+      <c r="DB27" s="18"/>
+      <c r="DC27" s="18"/>
+      <c r="DD27" s="18"/>
+      <c r="DE27" s="18"/>
+      <c r="DF27" s="18"/>
+      <c r="DG27" s="18"/>
+      <c r="DH27" s="18"/>
+      <c r="DI27" s="18"/>
+      <c r="DJ27" s="18"/>
+      <c r="DK27" s="18"/>
+      <c r="DL27" s="18"/>
+      <c r="DM27" s="18"/>
+      <c r="DN27" s="18"/>
+      <c r="DO27" s="18"/>
+      <c r="DP27" s="18"/>
     </row>
-    <row r="28" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="25"/>
+    <row r="28" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="40"/>
+      <c r="B28" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="D28" s="15">
-        <v>0</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="33">
+        <v>44517</v>
+      </c>
+      <c r="F28" s="33">
+        <v>44536</v>
+      </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="11">
+        <f t="shared" ref="H28:H46" si="69">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
+        <v>20</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
@@ -4730,100 +6084,202 @@
       <c r="BQ28" s="18"/>
       <c r="BR28" s="18"/>
       <c r="BS28" s="18"/>
+      <c r="BT28" s="18"/>
+      <c r="BU28" s="18"/>
+      <c r="BV28" s="18"/>
+      <c r="BW28" s="18"/>
+      <c r="BX28" s="18"/>
+      <c r="BY28" s="18"/>
+      <c r="BZ28" s="18"/>
+      <c r="CA28" s="18"/>
+      <c r="CB28" s="18"/>
+      <c r="CC28" s="18"/>
+      <c r="CD28" s="18"/>
+      <c r="CE28" s="18"/>
+      <c r="CF28" s="18"/>
+      <c r="CG28" s="18"/>
+      <c r="CH28" s="18"/>
+      <c r="CI28" s="18"/>
+      <c r="CJ28" s="18"/>
+      <c r="CK28" s="18"/>
+      <c r="CL28" s="18"/>
+      <c r="CM28" s="18"/>
+      <c r="CN28" s="18"/>
+      <c r="CO28" s="18"/>
+      <c r="CP28" s="18"/>
+      <c r="CQ28" s="18"/>
+      <c r="CR28" s="18"/>
+      <c r="CS28" s="18"/>
+      <c r="CT28" s="18"/>
+      <c r="CU28" s="18"/>
+      <c r="CV28" s="18"/>
+      <c r="CW28" s="18"/>
+      <c r="CX28" s="18"/>
+      <c r="CY28" s="18"/>
+      <c r="CZ28" s="18"/>
+      <c r="DA28" s="18"/>
+      <c r="DB28" s="18"/>
+      <c r="DC28" s="18"/>
+      <c r="DD28" s="18"/>
+      <c r="DE28" s="18"/>
+      <c r="DF28" s="18"/>
+      <c r="DG28" s="18"/>
+      <c r="DH28" s="18"/>
+      <c r="DI28" s="18"/>
+      <c r="DJ28" s="18"/>
+      <c r="DK28" s="18"/>
+      <c r="DL28" s="18"/>
+      <c r="DM28" s="18"/>
+      <c r="DN28" s="18"/>
+      <c r="DO28" s="18"/>
+      <c r="DP28" s="18"/>
     </row>
-    <row r="29" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+    <row r="29" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="40"/>
+      <c r="B29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="33">
+        <v>44517</v>
+      </c>
+      <c r="F29" s="33">
+        <v>44536</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="18"/>
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="18"/>
+      <c r="AV29" s="18"/>
+      <c r="AW29" s="18"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="18"/>
+      <c r="BA29" s="18"/>
+      <c r="BB29" s="18"/>
+      <c r="BC29" s="18"/>
+      <c r="BD29" s="18"/>
+      <c r="BE29" s="18"/>
+      <c r="BF29" s="18"/>
+      <c r="BG29" s="18"/>
+      <c r="BH29" s="18"/>
+      <c r="BI29" s="18"/>
+      <c r="BJ29" s="18"/>
+      <c r="BK29" s="18"/>
+      <c r="BL29" s="18"/>
+      <c r="BM29" s="18"/>
+      <c r="BN29" s="18"/>
+      <c r="BO29" s="18"/>
+      <c r="BP29" s="18"/>
+      <c r="BQ29" s="18"/>
+      <c r="BR29" s="18"/>
+      <c r="BS29" s="18"/>
+      <c r="BT29" s="18"/>
+      <c r="BU29" s="18"/>
+      <c r="BV29" s="18"/>
+      <c r="BW29" s="18"/>
+      <c r="BX29" s="18"/>
+      <c r="BY29" s="18"/>
+      <c r="BZ29" s="18"/>
+      <c r="CA29" s="18"/>
+      <c r="CB29" s="18"/>
+      <c r="CC29" s="18"/>
+      <c r="CD29" s="18"/>
+      <c r="CE29" s="18"/>
+      <c r="CF29" s="18"/>
+      <c r="CG29" s="18"/>
+      <c r="CH29" s="18"/>
+      <c r="CI29" s="18"/>
+      <c r="CJ29" s="18"/>
+      <c r="CK29" s="18"/>
+      <c r="CL29" s="18"/>
+      <c r="CM29" s="18"/>
+      <c r="CN29" s="18"/>
+      <c r="CO29" s="18"/>
+      <c r="CP29" s="18"/>
+      <c r="CQ29" s="18"/>
+      <c r="CR29" s="18"/>
+      <c r="CS29" s="18"/>
+      <c r="CT29" s="18"/>
+      <c r="CU29" s="18"/>
+      <c r="CV29" s="18"/>
+      <c r="CW29" s="18"/>
+      <c r="CX29" s="18"/>
+      <c r="CY29" s="18"/>
+      <c r="CZ29" s="18"/>
+      <c r="DA29" s="18"/>
+      <c r="DB29" s="18"/>
+      <c r="DC29" s="18"/>
+      <c r="DD29" s="18"/>
+      <c r="DE29" s="18"/>
+      <c r="DF29" s="18"/>
+      <c r="DG29" s="18"/>
+      <c r="DH29" s="18"/>
+      <c r="DI29" s="18"/>
+      <c r="DJ29" s="18"/>
+      <c r="DK29" s="18"/>
+      <c r="DL29" s="18"/>
+      <c r="DM29" s="18"/>
+      <c r="DN29" s="18"/>
+      <c r="DO29" s="18"/>
+      <c r="DP29" s="18"/>
+    </row>
+    <row r="30" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="49"/>
-      <c r="AZ29" s="49"/>
-      <c r="BA29" s="49"/>
-      <c r="BB29" s="49"/>
-      <c r="BC29" s="49"/>
-      <c r="BD29" s="49"/>
-      <c r="BE29" s="49"/>
-      <c r="BF29" s="49"/>
-      <c r="BG29" s="49"/>
-      <c r="BH29" s="49"/>
-      <c r="BI29" s="49"/>
-      <c r="BJ29" s="49"/>
-      <c r="BK29" s="49"/>
-      <c r="BL29" s="49"/>
-      <c r="BM29" s="49"/>
-      <c r="BN29" s="49"/>
-      <c r="BO29" s="49"/>
-      <c r="BP29" s="49"/>
-      <c r="BQ29" s="49"/>
-      <c r="BR29" s="49"/>
-      <c r="BS29" s="49"/>
-    </row>
-    <row r="30" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11">
-        <v>8</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -4888,101 +6344,202 @@
       <c r="BQ30" s="18"/>
       <c r="BR30" s="18"/>
       <c r="BS30" s="18"/>
+      <c r="BT30" s="18"/>
+      <c r="BU30" s="18"/>
+      <c r="BV30" s="18"/>
+      <c r="BW30" s="18"/>
+      <c r="BX30" s="18"/>
+      <c r="BY30" s="18"/>
+      <c r="BZ30" s="18"/>
+      <c r="CA30" s="18"/>
+      <c r="CB30" s="18"/>
+      <c r="CC30" s="18"/>
+      <c r="CD30" s="18"/>
+      <c r="CE30" s="18"/>
+      <c r="CF30" s="18"/>
+      <c r="CG30" s="18"/>
+      <c r="CH30" s="18"/>
+      <c r="CI30" s="18"/>
+      <c r="CJ30" s="18"/>
+      <c r="CK30" s="18"/>
+      <c r="CL30" s="18"/>
+      <c r="CM30" s="18"/>
+      <c r="CN30" s="18"/>
+      <c r="CO30" s="18"/>
+      <c r="CP30" s="18"/>
+      <c r="CQ30" s="18"/>
+      <c r="CR30" s="18"/>
+      <c r="CS30" s="18"/>
+      <c r="CT30" s="18"/>
+      <c r="CU30" s="18"/>
+      <c r="CV30" s="18"/>
+      <c r="CW30" s="18"/>
+      <c r="CX30" s="18"/>
+      <c r="CY30" s="18"/>
+      <c r="CZ30" s="18"/>
+      <c r="DA30" s="18"/>
+      <c r="DB30" s="18"/>
+      <c r="DC30" s="18"/>
+      <c r="DD30" s="18"/>
+      <c r="DE30" s="18"/>
+      <c r="DF30" s="18"/>
+      <c r="DG30" s="18"/>
+      <c r="DH30" s="18"/>
+      <c r="DI30" s="18"/>
+      <c r="DJ30" s="18"/>
+      <c r="DK30" s="18"/>
+      <c r="DL30" s="18"/>
+      <c r="DM30" s="18"/>
+      <c r="DN30" s="18"/>
+      <c r="DO30" s="18"/>
+      <c r="DP30" s="18"/>
     </row>
-    <row r="31" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48" t="str">
-        <f t="shared" ref="H31:H34" si="20">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
-        <v/>
-      </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
-      <c r="BC31" s="49"/>
-      <c r="BD31" s="49"/>
-      <c r="BE31" s="49"/>
-      <c r="BF31" s="49"/>
-      <c r="BG31" s="49"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="BK31" s="49"/>
-      <c r="BL31" s="49"/>
-      <c r="BM31" s="49"/>
-      <c r="BN31" s="49"/>
-      <c r="BO31" s="49"/>
-      <c r="BP31" s="49"/>
-      <c r="BQ31" s="49"/>
-      <c r="BR31" s="49"/>
-      <c r="BS31" s="49"/>
+    <row r="31" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="39"/>
+      <c r="B31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="34">
+        <v>44545</v>
+      </c>
+      <c r="F31" s="34">
+        <v>44568</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
+        <v>8</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="18"/>
+      <c r="AS31" s="18"/>
+      <c r="AT31" s="18"/>
+      <c r="AU31" s="18"/>
+      <c r="AV31" s="18"/>
+      <c r="AW31" s="18"/>
+      <c r="AX31" s="18"/>
+      <c r="AY31" s="18"/>
+      <c r="AZ31" s="18"/>
+      <c r="BA31" s="18"/>
+      <c r="BB31" s="18"/>
+      <c r="BC31" s="18"/>
+      <c r="BD31" s="18"/>
+      <c r="BE31" s="18"/>
+      <c r="BF31" s="18"/>
+      <c r="BG31" s="18"/>
+      <c r="BH31" s="18"/>
+      <c r="BI31" s="18"/>
+      <c r="BJ31" s="18"/>
+      <c r="BK31" s="18"/>
+      <c r="BL31" s="18"/>
+      <c r="BM31" s="18"/>
+      <c r="BN31" s="18"/>
+      <c r="BO31" s="18"/>
+      <c r="BP31" s="18"/>
+      <c r="BQ31" s="18"/>
+      <c r="BR31" s="18"/>
+      <c r="BS31" s="18"/>
+      <c r="BT31" s="18"/>
+      <c r="BU31" s="18"/>
+      <c r="BV31" s="18"/>
+      <c r="BW31" s="18"/>
+      <c r="BX31" s="18"/>
+      <c r="BY31" s="18"/>
+      <c r="BZ31" s="18"/>
+      <c r="CA31" s="18"/>
+      <c r="CB31" s="18"/>
+      <c r="CC31" s="18"/>
+      <c r="CD31" s="18"/>
+      <c r="CE31" s="18"/>
+      <c r="CF31" s="18"/>
+      <c r="CG31" s="18"/>
+      <c r="CH31" s="18"/>
+      <c r="CI31" s="18"/>
+      <c r="CJ31" s="18"/>
+      <c r="CK31" s="18"/>
+      <c r="CL31" s="18"/>
+      <c r="CM31" s="18"/>
+      <c r="CN31" s="18"/>
+      <c r="CO31" s="18"/>
+      <c r="CP31" s="18"/>
+      <c r="CQ31" s="18"/>
+      <c r="CR31" s="18"/>
+      <c r="CS31" s="18"/>
+      <c r="CT31" s="18"/>
+      <c r="CU31" s="18"/>
+      <c r="CV31" s="18"/>
+      <c r="CW31" s="18"/>
+      <c r="CX31" s="18"/>
+      <c r="CY31" s="18"/>
+      <c r="CZ31" s="18"/>
+      <c r="DA31" s="18"/>
+      <c r="DB31" s="18"/>
+      <c r="DC31" s="18"/>
+      <c r="DD31" s="18"/>
+      <c r="DE31" s="18"/>
+      <c r="DF31" s="18"/>
+      <c r="DG31" s="18"/>
+      <c r="DH31" s="18"/>
+      <c r="DI31" s="18"/>
+      <c r="DJ31" s="18"/>
+      <c r="DK31" s="18"/>
+      <c r="DL31" s="18"/>
+      <c r="DM31" s="18"/>
+      <c r="DN31" s="18"/>
+      <c r="DO31" s="18"/>
+      <c r="DP31" s="18"/>
     </row>
-    <row r="32" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="13">
-        <v>0</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11" t="str">
-        <f t="shared" si="20"/>
+    <row r="32" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="49"/>
+      <c r="B32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46" t="str">
+        <f t="shared" ref="H32:H36" si="70">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
         <v/>
       </c>
       <c r="I32" s="18"/>
@@ -5001,7 +6558,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="18"/>
       <c r="X32" s="18"/>
-      <c r="Y32" s="70"/>
+      <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
       <c r="AB32" s="18"/>
@@ -5048,101 +6605,212 @@
       <c r="BQ32" s="18"/>
       <c r="BR32" s="18"/>
       <c r="BS32" s="18"/>
+      <c r="BT32" s="18"/>
+      <c r="BU32" s="18"/>
+      <c r="BV32" s="18"/>
+      <c r="BW32" s="18"/>
+      <c r="BX32" s="18"/>
+      <c r="BY32" s="18"/>
+      <c r="BZ32" s="18"/>
+      <c r="CA32" s="18"/>
+      <c r="CB32" s="18"/>
+      <c r="CC32" s="18"/>
+      <c r="CD32" s="18"/>
+      <c r="CE32" s="18"/>
+      <c r="CF32" s="18"/>
+      <c r="CG32" s="18"/>
+      <c r="CH32" s="18"/>
+      <c r="CI32" s="18"/>
+      <c r="CJ32" s="18"/>
+      <c r="CK32" s="18"/>
+      <c r="CL32" s="18"/>
+      <c r="CM32" s="18"/>
+      <c r="CN32" s="18"/>
+      <c r="CO32" s="18"/>
+      <c r="CP32" s="18"/>
+      <c r="CQ32" s="18"/>
+      <c r="CR32" s="18"/>
+      <c r="CS32" s="18"/>
+      <c r="CT32" s="18"/>
+      <c r="CU32" s="18"/>
+      <c r="CV32" s="18"/>
+      <c r="CW32" s="18"/>
+      <c r="CX32" s="18"/>
+      <c r="CY32" s="18"/>
+      <c r="CZ32" s="18"/>
+      <c r="DA32" s="18"/>
+      <c r="DB32" s="18"/>
+      <c r="DC32" s="18"/>
+      <c r="DD32" s="18"/>
+      <c r="DE32" s="18"/>
+      <c r="DF32" s="18"/>
+      <c r="DG32" s="18"/>
+      <c r="DH32" s="18"/>
+      <c r="DI32" s="18"/>
+      <c r="DJ32" s="18"/>
+      <c r="DK32" s="18"/>
+      <c r="DL32" s="18"/>
+      <c r="DM32" s="18"/>
+      <c r="DN32" s="18"/>
+      <c r="DO32" s="18"/>
+      <c r="DP32" s="18"/>
     </row>
-    <row r="33" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
-      <c r="BP33" s="49"/>
-      <c r="BQ33" s="49"/>
-      <c r="BR33" s="49"/>
-      <c r="BS33" s="49"/>
+    <row r="33" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="32">
+        <v>44557</v>
+      </c>
+      <c r="F33" s="32">
+        <v>44559</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11">
+        <f t="shared" si="70"/>
+        <v>3</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="18"/>
+      <c r="AN33" s="18"/>
+      <c r="AO33" s="18"/>
+      <c r="AP33" s="18"/>
+      <c r="AQ33" s="18"/>
+      <c r="AR33" s="18"/>
+      <c r="AS33" s="18"/>
+      <c r="AT33" s="18"/>
+      <c r="AU33" s="18"/>
+      <c r="AV33" s="18"/>
+      <c r="AW33" s="18"/>
+      <c r="AX33" s="18"/>
+      <c r="AY33" s="18"/>
+      <c r="AZ33" s="18"/>
+      <c r="BA33" s="18"/>
+      <c r="BB33" s="18"/>
+      <c r="BC33" s="18"/>
+      <c r="BD33" s="18"/>
+      <c r="BE33" s="18"/>
+      <c r="BF33" s="18"/>
+      <c r="BG33" s="18"/>
+      <c r="BH33" s="18"/>
+      <c r="BI33" s="18"/>
+      <c r="BJ33" s="18"/>
+      <c r="BK33" s="18"/>
+      <c r="BL33" s="18"/>
+      <c r="BM33" s="18"/>
+      <c r="BN33" s="18"/>
+      <c r="BO33" s="18"/>
+      <c r="BP33" s="18"/>
+      <c r="BQ33" s="18"/>
+      <c r="BR33" s="18"/>
+      <c r="BS33" s="18"/>
+      <c r="BT33" s="18"/>
+      <c r="BU33" s="18"/>
+      <c r="BV33" s="18"/>
+      <c r="BW33" s="18"/>
+      <c r="BX33" s="18"/>
+      <c r="BY33" s="18"/>
+      <c r="BZ33" s="18"/>
+      <c r="CA33" s="18"/>
+      <c r="CB33" s="18"/>
+      <c r="CC33" s="18"/>
+      <c r="CD33" s="18"/>
+      <c r="CE33" s="18"/>
+      <c r="CF33" s="18"/>
+      <c r="CG33" s="18"/>
+      <c r="CH33" s="18"/>
+      <c r="CI33" s="18"/>
+      <c r="CJ33" s="18"/>
+      <c r="CK33" s="18"/>
+      <c r="CL33" s="18"/>
+      <c r="CM33" s="18"/>
+      <c r="CN33" s="18"/>
+      <c r="CO33" s="18"/>
+      <c r="CP33" s="18"/>
+      <c r="CQ33" s="18"/>
+      <c r="CR33" s="18"/>
+      <c r="CS33" s="18"/>
+      <c r="CT33" s="18"/>
+      <c r="CU33" s="18"/>
+      <c r="CV33" s="18"/>
+      <c r="CW33" s="18"/>
+      <c r="CX33" s="18"/>
+      <c r="CY33" s="18"/>
+      <c r="CZ33" s="18"/>
+      <c r="DA33" s="18"/>
+      <c r="DB33" s="18"/>
+      <c r="DC33" s="18"/>
+      <c r="DD33" s="18"/>
+      <c r="DE33" s="18"/>
+      <c r="DF33" s="18"/>
+      <c r="DG33" s="18"/>
+      <c r="DH33" s="18"/>
+      <c r="DI33" s="18"/>
+      <c r="DJ33" s="18"/>
+      <c r="DK33" s="18"/>
+      <c r="DL33" s="18"/>
+      <c r="DM33" s="18"/>
+      <c r="DN33" s="18"/>
+      <c r="DO33" s="18"/>
+      <c r="DP33" s="18"/>
     </row>
-    <row r="34" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="15">
-        <v>0</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
+    <row r="34" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="38"/>
+      <c r="B34" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="32">
+        <v>44557</v>
+      </c>
+      <c r="F34" s="32">
+        <v>44559</v>
+      </c>
       <c r="G34" s="11"/>
-      <c r="H34" s="11" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+      <c r="H34" s="11"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
@@ -5155,8 +6823,8 @@
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
       <c r="Y34" s="18"/>
@@ -5206,100 +6874,204 @@
       <c r="BQ34" s="18"/>
       <c r="BR34" s="18"/>
       <c r="BS34" s="18"/>
+      <c r="BT34" s="18"/>
+      <c r="BU34" s="18"/>
+      <c r="BV34" s="18"/>
+      <c r="BW34" s="18"/>
+      <c r="BX34" s="18"/>
+      <c r="BY34" s="18"/>
+      <c r="BZ34" s="18"/>
+      <c r="CA34" s="18"/>
+      <c r="CB34" s="18"/>
+      <c r="CC34" s="18"/>
+      <c r="CD34" s="18"/>
+      <c r="CE34" s="18"/>
+      <c r="CF34" s="18"/>
+      <c r="CG34" s="18"/>
+      <c r="CH34" s="18"/>
+      <c r="CI34" s="18"/>
+      <c r="CJ34" s="18"/>
+      <c r="CK34" s="18"/>
+      <c r="CL34" s="18"/>
+      <c r="CM34" s="18"/>
+      <c r="CN34" s="18"/>
+      <c r="CO34" s="18"/>
+      <c r="CP34" s="18"/>
+      <c r="CQ34" s="18"/>
+      <c r="CR34" s="18"/>
+      <c r="CS34" s="18"/>
+      <c r="CT34" s="18"/>
+      <c r="CU34" s="18"/>
+      <c r="CV34" s="18"/>
+      <c r="CW34" s="18"/>
+      <c r="CX34" s="18"/>
+      <c r="CY34" s="18"/>
+      <c r="CZ34" s="18"/>
+      <c r="DA34" s="18"/>
+      <c r="DB34" s="18"/>
+      <c r="DC34" s="18"/>
+      <c r="DD34" s="18"/>
+      <c r="DE34" s="18"/>
+      <c r="DF34" s="18"/>
+      <c r="DG34" s="18"/>
+      <c r="DH34" s="18"/>
+      <c r="DI34" s="18"/>
+      <c r="DJ34" s="18"/>
+      <c r="DK34" s="18"/>
+      <c r="DL34" s="18"/>
+      <c r="DM34" s="18"/>
+      <c r="DN34" s="18"/>
+      <c r="DO34" s="18"/>
+      <c r="DP34" s="18"/>
     </row>
-    <row r="35" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="49"/>
-      <c r="AD35" s="49"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="49"/>
-      <c r="BD35" s="49"/>
-      <c r="BE35" s="49"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="49"/>
-      <c r="BH35" s="49"/>
-      <c r="BI35" s="49"/>
-      <c r="BJ35" s="49"/>
-      <c r="BK35" s="49"/>
-      <c r="BL35" s="49"/>
-      <c r="BM35" s="49"/>
-      <c r="BN35" s="49"/>
-      <c r="BO35" s="49"/>
-      <c r="BP35" s="49"/>
-      <c r="BQ35" s="49"/>
-      <c r="BR35" s="49"/>
-      <c r="BS35" s="49"/>
+    <row r="35" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="41"/>
+      <c r="B35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="18"/>
+      <c r="AS35" s="18"/>
+      <c r="AT35" s="18"/>
+      <c r="AU35" s="18"/>
+      <c r="AV35" s="18"/>
+      <c r="AW35" s="18"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+      <c r="AZ35" s="18"/>
+      <c r="BA35" s="18"/>
+      <c r="BB35" s="18"/>
+      <c r="BC35" s="18"/>
+      <c r="BD35" s="18"/>
+      <c r="BE35" s="18"/>
+      <c r="BF35" s="18"/>
+      <c r="BG35" s="18"/>
+      <c r="BH35" s="18"/>
+      <c r="BI35" s="18"/>
+      <c r="BJ35" s="18"/>
+      <c r="BK35" s="18"/>
+      <c r="BL35" s="18"/>
+      <c r="BM35" s="18"/>
+      <c r="BN35" s="18"/>
+      <c r="BO35" s="18"/>
+      <c r="BP35" s="18"/>
+      <c r="BQ35" s="18"/>
+      <c r="BR35" s="18"/>
+      <c r="BS35" s="18"/>
+      <c r="BT35" s="18"/>
+      <c r="BU35" s="18"/>
+      <c r="BV35" s="18"/>
+      <c r="BW35" s="18"/>
+      <c r="BX35" s="18"/>
+      <c r="BY35" s="18"/>
+      <c r="BZ35" s="18"/>
+      <c r="CA35" s="18"/>
+      <c r="CB35" s="18"/>
+      <c r="CC35" s="18"/>
+      <c r="CD35" s="18"/>
+      <c r="CE35" s="18"/>
+      <c r="CF35" s="18"/>
+      <c r="CG35" s="18"/>
+      <c r="CH35" s="18"/>
+      <c r="CI35" s="18"/>
+      <c r="CJ35" s="18"/>
+      <c r="CK35" s="18"/>
+      <c r="CL35" s="18"/>
+      <c r="CM35" s="18"/>
+      <c r="CN35" s="18"/>
+      <c r="CO35" s="18"/>
+      <c r="CP35" s="18"/>
+      <c r="CQ35" s="18"/>
+      <c r="CR35" s="18"/>
+      <c r="CS35" s="18"/>
+      <c r="CT35" s="18"/>
+      <c r="CU35" s="18"/>
+      <c r="CV35" s="18"/>
+      <c r="CW35" s="18"/>
+      <c r="CX35" s="18"/>
+      <c r="CY35" s="18"/>
+      <c r="CZ35" s="18"/>
+      <c r="DA35" s="18"/>
+      <c r="DB35" s="18"/>
+      <c r="DC35" s="18"/>
+      <c r="DD35" s="18"/>
+      <c r="DE35" s="18"/>
+      <c r="DF35" s="18"/>
+      <c r="DG35" s="18"/>
+      <c r="DH35" s="18"/>
+      <c r="DI35" s="18"/>
+      <c r="DJ35" s="18"/>
+      <c r="DK35" s="18"/>
+      <c r="DL35" s="18"/>
+      <c r="DM35" s="18"/>
+      <c r="DN35" s="18"/>
+      <c r="DO35" s="18"/>
+      <c r="DP35" s="18"/>
     </row>
-    <row r="36" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+    <row r="36" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="39"/>
+      <c r="B36" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1</v>
+      </c>
+      <c r="E36" s="33">
+        <v>44576</v>
+      </c>
+      <c r="F36" s="33">
+        <v>44579</v>
+      </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11">
-        <v>8</v>
+        <f t="shared" si="70"/>
+        <v>4</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -5364,102 +7136,202 @@
       <c r="BQ36" s="18"/>
       <c r="BR36" s="18"/>
       <c r="BS36" s="18"/>
+      <c r="BT36" s="18"/>
+      <c r="BU36" s="18"/>
+      <c r="BV36" s="18"/>
+      <c r="BW36" s="18"/>
+      <c r="BX36" s="18"/>
+      <c r="BY36" s="18"/>
+      <c r="BZ36" s="18"/>
+      <c r="CA36" s="18"/>
+      <c r="CB36" s="18"/>
+      <c r="CC36" s="18"/>
+      <c r="CD36" s="18"/>
+      <c r="CE36" s="18"/>
+      <c r="CF36" s="18"/>
+      <c r="CG36" s="18"/>
+      <c r="CH36" s="18"/>
+      <c r="CI36" s="18"/>
+      <c r="CJ36" s="18"/>
+      <c r="CK36" s="18"/>
+      <c r="CL36" s="18"/>
+      <c r="CM36" s="18"/>
+      <c r="CN36" s="18"/>
+      <c r="CO36" s="18"/>
+      <c r="CP36" s="18"/>
+      <c r="CQ36" s="18"/>
+      <c r="CR36" s="18"/>
+      <c r="CS36" s="18"/>
+      <c r="CT36" s="18"/>
+      <c r="CU36" s="18"/>
+      <c r="CV36" s="18"/>
+      <c r="CW36" s="18"/>
+      <c r="CX36" s="18"/>
+      <c r="CY36" s="18"/>
+      <c r="CZ36" s="18"/>
+      <c r="DA36" s="18"/>
+      <c r="DB36" s="18"/>
+      <c r="DC36" s="18"/>
+      <c r="DD36" s="18"/>
+      <c r="DE36" s="18"/>
+      <c r="DF36" s="18"/>
+      <c r="DG36" s="18"/>
+      <c r="DH36" s="18"/>
+      <c r="DI36" s="18"/>
+      <c r="DJ36" s="18"/>
+      <c r="DK36" s="18"/>
+      <c r="DL36" s="18"/>
+      <c r="DM36" s="18"/>
+      <c r="DN36" s="18"/>
+      <c r="DO36" s="18"/>
+      <c r="DP36" s="18"/>
     </row>
-    <row r="37" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
-      <c r="B37" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48" t="str">
-        <f t="shared" ref="H37:H40" si="21">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
-        <v/>
-      </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="49"/>
-      <c r="AN37" s="49"/>
-      <c r="AO37" s="49"/>
-      <c r="AP37" s="49"/>
-      <c r="AQ37" s="49"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="49"/>
-      <c r="AT37" s="49"/>
-      <c r="AU37" s="49"/>
-      <c r="AV37" s="49"/>
-      <c r="AW37" s="49"/>
-      <c r="AX37" s="49"/>
-      <c r="AY37" s="49"/>
-      <c r="AZ37" s="49"/>
-      <c r="BA37" s="49"/>
-      <c r="BB37" s="49"/>
-      <c r="BC37" s="49"/>
-      <c r="BD37" s="49"/>
-      <c r="BE37" s="49"/>
-      <c r="BF37" s="49"/>
-      <c r="BG37" s="49"/>
-      <c r="BH37" s="49"/>
-      <c r="BI37" s="49"/>
-      <c r="BJ37" s="49"/>
-      <c r="BK37" s="49"/>
-      <c r="BL37" s="49"/>
-      <c r="BM37" s="49"/>
-      <c r="BN37" s="49"/>
-      <c r="BO37" s="49"/>
-      <c r="BP37" s="49"/>
-      <c r="BQ37" s="49"/>
-      <c r="BR37" s="49"/>
-      <c r="BS37" s="49"/>
+    <row r="37" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="39"/>
+      <c r="B37" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="33">
+        <v>44576</v>
+      </c>
+      <c r="F37" s="33">
+        <v>44579</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="18"/>
+      <c r="AS37" s="18"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="18"/>
+      <c r="AV37" s="18"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
+      <c r="AY37" s="18"/>
+      <c r="AZ37" s="18"/>
+      <c r="BA37" s="18"/>
+      <c r="BB37" s="18"/>
+      <c r="BC37" s="18"/>
+      <c r="BD37" s="18"/>
+      <c r="BE37" s="18"/>
+      <c r="BF37" s="18"/>
+      <c r="BG37" s="18"/>
+      <c r="BH37" s="18"/>
+      <c r="BI37" s="18"/>
+      <c r="BJ37" s="18"/>
+      <c r="BK37" s="18"/>
+      <c r="BL37" s="18"/>
+      <c r="BM37" s="18"/>
+      <c r="BN37" s="18"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="18"/>
+      <c r="BQ37" s="18"/>
+      <c r="BR37" s="18"/>
+      <c r="BS37" s="18"/>
+      <c r="BT37" s="18"/>
+      <c r="BU37" s="18"/>
+      <c r="BV37" s="18"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37" s="18"/>
+      <c r="BY37" s="18"/>
+      <c r="BZ37" s="18"/>
+      <c r="CA37" s="18"/>
+      <c r="CB37" s="18"/>
+      <c r="CC37" s="18"/>
+      <c r="CD37" s="18"/>
+      <c r="CE37" s="18"/>
+      <c r="CF37" s="18"/>
+      <c r="CG37" s="18"/>
+      <c r="CH37" s="18"/>
+      <c r="CI37" s="18"/>
+      <c r="CJ37" s="18"/>
+      <c r="CK37" s="18"/>
+      <c r="CL37" s="18"/>
+      <c r="CM37" s="18"/>
+      <c r="CN37" s="18"/>
+      <c r="CO37" s="18"/>
+      <c r="CP37" s="18"/>
+      <c r="CQ37" s="18"/>
+      <c r="CR37" s="18"/>
+      <c r="CS37" s="18"/>
+      <c r="CT37" s="18"/>
+      <c r="CU37" s="18"/>
+      <c r="CV37" s="18"/>
+      <c r="CW37" s="18"/>
+      <c r="CX37" s="18"/>
+      <c r="CY37" s="18"/>
+      <c r="CZ37" s="18"/>
+      <c r="DA37" s="18"/>
+      <c r="DB37" s="18"/>
+      <c r="DC37" s="18"/>
+      <c r="DD37" s="18"/>
+      <c r="DE37" s="18"/>
+      <c r="DF37" s="18"/>
+      <c r="DG37" s="18"/>
+      <c r="DH37" s="18"/>
+      <c r="DI37" s="18"/>
+      <c r="DJ37" s="18"/>
+      <c r="DK37" s="18"/>
+      <c r="DL37" s="18"/>
+      <c r="DM37" s="18"/>
+      <c r="DN37" s="18"/>
+      <c r="DO37" s="18"/>
+      <c r="DP37" s="18"/>
     </row>
-    <row r="38" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="13">
-        <v>0</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+    <row r="38" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -5477,7 +7349,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
-      <c r="Y38" s="70"/>
+      <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
       <c r="AA38" s="18"/>
       <c r="AB38" s="18"/>
@@ -5524,101 +7396,209 @@
       <c r="BQ38" s="18"/>
       <c r="BR38" s="18"/>
       <c r="BS38" s="18"/>
+      <c r="BT38" s="18"/>
+      <c r="BU38" s="18"/>
+      <c r="BV38" s="18"/>
+      <c r="BW38" s="18"/>
+      <c r="BX38" s="18"/>
+      <c r="BY38" s="18"/>
+      <c r="BZ38" s="18"/>
+      <c r="CA38" s="18"/>
+      <c r="CB38" s="18"/>
+      <c r="CC38" s="18"/>
+      <c r="CD38" s="18"/>
+      <c r="CE38" s="18"/>
+      <c r="CF38" s="18"/>
+      <c r="CG38" s="18"/>
+      <c r="CH38" s="18"/>
+      <c r="CI38" s="18"/>
+      <c r="CJ38" s="18"/>
+      <c r="CK38" s="18"/>
+      <c r="CL38" s="18"/>
+      <c r="CM38" s="18"/>
+      <c r="CN38" s="18"/>
+      <c r="CO38" s="18"/>
+      <c r="CP38" s="18"/>
+      <c r="CQ38" s="18"/>
+      <c r="CR38" s="18"/>
+      <c r="CS38" s="18"/>
+      <c r="CT38" s="18"/>
+      <c r="CU38" s="18"/>
+      <c r="CV38" s="18"/>
+      <c r="CW38" s="18"/>
+      <c r="CX38" s="18"/>
+      <c r="CY38" s="18"/>
+      <c r="CZ38" s="18"/>
+      <c r="DA38" s="18"/>
+      <c r="DB38" s="18"/>
+      <c r="DC38" s="18"/>
+      <c r="DD38" s="18"/>
+      <c r="DE38" s="18"/>
+      <c r="DF38" s="18"/>
+      <c r="DG38" s="18"/>
+      <c r="DH38" s="18"/>
+      <c r="DI38" s="18"/>
+      <c r="DJ38" s="18"/>
+      <c r="DK38" s="18"/>
+      <c r="DL38" s="18"/>
+      <c r="DM38" s="18"/>
+      <c r="DN38" s="18"/>
+      <c r="DO38" s="18"/>
+      <c r="DP38" s="18"/>
     </row>
-    <row r="39" spans="1:71" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AE39" s="49"/>
-      <c r="AF39" s="49"/>
-      <c r="AG39" s="49"/>
-      <c r="AH39" s="49"/>
-      <c r="AI39" s="49"/>
-      <c r="AJ39" s="49"/>
-      <c r="AK39" s="49"/>
-      <c r="AL39" s="49"/>
-      <c r="AM39" s="49"/>
-      <c r="AN39" s="49"/>
-      <c r="AO39" s="49"/>
-      <c r="AP39" s="49"/>
-      <c r="AQ39" s="49"/>
-      <c r="AR39" s="49"/>
-      <c r="AS39" s="49"/>
-      <c r="AT39" s="49"/>
-      <c r="AU39" s="49"/>
-      <c r="AV39" s="49"/>
-      <c r="AW39" s="49"/>
-      <c r="AX39" s="49"/>
-      <c r="AY39" s="49"/>
-      <c r="AZ39" s="49"/>
-      <c r="BA39" s="49"/>
-      <c r="BB39" s="49"/>
-      <c r="BC39" s="49"/>
-      <c r="BD39" s="49"/>
-      <c r="BE39" s="49"/>
-      <c r="BF39" s="49"/>
-      <c r="BG39" s="49"/>
-      <c r="BH39" s="49"/>
-      <c r="BI39" s="49"/>
-      <c r="BJ39" s="49"/>
-      <c r="BK39" s="49"/>
-      <c r="BL39" s="49"/>
-      <c r="BM39" s="49"/>
-      <c r="BN39" s="49"/>
-      <c r="BO39" s="49"/>
-      <c r="BP39" s="49"/>
-      <c r="BQ39" s="49"/>
-      <c r="BR39" s="49"/>
-      <c r="BS39" s="49"/>
+    <row r="39" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="39"/>
+      <c r="B39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="34">
+        <v>44579</v>
+      </c>
+      <c r="F39" s="34">
+        <v>44582</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11">
+        <v>8</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="18"/>
+      <c r="AS39" s="18"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="18"/>
+      <c r="AV39" s="18"/>
+      <c r="AW39" s="18"/>
+      <c r="AX39" s="18"/>
+      <c r="AY39" s="18"/>
+      <c r="AZ39" s="18"/>
+      <c r="BA39" s="18"/>
+      <c r="BB39" s="18"/>
+      <c r="BC39" s="18"/>
+      <c r="BD39" s="18"/>
+      <c r="BE39" s="18"/>
+      <c r="BF39" s="18"/>
+      <c r="BG39" s="18"/>
+      <c r="BH39" s="18"/>
+      <c r="BI39" s="18"/>
+      <c r="BJ39" s="18"/>
+      <c r="BK39" s="18"/>
+      <c r="BL39" s="18"/>
+      <c r="BM39" s="18"/>
+      <c r="BN39" s="18"/>
+      <c r="BO39" s="18"/>
+      <c r="BP39" s="18"/>
+      <c r="BQ39" s="18"/>
+      <c r="BR39" s="18"/>
+      <c r="BS39" s="18"/>
+      <c r="BT39" s="18"/>
+      <c r="BU39" s="18"/>
+      <c r="BV39" s="18"/>
+      <c r="BW39" s="18"/>
+      <c r="BX39" s="18"/>
+      <c r="BY39" s="18"/>
+      <c r="BZ39" s="18"/>
+      <c r="CA39" s="18"/>
+      <c r="CB39" s="18"/>
+      <c r="CC39" s="18"/>
+      <c r="CD39" s="18"/>
+      <c r="CE39" s="18"/>
+      <c r="CF39" s="18"/>
+      <c r="CG39" s="18"/>
+      <c r="CH39" s="18"/>
+      <c r="CI39" s="18"/>
+      <c r="CJ39" s="18"/>
+      <c r="CK39" s="18"/>
+      <c r="CL39" s="18"/>
+      <c r="CM39" s="18"/>
+      <c r="CN39" s="18"/>
+      <c r="CO39" s="18"/>
+      <c r="CP39" s="18"/>
+      <c r="CQ39" s="18"/>
+      <c r="CR39" s="18"/>
+      <c r="CS39" s="18"/>
+      <c r="CT39" s="18"/>
+      <c r="CU39" s="18"/>
+      <c r="CV39" s="18"/>
+      <c r="CW39" s="18"/>
+      <c r="CX39" s="18"/>
+      <c r="CY39" s="18"/>
+      <c r="CZ39" s="18"/>
+      <c r="DA39" s="18"/>
+      <c r="DB39" s="18"/>
+      <c r="DC39" s="18"/>
+      <c r="DD39" s="18"/>
+      <c r="DE39" s="18"/>
+      <c r="DF39" s="18"/>
+      <c r="DG39" s="18"/>
+      <c r="DH39" s="18"/>
+      <c r="DI39" s="18"/>
+      <c r="DJ39" s="18"/>
+      <c r="DK39" s="18"/>
+      <c r="DL39" s="18"/>
+      <c r="DM39" s="18"/>
+      <c r="DN39" s="18"/>
+      <c r="DO39" s="18"/>
+      <c r="DP39" s="18"/>
     </row>
-    <row r="40" spans="1:71" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
+    <row r="40" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="39"/>
       <c r="B40" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="15">
-        <v>0</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="34">
+        <v>44579</v>
+      </c>
+      <c r="F40" s="34">
+        <v>44582</v>
+      </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+      <c r="H40" s="11"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
@@ -5631,8 +7611,8 @@
       <c r="R40" s="18"/>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
       <c r="W40" s="18"/>
       <c r="X40" s="18"/>
       <c r="Y40" s="18"/>
@@ -5682,90 +7662,846 @@
       <c r="BQ40" s="18"/>
       <c r="BR40" s="18"/>
       <c r="BS40" s="18"/>
+      <c r="BT40" s="18"/>
+      <c r="BU40" s="18"/>
+      <c r="BV40" s="18"/>
+      <c r="BW40" s="18"/>
+      <c r="BX40" s="18"/>
+      <c r="BY40" s="18"/>
+      <c r="BZ40" s="18"/>
+      <c r="CA40" s="18"/>
+      <c r="CB40" s="18"/>
+      <c r="CC40" s="18"/>
+      <c r="CD40" s="18"/>
+      <c r="CE40" s="18"/>
+      <c r="CF40" s="18"/>
+      <c r="CG40" s="18"/>
+      <c r="CH40" s="18"/>
+      <c r="CI40" s="18"/>
+      <c r="CJ40" s="18"/>
+      <c r="CK40" s="18"/>
+      <c r="CL40" s="18"/>
+      <c r="CM40" s="18"/>
+      <c r="CN40" s="18"/>
+      <c r="CO40" s="18"/>
+      <c r="CP40" s="18"/>
+      <c r="CQ40" s="18"/>
+      <c r="CR40" s="18"/>
+      <c r="CS40" s="18"/>
+      <c r="CT40" s="18"/>
+      <c r="CU40" s="18"/>
+      <c r="CV40" s="18"/>
+      <c r="CW40" s="18"/>
+      <c r="CX40" s="18"/>
+      <c r="CY40" s="18"/>
+      <c r="CZ40" s="18"/>
+      <c r="DA40" s="18"/>
+      <c r="DB40" s="18"/>
+      <c r="DC40" s="18"/>
+      <c r="DD40" s="18"/>
+      <c r="DE40" s="18"/>
+      <c r="DF40" s="18"/>
+      <c r="DG40" s="18"/>
+      <c r="DH40" s="18"/>
+      <c r="DI40" s="18"/>
+      <c r="DJ40" s="18"/>
+      <c r="DK40" s="18"/>
+      <c r="DL40" s="18"/>
+      <c r="DM40" s="18"/>
+      <c r="DN40" s="18"/>
+      <c r="DO40" s="18"/>
+      <c r="DP40" s="18"/>
     </row>
-    <row r="41" spans="1:71" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63">
-        <f>AVERAGE(D10:D12:D14:D16:D18:D19:D21:D21:D23:D25:D27:D28:D30:D30:D32:D32:D34:D34:D36:D36:D38:D38:D40:D40)</f>
-        <v>0.37</v>
-      </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65" t="str">
-        <f t="shared" si="19"/>
+    <row r="41" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="49"/>
+      <c r="B41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46" t="str">
+        <f t="shared" ref="H41:H44" si="71">IF(OR(ISBLANK(_xlfn.SINGLE(inizio_attività)),ISBLANK(_xlfn.SINGLE(fine_attività))),"",_xlfn.SINGLE(fine_attività)-_xlfn.SINGLE(inizio_attività)+1)</f>
         <v/>
       </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="66"/>
-      <c r="AM41" s="66"/>
-      <c r="AN41" s="66"/>
-      <c r="AO41" s="66"/>
-      <c r="AP41" s="66"/>
-      <c r="AQ41" s="66"/>
-      <c r="AR41" s="66"/>
-      <c r="AS41" s="66"/>
-      <c r="AT41" s="66"/>
-      <c r="AU41" s="66"/>
-      <c r="AV41" s="66"/>
-      <c r="AW41" s="66"/>
-      <c r="AX41" s="66"/>
-      <c r="AY41" s="66"/>
-      <c r="AZ41" s="66"/>
-      <c r="BA41" s="66"/>
-      <c r="BB41" s="66"/>
-      <c r="BC41" s="66"/>
-      <c r="BD41" s="66"/>
-      <c r="BE41" s="66"/>
-      <c r="BF41" s="66"/>
-      <c r="BG41" s="66"/>
-      <c r="BH41" s="66"/>
-      <c r="BI41" s="66"/>
-      <c r="BJ41" s="66"/>
-      <c r="BK41" s="66"/>
-      <c r="BL41" s="66"/>
-      <c r="BM41" s="66"/>
-      <c r="BN41" s="66"/>
-      <c r="BO41" s="66"/>
-      <c r="BP41" s="66"/>
-      <c r="BQ41" s="66"/>
-      <c r="BR41" s="66"/>
-      <c r="BS41" s="66"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18"/>
+      <c r="AO41" s="18"/>
+      <c r="AP41" s="18"/>
+      <c r="AQ41" s="18"/>
+      <c r="AR41" s="18"/>
+      <c r="AS41" s="18"/>
+      <c r="AT41" s="18"/>
+      <c r="AU41" s="18"/>
+      <c r="AV41" s="18"/>
+      <c r="AW41" s="18"/>
+      <c r="AX41" s="18"/>
+      <c r="AY41" s="18"/>
+      <c r="AZ41" s="18"/>
+      <c r="BA41" s="18"/>
+      <c r="BB41" s="18"/>
+      <c r="BC41" s="18"/>
+      <c r="BD41" s="18"/>
+      <c r="BE41" s="18"/>
+      <c r="BF41" s="18"/>
+      <c r="BG41" s="18"/>
+      <c r="BH41" s="18"/>
+      <c r="BI41" s="18"/>
+      <c r="BJ41" s="18"/>
+      <c r="BK41" s="18"/>
+      <c r="BL41" s="18"/>
+      <c r="BM41" s="18"/>
+      <c r="BN41" s="18"/>
+      <c r="BO41" s="18"/>
+      <c r="BP41" s="18"/>
+      <c r="BQ41" s="18"/>
+      <c r="BR41" s="18"/>
+      <c r="BS41" s="18"/>
+      <c r="BT41" s="18"/>
+      <c r="BU41" s="18"/>
+      <c r="BV41" s="18"/>
+      <c r="BW41" s="18"/>
+      <c r="BX41" s="18"/>
+      <c r="BY41" s="18"/>
+      <c r="BZ41" s="18"/>
+      <c r="CA41" s="18"/>
+      <c r="CB41" s="18"/>
+      <c r="CC41" s="18"/>
+      <c r="CD41" s="18"/>
+      <c r="CE41" s="18"/>
+      <c r="CF41" s="18"/>
+      <c r="CG41" s="18"/>
+      <c r="CH41" s="18"/>
+      <c r="CI41" s="18"/>
+      <c r="CJ41" s="18"/>
+      <c r="CK41" s="18"/>
+      <c r="CL41" s="18"/>
+      <c r="CM41" s="18"/>
+      <c r="CN41" s="18"/>
+      <c r="CO41" s="18"/>
+      <c r="CP41" s="18"/>
+      <c r="CQ41" s="18"/>
+      <c r="CR41" s="18"/>
+      <c r="CS41" s="18"/>
+      <c r="CT41" s="18"/>
+      <c r="CU41" s="18"/>
+      <c r="CV41" s="18"/>
+      <c r="CW41" s="18"/>
+      <c r="CX41" s="18"/>
+      <c r="CY41" s="18"/>
+      <c r="CZ41" s="18"/>
+      <c r="DA41" s="18"/>
+      <c r="DB41" s="18"/>
+      <c r="DC41" s="18"/>
+      <c r="DD41" s="18"/>
+      <c r="DE41" s="18"/>
+      <c r="DF41" s="18"/>
+      <c r="DG41" s="18"/>
+      <c r="DH41" s="18"/>
+      <c r="DI41" s="18"/>
+      <c r="DJ41" s="18"/>
+      <c r="DK41" s="18"/>
+      <c r="DL41" s="18"/>
+      <c r="DM41" s="18"/>
+      <c r="DN41" s="18"/>
+      <c r="DO41" s="18"/>
+      <c r="DP41" s="18"/>
+    </row>
+    <row r="42" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="32">
+        <v>44582</v>
+      </c>
+      <c r="F42" s="32">
+        <v>44586</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11">
+        <f t="shared" si="71"/>
+        <v>5</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18"/>
+      <c r="AO42" s="18"/>
+      <c r="AP42" s="18"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="18"/>
+      <c r="AS42" s="18"/>
+      <c r="AT42" s="18"/>
+      <c r="AU42" s="18"/>
+      <c r="AV42" s="18"/>
+      <c r="AW42" s="18"/>
+      <c r="AX42" s="18"/>
+      <c r="AY42" s="18"/>
+      <c r="AZ42" s="18"/>
+      <c r="BA42" s="18"/>
+      <c r="BB42" s="18"/>
+      <c r="BC42" s="18"/>
+      <c r="BD42" s="18"/>
+      <c r="BE42" s="18"/>
+      <c r="BF42" s="18"/>
+      <c r="BG42" s="18"/>
+      <c r="BH42" s="18"/>
+      <c r="BI42" s="18"/>
+      <c r="BJ42" s="18"/>
+      <c r="BK42" s="18"/>
+      <c r="BL42" s="18"/>
+      <c r="BM42" s="18"/>
+      <c r="BN42" s="18"/>
+      <c r="BO42" s="18"/>
+      <c r="BP42" s="18"/>
+      <c r="BQ42" s="18"/>
+      <c r="BR42" s="18"/>
+      <c r="BS42" s="18"/>
+      <c r="BT42" s="18"/>
+      <c r="BU42" s="18"/>
+      <c r="BV42" s="18"/>
+      <c r="BW42" s="18"/>
+      <c r="BX42" s="18"/>
+      <c r="BY42" s="18"/>
+      <c r="BZ42" s="18"/>
+      <c r="CA42" s="18"/>
+      <c r="CB42" s="18"/>
+      <c r="CC42" s="18"/>
+      <c r="CD42" s="18"/>
+      <c r="CE42" s="18"/>
+      <c r="CF42" s="18"/>
+      <c r="CG42" s="18"/>
+      <c r="CH42" s="18"/>
+      <c r="CI42" s="18"/>
+      <c r="CJ42" s="18"/>
+      <c r="CK42" s="18"/>
+      <c r="CL42" s="18"/>
+      <c r="CM42" s="18"/>
+      <c r="CN42" s="18"/>
+      <c r="CO42" s="18"/>
+      <c r="CP42" s="18"/>
+      <c r="CQ42" s="18"/>
+      <c r="CR42" s="18"/>
+      <c r="CS42" s="18"/>
+      <c r="CT42" s="18"/>
+      <c r="CU42" s="18"/>
+      <c r="CV42" s="18"/>
+      <c r="CW42" s="18"/>
+      <c r="CX42" s="18"/>
+      <c r="CY42" s="18"/>
+      <c r="CZ42" s="18"/>
+      <c r="DA42" s="18"/>
+      <c r="DB42" s="18"/>
+      <c r="DC42" s="18"/>
+      <c r="DD42" s="18"/>
+      <c r="DE42" s="18"/>
+      <c r="DF42" s="18"/>
+      <c r="DG42" s="18"/>
+      <c r="DH42" s="18"/>
+      <c r="DI42" s="18"/>
+      <c r="DJ42" s="18"/>
+      <c r="DK42" s="18"/>
+      <c r="DL42" s="18"/>
+      <c r="DM42" s="18"/>
+      <c r="DN42" s="18"/>
+      <c r="DO42" s="18"/>
+      <c r="DP42" s="18"/>
+    </row>
+    <row r="43" spans="1:120" s="48" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="41"/>
+      <c r="B43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18"/>
+      <c r="AJ43" s="18"/>
+      <c r="AK43" s="18"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="AO43" s="18"/>
+      <c r="AP43" s="18"/>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="18"/>
+      <c r="AS43" s="18"/>
+      <c r="AT43" s="18"/>
+      <c r="AU43" s="18"/>
+      <c r="AV43" s="18"/>
+      <c r="AW43" s="18"/>
+      <c r="AX43" s="18"/>
+      <c r="AY43" s="18"/>
+      <c r="AZ43" s="18"/>
+      <c r="BA43" s="18"/>
+      <c r="BB43" s="18"/>
+      <c r="BC43" s="18"/>
+      <c r="BD43" s="18"/>
+      <c r="BE43" s="18"/>
+      <c r="BF43" s="18"/>
+      <c r="BG43" s="18"/>
+      <c r="BH43" s="18"/>
+      <c r="BI43" s="18"/>
+      <c r="BJ43" s="18"/>
+      <c r="BK43" s="18"/>
+      <c r="BL43" s="18"/>
+      <c r="BM43" s="18"/>
+      <c r="BN43" s="18"/>
+      <c r="BO43" s="18"/>
+      <c r="BP43" s="18"/>
+      <c r="BQ43" s="18"/>
+      <c r="BR43" s="18"/>
+      <c r="BS43" s="18"/>
+      <c r="BT43" s="18"/>
+      <c r="BU43" s="18"/>
+      <c r="BV43" s="18"/>
+      <c r="BW43" s="18"/>
+      <c r="BX43" s="18"/>
+      <c r="BY43" s="18"/>
+      <c r="BZ43" s="18"/>
+      <c r="CA43" s="18"/>
+      <c r="CB43" s="18"/>
+      <c r="CC43" s="18"/>
+      <c r="CD43" s="18"/>
+      <c r="CE43" s="18"/>
+      <c r="CF43" s="18"/>
+      <c r="CG43" s="18"/>
+      <c r="CH43" s="18"/>
+      <c r="CI43" s="18"/>
+      <c r="CJ43" s="18"/>
+      <c r="CK43" s="18"/>
+      <c r="CL43" s="18"/>
+      <c r="CM43" s="18"/>
+      <c r="CN43" s="18"/>
+      <c r="CO43" s="18"/>
+      <c r="CP43" s="18"/>
+      <c r="CQ43" s="18"/>
+      <c r="CR43" s="18"/>
+      <c r="CS43" s="18"/>
+      <c r="CT43" s="18"/>
+      <c r="CU43" s="18"/>
+      <c r="CV43" s="18"/>
+      <c r="CW43" s="18"/>
+      <c r="CX43" s="18"/>
+      <c r="CY43" s="18"/>
+      <c r="CZ43" s="18"/>
+      <c r="DA43" s="18"/>
+      <c r="DB43" s="18"/>
+      <c r="DC43" s="18"/>
+      <c r="DD43" s="18"/>
+      <c r="DE43" s="18"/>
+      <c r="DF43" s="18"/>
+      <c r="DG43" s="18"/>
+      <c r="DH43" s="18"/>
+      <c r="DI43" s="18"/>
+      <c r="DJ43" s="18"/>
+      <c r="DK43" s="18"/>
+      <c r="DL43" s="18"/>
+      <c r="DM43" s="18"/>
+      <c r="DN43" s="18"/>
+      <c r="DO43" s="18"/>
+      <c r="DP43" s="18"/>
+    </row>
+    <row r="44" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="39"/>
+      <c r="B44" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="15">
+        <v>1</v>
+      </c>
+      <c r="E44" s="33">
+        <v>44586</v>
+      </c>
+      <c r="F44" s="33">
+        <v>44588</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18"/>
+      <c r="AK44" s="18"/>
+      <c r="AL44" s="18"/>
+      <c r="AM44" s="18"/>
+      <c r="AN44" s="18"/>
+      <c r="AO44" s="18"/>
+      <c r="AP44" s="18"/>
+      <c r="AQ44" s="18"/>
+      <c r="AR44" s="18"/>
+      <c r="AS44" s="18"/>
+      <c r="AT44" s="18"/>
+      <c r="AU44" s="18"/>
+      <c r="AV44" s="18"/>
+      <c r="AW44" s="18"/>
+      <c r="AX44" s="18"/>
+      <c r="AY44" s="18"/>
+      <c r="AZ44" s="18"/>
+      <c r="BA44" s="18"/>
+      <c r="BB44" s="18"/>
+      <c r="BC44" s="18"/>
+      <c r="BD44" s="18"/>
+      <c r="BE44" s="18"/>
+      <c r="BF44" s="18"/>
+      <c r="BG44" s="18"/>
+      <c r="BH44" s="18"/>
+      <c r="BI44" s="18"/>
+      <c r="BJ44" s="18"/>
+      <c r="BK44" s="18"/>
+      <c r="BL44" s="18"/>
+      <c r="BM44" s="18"/>
+      <c r="BN44" s="18"/>
+      <c r="BO44" s="18"/>
+      <c r="BP44" s="18"/>
+      <c r="BQ44" s="18"/>
+      <c r="BR44" s="18"/>
+      <c r="BS44" s="18"/>
+      <c r="BT44" s="18"/>
+      <c r="BU44" s="18"/>
+      <c r="BV44" s="18"/>
+      <c r="BW44" s="18"/>
+      <c r="BX44" s="18"/>
+      <c r="BY44" s="18"/>
+      <c r="BZ44" s="18"/>
+      <c r="CA44" s="18"/>
+      <c r="CB44" s="18"/>
+      <c r="CC44" s="18"/>
+      <c r="CD44" s="18"/>
+      <c r="CE44" s="18"/>
+      <c r="CF44" s="18"/>
+      <c r="CG44" s="18"/>
+      <c r="CH44" s="18"/>
+      <c r="CI44" s="18"/>
+      <c r="CJ44" s="18"/>
+      <c r="CK44" s="18"/>
+      <c r="CL44" s="18"/>
+      <c r="CM44" s="18"/>
+      <c r="CN44" s="18"/>
+      <c r="CO44" s="18"/>
+      <c r="CP44" s="18"/>
+      <c r="CQ44" s="18"/>
+      <c r="CR44" s="18"/>
+      <c r="CS44" s="18"/>
+      <c r="CT44" s="18"/>
+      <c r="CU44" s="18"/>
+      <c r="CV44" s="18"/>
+      <c r="CW44" s="18"/>
+      <c r="CX44" s="18"/>
+      <c r="CY44" s="18"/>
+      <c r="CZ44" s="18"/>
+      <c r="DA44" s="18"/>
+      <c r="DB44" s="18"/>
+      <c r="DC44" s="18"/>
+      <c r="DD44" s="18"/>
+      <c r="DE44" s="18"/>
+      <c r="DF44" s="18"/>
+      <c r="DG44" s="18"/>
+      <c r="DH44" s="18"/>
+      <c r="DI44" s="18"/>
+      <c r="DJ44" s="18"/>
+      <c r="DK44" s="18"/>
+      <c r="DL44" s="18"/>
+      <c r="DM44" s="18"/>
+      <c r="DN44" s="18"/>
+      <c r="DO44" s="18"/>
+      <c r="DP44" s="18"/>
+    </row>
+    <row r="45" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="39"/>
+      <c r="B45" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1</v>
+      </c>
+      <c r="E45" s="33">
+        <v>44588</v>
+      </c>
+      <c r="F45" s="33">
+        <v>44590</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="18"/>
+      <c r="AM45" s="18"/>
+      <c r="AN45" s="18"/>
+      <c r="AO45" s="18"/>
+      <c r="AP45" s="18"/>
+      <c r="AQ45" s="18"/>
+      <c r="AR45" s="18"/>
+      <c r="AS45" s="18"/>
+      <c r="AT45" s="18"/>
+      <c r="AU45" s="18"/>
+      <c r="AV45" s="18"/>
+      <c r="AW45" s="18"/>
+      <c r="AX45" s="18"/>
+      <c r="AY45" s="18"/>
+      <c r="AZ45" s="18"/>
+      <c r="BA45" s="18"/>
+      <c r="BB45" s="18"/>
+      <c r="BC45" s="18"/>
+      <c r="BD45" s="18"/>
+      <c r="BE45" s="18"/>
+      <c r="BF45" s="18"/>
+      <c r="BG45" s="18"/>
+      <c r="BH45" s="18"/>
+      <c r="BI45" s="18"/>
+      <c r="BJ45" s="18"/>
+      <c r="BK45" s="18"/>
+      <c r="BL45" s="18"/>
+      <c r="BM45" s="18"/>
+      <c r="BN45" s="18"/>
+      <c r="BO45" s="18"/>
+      <c r="BP45" s="18"/>
+      <c r="BQ45" s="18"/>
+      <c r="BR45" s="18"/>
+      <c r="BS45" s="18"/>
+      <c r="BT45" s="18"/>
+      <c r="BU45" s="18"/>
+      <c r="BV45" s="18"/>
+      <c r="BW45" s="18"/>
+      <c r="BX45" s="18"/>
+      <c r="BY45" s="18"/>
+      <c r="BZ45" s="18"/>
+      <c r="CA45" s="18"/>
+      <c r="CB45" s="18"/>
+      <c r="CC45" s="18"/>
+      <c r="CD45" s="18"/>
+      <c r="CE45" s="18"/>
+      <c r="CF45" s="18"/>
+      <c r="CG45" s="18"/>
+      <c r="CH45" s="18"/>
+      <c r="CI45" s="18"/>
+      <c r="CJ45" s="18"/>
+      <c r="CK45" s="18"/>
+      <c r="CL45" s="18"/>
+      <c r="CM45" s="18"/>
+      <c r="CN45" s="18"/>
+      <c r="CO45" s="18"/>
+      <c r="CP45" s="18"/>
+      <c r="CQ45" s="18"/>
+      <c r="CR45" s="18"/>
+      <c r="CS45" s="18"/>
+      <c r="CT45" s="18"/>
+      <c r="CU45" s="18"/>
+      <c r="CV45" s="18"/>
+      <c r="CW45" s="18"/>
+      <c r="CX45" s="18"/>
+      <c r="CY45" s="18"/>
+      <c r="CZ45" s="18"/>
+      <c r="DA45" s="18"/>
+      <c r="DB45" s="18"/>
+      <c r="DC45" s="18"/>
+      <c r="DD45" s="18"/>
+      <c r="DE45" s="18"/>
+      <c r="DF45" s="18"/>
+      <c r="DG45" s="18"/>
+      <c r="DH45" s="18"/>
+      <c r="DI45" s="18"/>
+      <c r="DJ45" s="18"/>
+      <c r="DK45" s="18"/>
+      <c r="DL45" s="18"/>
+      <c r="DM45" s="18"/>
+      <c r="DN45" s="18"/>
+      <c r="DO45" s="18"/>
+      <c r="DP45" s="18"/>
+    </row>
+    <row r="46" spans="1:120" s="64" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="49"/>
+      <c r="B46" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60">
+        <f>AVERAGE(D10:D12:D14:D16:D18:D19:D21:D22:D24:D26:D28:D29:D31:D31:D33:D34:D36:D37:D39:D40:D42:D42:D44:D45)</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="63"/>
+      <c r="AB46" s="63"/>
+      <c r="AC46" s="63"/>
+      <c r="AD46" s="63"/>
+      <c r="AE46" s="63"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
+      <c r="AJ46" s="63"/>
+      <c r="AK46" s="63"/>
+      <c r="AL46" s="63"/>
+      <c r="AM46" s="63"/>
+      <c r="AN46" s="63"/>
+      <c r="AO46" s="63"/>
+      <c r="AP46" s="63"/>
+      <c r="AQ46" s="63"/>
+      <c r="AR46" s="63"/>
+      <c r="AS46" s="63"/>
+      <c r="AT46" s="63"/>
+      <c r="AU46" s="63"/>
+      <c r="AV46" s="63"/>
+      <c r="AW46" s="63"/>
+      <c r="AX46" s="63"/>
+      <c r="AY46" s="63"/>
+      <c r="AZ46" s="63"/>
+      <c r="BA46" s="63"/>
+      <c r="BB46" s="63"/>
+      <c r="BC46" s="63"/>
+      <c r="BD46" s="63"/>
+      <c r="BE46" s="63"/>
+      <c r="BF46" s="63"/>
+      <c r="BG46" s="63"/>
+      <c r="BH46" s="63"/>
+      <c r="BI46" s="63"/>
+      <c r="BJ46" s="63"/>
+      <c r="BK46" s="63"/>
+      <c r="BL46" s="63"/>
+      <c r="BM46" s="63"/>
+      <c r="BN46" s="63"/>
+      <c r="BO46" s="63"/>
+      <c r="BP46" s="63"/>
+      <c r="BQ46" s="63"/>
+      <c r="BR46" s="63"/>
+      <c r="BS46" s="63"/>
+      <c r="BT46" s="63"/>
+      <c r="BU46" s="63"/>
+      <c r="BV46" s="63"/>
+      <c r="BW46" s="63"/>
+      <c r="BX46" s="63"/>
+      <c r="BY46" s="63"/>
+      <c r="BZ46" s="63"/>
+      <c r="CA46" s="63"/>
+      <c r="CB46" s="63"/>
+      <c r="CC46" s="63"/>
+      <c r="CD46" s="63"/>
+      <c r="CE46" s="63"/>
+      <c r="CF46" s="63"/>
+      <c r="CG46" s="63"/>
+      <c r="CH46" s="63"/>
+      <c r="CI46" s="63"/>
+      <c r="CJ46" s="63"/>
+      <c r="CK46" s="63"/>
+      <c r="CL46" s="63"/>
+      <c r="CM46" s="63"/>
+      <c r="CN46" s="63"/>
+      <c r="CO46" s="63"/>
+      <c r="CP46" s="63"/>
+      <c r="CQ46" s="63"/>
+      <c r="CR46" s="63"/>
+      <c r="CS46" s="63"/>
+      <c r="CT46" s="63"/>
+      <c r="CU46" s="63"/>
+      <c r="CV46" s="63"/>
+      <c r="CW46" s="63"/>
+      <c r="CX46" s="63"/>
+      <c r="CY46" s="63"/>
+      <c r="CZ46" s="63"/>
+      <c r="DA46" s="63"/>
+      <c r="DB46" s="63"/>
+      <c r="DC46" s="63"/>
+      <c r="DD46" s="63"/>
+      <c r="DE46" s="63"/>
+      <c r="DF46" s="63"/>
+      <c r="DG46" s="63"/>
+      <c r="DH46" s="63"/>
+      <c r="DI46" s="63"/>
+      <c r="DJ46" s="63"/>
+      <c r="DK46" s="63"/>
+      <c r="DL46" s="63"/>
+      <c r="DM46" s="63"/>
+      <c r="DN46" s="63"/>
+      <c r="DO46" s="63"/>
+      <c r="DP46" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="21">
     <mergeCell ref="BM5:BS5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="C3:D3"/>
@@ -5780,9 +8516,17 @@
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="CV5:DB5"/>
+    <mergeCell ref="DC5:DI5"/>
+    <mergeCell ref="DJ5:DP5"/>
+    <mergeCell ref="BT5:BZ5"/>
+    <mergeCell ref="CA5:CG5"/>
+    <mergeCell ref="CH5:CN5"/>
+    <mergeCell ref="CO5:CU5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D28 D31:D34 D41">
-    <cfRule type="dataBar" priority="85">
+  <phoneticPr fontId="28" type="noConversion"/>
+  <conditionalFormatting sqref="D8:D29 D46 D32:D37">
+    <cfRule type="dataBar" priority="268">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5795,119 +8539,54 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BD14 I16:BD28 AG15:BD15 I15:AE15 I33:BD34 I41:BD41">
-    <cfRule type="expression" dxfId="48" priority="104">
+  <conditionalFormatting sqref="I6:BD8 I46:BD46 I9:DP9 J9:DP30 I10:I45 J32:DP45">
+    <cfRule type="expression" dxfId="45" priority="287">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BD14 I16:BD28 AG15:BD15 I15:AE15 I33:BD34 I41:BD41">
-    <cfRule type="expression" dxfId="47" priority="98">
+  <conditionalFormatting sqref="I8:BD8 I46:BD46 I9:DP9 J9:DP30 I10:I45 J32:DP45">
+    <cfRule type="expression" dxfId="44" priority="281">
       <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="282" stopIfTrue="1">
       <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN23:BS26 BF23:BI26 BF27:BS28 BF9:BS22 BE6:BE28 BE31:BS34 BE41:BS41">
-    <cfRule type="expression" dxfId="45" priority="106">
+  <conditionalFormatting sqref="BE6:BE8 BE46:BS46">
+    <cfRule type="expression" dxfId="42" priority="289">
       <formula>AND(TODAY()&gt;=BE$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN23:BS26 BF23:BI26 BF27:BS28 BF9:BS22 BE8:BE28 BE31:BS34 BE41:BS41">
-    <cfRule type="expression" dxfId="44" priority="109">
+  <conditionalFormatting sqref="BE8 BE46:BS46">
+    <cfRule type="expression" dxfId="41" priority="292">
       <formula>AND(inizio_attività&lt;=BE$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BE$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="293" stopIfTrue="1">
       <formula>AND(fine_attività&gt;=BE$6,inizio_attività&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM26">
-    <cfRule type="expression" dxfId="42" priority="59">
-      <formula>AND(TODAY()&gt;=BM$6,TODAY()&lt;BN$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BM6:BR7">
-    <cfRule type="expression" dxfId="41" priority="65">
+    <cfRule type="expression" dxfId="39" priority="248">
       <formula>AND(TODAY()&gt;=BM$6,TODAY()&lt;BN$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS6:BS7">
-    <cfRule type="expression" dxfId="40" priority="66">
+    <cfRule type="expression" dxfId="38" priority="249">
       <formula>AND(TODAY()&gt;=BS$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF6:BK7">
-    <cfRule type="expression" dxfId="39" priority="63">
+    <cfRule type="expression" dxfId="37" priority="246">
       <formula>AND(TODAY()&gt;=BF$6,TODAY()&lt;BG$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL6:BL7">
-    <cfRule type="expression" dxfId="38" priority="64">
+    <cfRule type="expression" dxfId="36" priority="247">
       <formula>AND(TODAY()&gt;=BL$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM23:BM25">
-    <cfRule type="expression" dxfId="37" priority="62">
-      <formula>AND(TODAY()&gt;=BM$6,TODAY()&lt;BN$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM23:BM25">
-    <cfRule type="expression" dxfId="36" priority="60">
-      <formula>AND(inizio_attività&lt;=BM$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BM$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="61" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=BM$6,inizio_attività&lt;BN$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM26">
-    <cfRule type="expression" dxfId="34" priority="57">
-      <formula>AND(inizio_attività&lt;=BM$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BM$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="58" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=BM$6,inizio_attività&lt;BN$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ23:BL25">
-    <cfRule type="expression" dxfId="32" priority="56">
-      <formula>AND(TODAY()&gt;=BJ$6,TODAY()&lt;BK$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ23:BL25">
-    <cfRule type="expression" dxfId="31" priority="54">
-      <formula>AND(inizio_attività&lt;=BJ$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BJ$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="55" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=BJ$6,inizio_attività&lt;BK$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ26:BL26">
-    <cfRule type="expression" dxfId="29" priority="53">
-      <formula>AND(TODAY()&gt;=BJ$6,TODAY()&lt;BK$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ26:BL26">
-    <cfRule type="expression" dxfId="28" priority="51">
-      <formula>AND(inizio_attività&lt;=BJ$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BJ$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="52" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=BJ$6,inizio_attività&lt;BK$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="expression" dxfId="26" priority="37">
-      <formula>AND(TODAY()&gt;=AF$6,TODAY()&lt;AG$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="expression" dxfId="25" priority="35">
-      <formula>AND(inizio_attività&lt;=AF$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=AF$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=AF$6,inizio_attività&lt;AG$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D30">
-    <cfRule type="dataBar" priority="28">
+  <conditionalFormatting sqref="D30:D31">
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5920,47 +8599,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BD30">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+  <conditionalFormatting sqref="J31:DP31">
+    <cfRule type="expression" dxfId="35" priority="214">
+      <formula>AND(TODAY()&gt;=J$6,TODAY()&lt;K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BD30">
-    <cfRule type="expression" dxfId="22" priority="29">
-      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
+  <conditionalFormatting sqref="J31:DP31">
+    <cfRule type="expression" dxfId="34" priority="212">
+      <formula>AND(inizio_attività&lt;=J$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=J$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
+    <cfRule type="expression" dxfId="33" priority="213" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=J$6,inizio_attività&lt;K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE29:BS30">
-    <cfRule type="expression" dxfId="20" priority="32">
-      <formula>AND(TODAY()&gt;=BE$6,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE29:BS30">
-    <cfRule type="expression" dxfId="19" priority="33">
-      <formula>AND(inizio_attività&lt;=BE$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BE$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="34" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=BE$6,inizio_attività&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BD32">
-    <cfRule type="expression" dxfId="17" priority="24">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BD32">
-    <cfRule type="expression" dxfId="16" priority="22">
-      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D40">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="D41:D45">
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5973,34 +8626,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BD40">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BD40">
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE37:BS40">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>AND(TODAY()&gt;=BE$6,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE37:BS40">
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>AND(inizio_attività&lt;=BE$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BE$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=BE$6,inizio_attività&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D36">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="D38:D40">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6013,43 +8640,157 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BD36">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+  <conditionalFormatting sqref="BT46:BZ46">
+    <cfRule type="expression" dxfId="32" priority="181">
+      <formula>AND(TODAY()&gt;=BT$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BD36">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
+  <conditionalFormatting sqref="BT46:BZ46">
+    <cfRule type="expression" dxfId="31" priority="182">
+      <formula>AND(inizio_attività&lt;=BT$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BT$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
+    <cfRule type="expression" dxfId="30" priority="183" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=BT$6,inizio_attività&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE35:BS36">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>AND(TODAY()&gt;=BE$6,TODAY()&lt;#REF!)</formula>
+  <conditionalFormatting sqref="BT6:BY7">
+    <cfRule type="expression" dxfId="29" priority="179">
+      <formula>AND(TODAY()&gt;=BT$6,TODAY()&lt;BU$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE35:BS36">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>AND(inizio_attività&lt;=BE$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=BE$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=BE$6,inizio_attività&lt;#REF!)</formula>
+  <conditionalFormatting sqref="BZ6:BZ7">
+    <cfRule type="expression" dxfId="28" priority="180">
+      <formula>AND(TODAY()&gt;=BZ$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BD38">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
+  <conditionalFormatting sqref="CA46:CG46">
+    <cfRule type="expression" dxfId="27" priority="161">
+      <formula>AND(TODAY()&gt;=CA$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BD38">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(inizio_attività&lt;=I$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=I$6)</formula>
+  <conditionalFormatting sqref="CA46:CG46">
+    <cfRule type="expression" dxfId="26" priority="162">
+      <formula>AND(inizio_attività&lt;=CA$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=CA$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(fine_attività&gt;=I$6,inizio_attività&lt;J$6)</formula>
+    <cfRule type="expression" dxfId="25" priority="163" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=CA$6,inizio_attività&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA6:CF7">
+    <cfRule type="expression" dxfId="24" priority="159">
+      <formula>AND(TODAY()&gt;=CA$6,TODAY()&lt;CB$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG6:CG7">
+    <cfRule type="expression" dxfId="23" priority="160">
+      <formula>AND(TODAY()&gt;=CG$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH46:CN46">
+    <cfRule type="expression" dxfId="22" priority="143">
+      <formula>AND(TODAY()&gt;=CH$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH46:CN46">
+    <cfRule type="expression" dxfId="21" priority="142">
+      <formula>AND(inizio_attività&lt;=CH$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=CH$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="294" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=CH$6,inizio_attività&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH6:CM7">
+    <cfRule type="expression" dxfId="19" priority="139">
+      <formula>AND(TODAY()&gt;=CH$6,TODAY()&lt;CI$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN6:CN7">
+    <cfRule type="expression" dxfId="18" priority="140">
+      <formula>AND(TODAY()&gt;=CN$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO46:CU46">
+    <cfRule type="expression" dxfId="17" priority="118">
+      <formula>AND(TODAY()&gt;=CO$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO46:CU46">
+    <cfRule type="expression" dxfId="16" priority="117">
+      <formula>AND(inizio_attività&lt;=CO$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=CO$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO6:CT7">
+    <cfRule type="expression" dxfId="15" priority="115">
+      <formula>AND(TODAY()&gt;=CO$6,TODAY()&lt;CP$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV46:DB46">
+    <cfRule type="expression" dxfId="14" priority="58">
+      <formula>AND(TODAY()&gt;=CV$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV46:DB46">
+    <cfRule type="expression" dxfId="13" priority="57">
+      <formula>AND(inizio_attività&lt;=CV$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=CV$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="61" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=CV$6,inizio_attività&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV6:DA7">
+    <cfRule type="expression" dxfId="11" priority="55">
+      <formula>AND(TODAY()&gt;=CV$6,TODAY()&lt;CW$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DB6:DB7">
+    <cfRule type="expression" dxfId="10" priority="295">
+      <formula>AND(TODAY()&gt;=DB$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC46:DI46">
+    <cfRule type="expression" dxfId="9" priority="38">
+      <formula>AND(TODAY()&gt;=DC$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC46:DI46">
+    <cfRule type="expression" dxfId="8" priority="37">
+      <formula>AND(inizio_attività&lt;=DC$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=DC$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="41" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=DC$6,inizio_attività&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC6:DH7">
+    <cfRule type="expression" dxfId="6" priority="35">
+      <formula>AND(TODAY()&gt;=DC$6,TODAY()&lt;DD$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DI6:DI7">
+    <cfRule type="expression" dxfId="5" priority="296">
+      <formula>AND(TODAY()&gt;=DI$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ46:DP46">
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>AND(TODAY()&gt;=DJ$6,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ46:DP46">
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>AND(inizio_attività&lt;=DJ$6,ROUNDDOWN((fine_attività-inizio_attività+1)*avanzamento_attività,0)+inizio_attività-1&gt;=DJ$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="21" stopIfTrue="1">
+      <formula>AND(fine_attività&gt;=DJ$6,inizio_attività&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ6:DO7">
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>AND(TODAY()&gt;=DJ$6,TODAY()&lt;DK$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DP6:DP7">
+    <cfRule type="expression" dxfId="0" priority="297">
+      <formula>AND(TODAY()&gt;=DP$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6059,7 +8800,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -6079,7 +8820,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D8:D28 D31:D34 D41</xm:sqref>
+          <xm:sqref>D8:D29 D46 D32:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{42DBB978-EE8A-4D77-B4EE-9817368D2E46}">
@@ -6094,7 +8835,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29:D30</xm:sqref>
+          <xm:sqref>D30:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{33BB2941-E092-412E-A9BE-3CDDF9E800E8}">
@@ -6109,7 +8850,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37:D40</xm:sqref>
+          <xm:sqref>D41:D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{57D0C178-3BC5-46CA-A235-05E2317A4572}">
@@ -6124,7 +8865,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35:D36</xm:sqref>
+          <xm:sqref>D38:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6133,12 +8874,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6147,9 +8882,15 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003FB44DC2FB1CDB499C1AF3EAAE58F67C" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="23c5e102ca2fcba840b1b50264c2bf0e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b77f104-8052-46ee-b811-a01298bf7f96" xmlns:ns3="16fcf086-3792-4be6-a86c-4767d62f3a00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e927014a0787dc6ddad099404782267c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003FB44DC2FB1CDB499C1AF3EAAE58F67C" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="37d5fa1c7b3ab3f75754755e50419710">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b77f104-8052-46ee-b811-a01298bf7f96" xmlns:ns3="16fcf086-3792-4be6-a86c-4767d62f3a00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="543545c64c4548654592f7590cbcebf7" ns2:_="" ns3:_="">
     <xsd:import namespace="5b77f104-8052-46ee-b811-a01298bf7f96"/>
     <xsd:import namespace="16fcf086-3792-4be6-a86c-4767d62f3a00"/>
     <xsd:element name="properties">
@@ -6165,6 +8906,7 @@
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6200,11 +8942,18 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="16fcf086-3792-4be6-a86c-4767d62f3a00" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -6223,7 +8972,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -6240,8 +8989,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -6331,23 +9080,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05BB06E1-BF34-43B8-B703-2E01126BC2DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="16fcf086-3792-4be6-a86c-4767d62f3a00"/>
-    <ds:schemaRef ds:uri="5b77f104-8052-46ee-b811-a01298bf7f96"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D2A7B8-7FB9-446D-A64E-48DA50324A94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6355,8 +9087,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05BB06E1-BF34-43B8-B703-2E01126BC2DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16fcf086-3792-4be6-a86c-4767d62f3a00"/>
+    <ds:schemaRef ds:uri="5b77f104-8052-46ee-b811-a01298bf7f96"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD9C3FDC-818A-4CE4-A5BA-B96247D9D76F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AA505C1-C8E6-4F67-AEB6-83461087D43F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
